--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\Symphony\Others\Requisition of Mugdho Corporation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\Others\Requisition of Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -830,115 +830,115 @@
     <t>Z18</t>
   </si>
   <si>
+    <t>City Bank</t>
+  </si>
+  <si>
+    <t>Z25</t>
+  </si>
+  <si>
+    <t>Z28</t>
+  </si>
+  <si>
+    <t>Z30</t>
+  </si>
+  <si>
+    <t>Z32</t>
+  </si>
+  <si>
+    <t>Z40</t>
+  </si>
+  <si>
+    <t>Z50</t>
+  </si>
+  <si>
+    <t>ATOM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carabian Blue </t>
+  </si>
+  <si>
+    <t>Z35(3+32)</t>
+  </si>
+  <si>
+    <t>Z35(4+64)</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>G10+</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>BL99</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>i32</t>
+  </si>
+  <si>
+    <t>Amazon Green/Persian Blue</t>
+  </si>
+  <si>
+    <t>Dazzling Blue/Super Green</t>
+  </si>
+  <si>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>Black &amp; White</t>
+  </si>
+  <si>
+    <t>Deposit =</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>i69</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>Black &amp; Blue</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>B68_WHP_SKD</t>
+  </si>
+  <si>
+    <t>Advance</t>
+  </si>
+  <si>
+    <t>fgdhfg</t>
+  </si>
+  <si>
+    <t>dfshgj</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
     <t>Mugdho Corporation</t>
-  </si>
-  <si>
-    <t>City Bank</t>
-  </si>
-  <si>
-    <t>Z25</t>
-  </si>
-  <si>
-    <t>Z28</t>
-  </si>
-  <si>
-    <t>Z30</t>
-  </si>
-  <si>
-    <t>Z32</t>
-  </si>
-  <si>
-    <t>Z40</t>
-  </si>
-  <si>
-    <t>Z50</t>
-  </si>
-  <si>
-    <t>ATOM2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carabian Blue </t>
-  </si>
-  <si>
-    <t>Z35(3+32)</t>
-  </si>
-  <si>
-    <t>Z35(4+64)</t>
-  </si>
-  <si>
-    <t>B69</t>
-  </si>
-  <si>
-    <t>D48</t>
-  </si>
-  <si>
-    <t>G10+</t>
-  </si>
-  <si>
-    <t>L43</t>
-  </si>
-  <si>
-    <t>BL99</t>
-  </si>
-  <si>
-    <t>D78</t>
-  </si>
-  <si>
-    <t>i32</t>
-  </si>
-  <si>
-    <t>Amazon Green/Persian Blue</t>
-  </si>
-  <si>
-    <t>Dazzling Blue/Super Green</t>
-  </si>
-  <si>
-    <t>Z33</t>
-  </si>
-  <si>
-    <t>Black &amp; White</t>
-  </si>
-  <si>
-    <t>Deposit =</t>
-  </si>
-  <si>
-    <t>D76</t>
-  </si>
-  <si>
-    <t>S45</t>
-  </si>
-  <si>
-    <t>i69</t>
-  </si>
-  <si>
-    <t>L45</t>
-  </si>
-  <si>
-    <t>L44</t>
-  </si>
-  <si>
-    <t>Black &amp; Blue</t>
-  </si>
-  <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>B68_WHP_SKD</t>
-  </si>
-  <si>
-    <t>Advance</t>
-  </si>
-  <si>
-    <t>fgdhfg</t>
-  </si>
-  <si>
-    <t>dfshgj</t>
-  </si>
-  <si>
-    <t>Z22</t>
-  </si>
-  <si>
-    <t>B62</t>
   </si>
 </sst>
 </file>
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I98" sqref="I98"/>
+      <selection pane="bottomRight" activeCell="H185" sqref="G182:H185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1971,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44560</v>
+        <v>44571</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2000,19 +2000,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="42" t="s">
         <v>261</v>
       </c>
       <c r="B5" s="28">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17">
-        <v>15</v>
-      </c>
+      <c r="C5" s="17"/>
       <c r="D5" s="18">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>108663.15</v>
+        <v>0</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>250</v>
@@ -2073,19 +2071,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="42" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>60</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>423405.60000000003</v>
+        <v>0</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>250</v>
@@ -2775,19 +2771,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>300</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>279678</v>
+        <v>0</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>250</v>
@@ -3008,7 +3002,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3022,19 +3016,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>160</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>147552</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3095,19 +3087,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>50</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>53479.499999999993</v>
+        <v>0</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -3888,7 +3878,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="42" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5054,19 +5044,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>250</v>
@@ -5187,17 +5175,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>250</v>
@@ -5576,22 +5566,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="42" t="s">
         <v>196</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="39" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6420,7 +6408,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6551,7 +6539,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6680,17 +6668,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>45</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>49845.600000000006</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>250</v>
@@ -7333,22 +7323,20 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B56" s="47">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48">
-        <v>10</v>
-      </c>
+      <c r="C56" s="48"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8833,7 +8821,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B68" s="28">
         <v>5142.21</v>
@@ -9156,7 +9144,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -10311,17 +10299,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>255</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>250</v>
@@ -10379,17 +10369,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>250</v>
@@ -11425,19 +11417,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="43" t="s">
         <v>259</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="18" t="s">
         <v>250</v>
@@ -11558,19 +11548,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>56133.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>250</v>
@@ -11691,19 +11679,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>100</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>122506</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>250</v>
@@ -11826,7 +11812,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12074,17 +12060,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A102" s="42" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>250</v>
@@ -12138,19 +12126,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -12259,19 +12245,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>40</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>48194.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>250</v>
@@ -14221,19 +14205,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="18" t="s">
         <v>250</v>
@@ -18440,7 +18422,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18502,7 +18484,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>231</v>
       </c>
@@ -18826,19 +18808,17 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="42" t="s">
         <v>267</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
       </c>
-      <c r="C162" s="17">
-        <v>10</v>
-      </c>
+      <c r="C162" s="17"/>
       <c r="D162" s="18">
         <f t="shared" si="5"/>
-        <v>72422</v>
+        <v>0</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>250</v>
@@ -18959,19 +18939,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>20</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>149762.6</v>
+        <v>0</v>
       </c>
       <c r="E163" s="18" t="s">
         <v>203</v>
@@ -19094,7 +19072,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19223,7 +19201,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19234,7 +19212,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19354,7 +19332,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19365,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19496,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19616,7 +19594,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19747,7 +19725,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B169" s="28">
         <v>8134.32</v>
@@ -19876,19 +19854,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>20</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>181130.2</v>
+        <v>0</v>
       </c>
       <c r="E170" s="18" t="s">
         <v>250</v>
@@ -20011,7 +19987,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20142,7 +20118,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20153,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20273,7 +20249,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B173" s="28">
         <v>10133.07</v>
@@ -20409,11 +20385,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C5:C173)</f>
-        <v>1065</v>
+        <v>125</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D5:D173)</f>
-        <v>1998461.87</v>
+        <v>149963.43800000002</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20684,9 +20660,11 @@
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
       <c r="B180" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="C180" s="53"/>
+        <v>268</v>
+      </c>
+      <c r="C180" s="53">
+        <v>150000</v>
+      </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
@@ -20694,7 +20672,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C181" s="53">
         <v>0</v>
@@ -20704,11 +20682,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="55" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20758,12 +20736,12 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="N11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H185" sqref="G182:H185"/>
+      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44571</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5175,19 +5175,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="42" t="s">
         <v>280</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>250</v>
@@ -6668,19 +6666,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="43" t="s">
         <v>256</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>45</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>49845.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E51" s="18" t="s">
         <v>250</v>
@@ -10307,11 +10303,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>63350.474999999991</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>250</v>
@@ -10369,19 +10365,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>265</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="18" t="s">
         <v>250</v>
@@ -12060,7 +12054,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>282</v>
       </c>
@@ -12126,17 +12120,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>50</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>59441</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -15570,17 +15566,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A132" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>40</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48320.4</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>250</v>
@@ -20384,12 +20382,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C5:C173)</f>
-        <v>125</v>
+        <f>SUBTOTAL(9,C86:C173)</f>
+        <v>160</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D5:D173)</f>
-        <v>149963.43800000002</v>
+        <f>SUBTOTAL(9,D86:D173)</f>
+        <v>195409.67499999999</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20663,7 +20661,7 @@
         <v>268</v>
       </c>
       <c r="C180" s="53">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20686,7 +20684,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
+      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44572</v>
+        <v>44573</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5044,17 +5044,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>23395.72</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>250</v>
@@ -10295,19 +10297,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>255</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>50</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>63350.474999999991</v>
+        <v>0</v>
       </c>
       <c r="E86" s="18" t="s">
         <v>250</v>
@@ -11542,17 +11542,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56133.2</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>250</v>
@@ -11673,17 +11675,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>297</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>40</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>49002.399999999994</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>250</v>
@@ -12054,19 +12058,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="42" t="s">
         <v>282</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="18" t="s">
         <v>250</v>
@@ -12128,11 +12130,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>59441</v>
+        <v>23776.399999999998</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -12241,17 +12243,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A104" s="43" t="s">
         <v>295</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>40</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48194.399999999994</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>250</v>
@@ -15566,19 +15570,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="42" t="s">
         <v>258</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>40</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>48320.4</v>
+        <v>0</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>250</v>
@@ -20382,12 +20384,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C86:C173)</f>
+        <f>SUBTOTAL(9,C38:C173)</f>
         <v>160</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D86:D173)</f>
-        <v>195409.67499999999</v>
+        <f>SUBTOTAL(9,D38:D173)</f>
+        <v>200502.12</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G181" sqref="G181"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44573</v>
+        <v>44574</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5044,19 +5044,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="42" t="s">
         <v>241</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>23395.72</v>
+        <v>0</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>250</v>
@@ -8817,17 +8815,19 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:120" ht="15" customHeight="1">
       <c r="A68" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B68" s="28">
-        <v>5142.21</v>
-      </c>
-      <c r="C68" s="17"/>
+        <v>5443.18</v>
+      </c>
+      <c r="C68" s="17">
+        <v>34</v>
+      </c>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>185068.12</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>250</v>
@@ -11542,19 +11542,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="43" t="s">
         <v>263</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>56133.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="18" t="s">
         <v>250</v>
@@ -11675,19 +11673,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="43" t="s">
         <v>297</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>40</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>49002.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E99" s="18" t="s">
         <v>250</v>
@@ -12122,19 +12118,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="42" t="s">
         <v>266</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>23776.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E103" s="18" t="s">
         <v>250</v>
@@ -12243,19 +12237,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="43" t="s">
         <v>295</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>40</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>48194.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E104" s="18" t="s">
         <v>250</v>
@@ -18422,7 +18414,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18484,7 +18476,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>231</v>
       </c>
@@ -19723,20 +19715,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B169" s="28">
-        <v>8134.32</v>
-      </c>
-      <c r="C169" s="17"/>
+        <v>8320.15</v>
+      </c>
+      <c r="C169" s="17">
+        <v>56</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
-      </c>
-      <c r="E169" s="39" t="s">
-        <v>200</v>
+        <v>465928.39999999997</v>
+      </c>
+      <c r="E169" s="18" t="s">
+        <v>250</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20384,12 +20378,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C38:C173)</f>
-        <v>160</v>
+        <f>SUBTOTAL(9,C68:C173)</f>
+        <v>90</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D38:D173)</f>
-        <v>200502.12</v>
+        <v>650996.52</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20663,7 +20657,7 @@
         <v>268</v>
       </c>
       <c r="C180" s="53">
-        <v>200000</v>
+        <v>650000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20686,7 +20680,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>650000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44574</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -8823,11 +8823,11 @@
         <v>5443.18</v>
       </c>
       <c r="C68" s="17">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>185068.12</v>
+        <v>234056.74000000002</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>250</v>
@@ -19723,11 +19723,11 @@
         <v>8320.15</v>
       </c>
       <c r="C169" s="17">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>465928.39999999997</v>
+        <v>416007.5</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>250</v>
@@ -20379,11 +20379,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C68:C173)</f>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D38:D173)</f>
-        <v>650996.52</v>
+        <v>650064.24</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1942,7 +1942,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E182" sqref="E182"/>
+      <selection pane="bottomRight" activeCell="F181" sqref="E178:F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44577</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3016,17 +3016,19 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>110</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>101442</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -8815,19 +8817,17 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" customHeight="1">
+    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="42" t="s">
         <v>285</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
       </c>
-      <c r="C68" s="17">
-        <v>43</v>
-      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="18">
         <f t="shared" si="1"/>
-        <v>234056.74000000002</v>
+        <v>0</v>
       </c>
       <c r="E68" s="18" t="s">
         <v>250</v>
@@ -9204,7 +9204,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9332,7 +9332,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9394,7 +9394,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9456,7 +9456,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="43" t="s">
         <v>226</v>
       </c>
@@ -11347,7 +11347,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -18414,7 +18414,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18476,7 +18476,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="42" t="s">
         <v>231</v>
       </c>
@@ -19715,19 +19715,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>50</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>416007.5</v>
+        <v>0</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>250</v>
@@ -20379,11 +20377,11 @@
       <c r="B174" s="71"/>
       <c r="C174" s="58">
         <f>SUBTOTAL(9,C68:C173)</f>
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D174" s="59">
         <f>SUBTOTAL(9,D38:D173)</f>
-        <v>650064.24</v>
+        <v>0</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20657,7 +20655,7 @@
         <v>268</v>
       </c>
       <c r="C180" s="53">
-        <v>650000</v>
+        <v>100000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20680,7 +20678,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>650000</v>
+        <v>100000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -13,8 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Daily Final Requisition" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -924,12 +923,6 @@
   </si>
   <si>
     <t>Advance</t>
-  </si>
-  <si>
-    <t>fgdhfg</t>
-  </si>
-  <si>
-    <t>dfshgj</t>
   </si>
   <si>
     <t>Z22</t>
@@ -1942,7 +1935,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F181" sqref="E178:F181"/>
+      <selection pane="bottomRight" activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1971,7 +1964,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="40" t="s">
@@ -1979,7 +1972,7 @@
       </c>
       <c r="E2" s="34">
         <f ca="1">TODAY()</f>
-        <v>44578</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2773,7 +2766,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="42" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -3016,19 +3009,17 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="42" t="s">
         <v>279</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>110</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>101442</v>
+        <v>0</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>250</v>
@@ -3089,17 +3080,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="42" t="s">
         <v>240</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>50</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53479.499999999993</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>250</v>
@@ -9140,17 +9133,19 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="42" t="s">
         <v>293</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17"/>
+      <c r="C73" s="17">
+        <v>13</v>
+      </c>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82160.13</v>
       </c>
       <c r="E73" s="18" t="s">
         <v>250</v>
@@ -9204,7 +9199,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="42" t="s">
         <v>229</v>
       </c>
@@ -9268,7 +9263,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="42" t="s">
         <v>163</v>
       </c>
@@ -9332,7 +9327,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="42" t="s">
         <v>136</v>
       </c>
@@ -9394,7 +9389,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="42" t="s">
         <v>147</v>
       </c>
@@ -9456,7 +9451,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="42" t="s">
         <v>191</v>
       </c>
@@ -11283,7 +11278,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="43" t="s">
         <v>226</v>
       </c>
@@ -11347,7 +11342,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="43" t="s">
         <v>161</v>
       </c>
@@ -18414,7 +18409,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="42" t="s">
         <v>130</v>
       </c>
@@ -18476,7 +18471,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="42" t="s">
         <v>231</v>
       </c>
@@ -18933,7 +18928,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="42" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19715,17 +19710,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="42" t="s">
         <v>288</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>50</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>416007.5</v>
       </c>
       <c r="E169" s="18" t="s">
         <v>250</v>
@@ -20376,12 +20373,12 @@
       </c>
       <c r="B174" s="71"/>
       <c r="C174" s="58">
-        <f>SUBTOTAL(9,C68:C173)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,C21:C173)</f>
+        <v>113</v>
       </c>
       <c r="D174" s="59">
-        <f>SUBTOTAL(9,D38:D173)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,D21:D173)</f>
+        <v>551647.13</v>
       </c>
       <c r="E174" s="60"/>
       <c r="F174" s="26"/>
@@ -20655,7 +20652,7 @@
         <v>268</v>
       </c>
       <c r="C180" s="53">
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="D180" s="54"/>
       <c r="E180" s="22" t="s">
@@ -20678,7 +20675,7 @@
       </c>
       <c r="C182" s="57">
         <f>C180+C181</f>
-        <v>100000</v>
+        <v>550000</v>
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="23"/>
@@ -20718,31 +20715,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="N11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV101"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -451,9 +451,6 @@
     <t>P11</t>
   </si>
   <si>
-    <t>V130</t>
-  </si>
-  <si>
     <t>D38</t>
   </si>
   <si>
@@ -932,6 +929,9 @@
   </si>
   <si>
     <t>Mugdho Corporation</t>
+  </si>
+  <si>
+    <t>V138</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1375,6 +1375,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1393,7 +1505,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1480,28 +1592,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="19" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="12" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,6 +1656,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="8" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1586,10 +1731,10 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1935,12 +2080,12 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F185" sqref="F185"/>
+      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" style="41" customWidth="1"/>
+    <col min="1" max="1" width="22" style="35" customWidth="1"/>
     <col min="2" max="2" width="15" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
@@ -1951,62 +2096,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>302</v>
-      </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="40" t="s">
+      <c r="B2" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44579</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:120" ht="15" customHeight="1">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A4" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>148</v>
+      <c r="E4" s="62" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="28">
+      <c r="A5" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" s="56">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>250</v>
+      <c r="E5" s="64" t="s">
+        <v>249</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2065,8 +2210,8 @@
       <c r="DD5" s="14"/>
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A6" s="42" t="s">
-        <v>275</v>
+      <c r="A6" s="36" t="s">
+        <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2076,8 +2221,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>250</v>
+      <c r="E6" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2132,8 +2277,8 @@
       <c r="DD6" s="14"/>
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A7" s="42" t="s">
-        <v>208</v>
+      <c r="A7" s="36" t="s">
+        <v>207</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2143,8 +2288,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>250</v>
+      <c r="E7" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2203,8 +2348,8 @@
       <c r="DD7" s="14"/>
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A8" s="42" t="s">
-        <v>184</v>
+      <c r="A8" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2214,8 +2359,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="s">
-        <v>250</v>
+      <c r="E8" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2334,7 +2479,7 @@
       <c r="DP8" s="15"/>
     </row>
     <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="36" t="s">
         <v>119</v>
       </c>
       <c r="B9" s="28">
@@ -2345,8 +2490,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>250</v>
+      <c r="E9" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2465,8 +2610,8 @@
       <c r="DP9" s="15"/>
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A10" s="42" t="s">
-        <v>152</v>
+      <c r="A10" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2476,8 +2621,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>250</v>
+      <c r="E10" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2536,8 +2681,8 @@
       <c r="DD10" s="14"/>
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A11" s="42" t="s">
-        <v>153</v>
+      <c r="A11" s="36" t="s">
+        <v>152</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2547,8 +2692,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>250</v>
+      <c r="E11" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2607,8 +2752,8 @@
       <c r="DD11" s="14"/>
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A12" s="42" t="s">
-        <v>165</v>
+      <c r="A12" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2618,8 +2763,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>215</v>
+      <c r="E12" s="65" t="s">
+        <v>214</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2678,8 +2823,8 @@
       <c r="DD12" s="14"/>
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>232</v>
+      <c r="A13" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
@@ -2689,13 +2834,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>250</v>
+      <c r="E13" s="65" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A14" s="42" t="s">
-        <v>238</v>
+      <c r="A14" s="36" t="s">
+        <v>237</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2705,8 +2850,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>250</v>
+      <c r="E14" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2765,8 +2910,8 @@
       <c r="DD14" s="14"/>
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A15" s="42" t="s">
-        <v>301</v>
+      <c r="A15" s="36" t="s">
+        <v>300</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -2776,8 +2921,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>250</v>
+      <c r="E15" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2836,8 +2981,8 @@
       <c r="DD15" s="14"/>
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>213</v>
+      <c r="A16" s="36" t="s">
+        <v>212</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -2847,8 +2992,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>250</v>
+      <c r="E16" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -2907,8 +3052,8 @@
       <c r="DD16" s="14"/>
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A17" s="42" t="s">
-        <v>223</v>
+      <c r="A17" s="36" t="s">
+        <v>222</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -2918,8 +3063,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>250</v>
+      <c r="E17" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -2978,8 +3123,8 @@
       <c r="DD17" s="14"/>
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>264</v>
+      <c r="A18" s="36" t="s">
+        <v>263</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -2989,13 +3134,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>250</v>
+      <c r="E18" s="65" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A19" s="42" t="s">
-        <v>298</v>
+      <c r="A19" s="36" t="s">
+        <v>297</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3005,13 +3150,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>250</v>
+      <c r="E19" s="65" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>279</v>
+      <c r="A20" s="36" t="s">
+        <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
@@ -3021,8 +3166,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>250</v>
+      <c r="E20" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3080,22 +3225,20 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
-      <c r="A21" s="42" t="s">
-        <v>240</v>
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A21" s="36" t="s">
+        <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>50</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>53479.499999999993</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3150,7 +3293,7 @@
       <c r="DD21" s="14"/>
     </row>
     <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="28">
@@ -3161,8 +3304,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>233</v>
+      <c r="E22" s="65" t="s">
+        <v>232</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3221,8 +3364,8 @@
       <c r="DD22" s="14"/>
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A23" s="42" t="s">
-        <v>151</v>
+      <c r="A23" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3232,7 +3375,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="65"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -3350,7 +3493,7 @@
       <c r="DP23" s="15"/>
     </row>
     <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>123</v>
       </c>
       <c r="B24" s="28">
@@ -3361,7 +3504,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -3479,8 +3622,8 @@
       <c r="DP24" s="15"/>
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A25" s="42" t="s">
-        <v>176</v>
+      <c r="A25" s="36" t="s">
+        <v>175</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3490,8 +3633,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>198</v>
+      <c r="E25" s="65" t="s">
+        <v>197</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3610,8 +3753,8 @@
       <c r="DP25" s="15"/>
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A26" s="42" t="s">
-        <v>254</v>
+      <c r="A26" s="36" t="s">
+        <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1069.5899999999999</v>
@@ -3621,8 +3764,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>250</v>
+      <c r="E26" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3741,8 +3884,8 @@
       <c r="DP26" s="15"/>
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A27" s="42" t="s">
-        <v>212</v>
+      <c r="A27" s="36" t="s">
+        <v>211</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3752,8 +3895,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>250</v>
+      <c r="E27" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -3872,8 +4015,8 @@
       <c r="DP27" s="15"/>
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A28" s="42" t="s">
-        <v>283</v>
+      <c r="A28" s="36" t="s">
+        <v>282</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -3883,8 +4026,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>250</v>
+      <c r="E28" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4003,7 +4146,7 @@
       <c r="DP28" s="15"/>
     </row>
     <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
       <c r="B29" s="28">
@@ -4014,8 +4157,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="18" t="s">
-        <v>250</v>
+      <c r="E29" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4134,7 +4277,7 @@
       <c r="DP29" s="15"/>
     </row>
     <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="28">
@@ -4145,8 +4288,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="18" t="s">
-        <v>250</v>
+      <c r="E30" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4265,8 +4408,8 @@
       <c r="DP30" s="15"/>
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A31" s="42" t="s">
-        <v>211</v>
+      <c r="A31" s="36" t="s">
+        <v>210</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4276,8 +4419,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>207</v>
+      <c r="E31" s="65" t="s">
+        <v>206</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4396,8 +4539,8 @@
       <c r="DP31" s="15"/>
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A32" s="42" t="s">
-        <v>143</v>
+      <c r="A32" s="36" t="s">
+        <v>142</v>
       </c>
       <c r="B32" s="28">
         <v>858.14</v>
@@ -4407,7 +4550,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="18"/>
+      <c r="E32" s="65"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -4525,8 +4668,8 @@
       <c r="DP32" s="15"/>
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A33" s="42" t="s">
-        <v>187</v>
+      <c r="A33" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4536,7 +4679,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="18"/>
+      <c r="E33" s="65"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -4587,8 +4730,8 @@
       <c r="BA33" s="25"/>
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A34" s="42" t="s">
-        <v>150</v>
+      <c r="A34" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4598,7 +4741,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="18"/>
+      <c r="E34" s="65"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -4649,8 +4792,8 @@
       <c r="BA34" s="25"/>
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A35" s="42" t="s">
-        <v>186</v>
+      <c r="A35" s="36" t="s">
+        <v>185</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4660,7 +4803,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="18"/>
+      <c r="E35" s="65"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -4778,8 +4921,8 @@
       <c r="DP35" s="15"/>
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A36" s="42" t="s">
-        <v>219</v>
+      <c r="A36" s="36" t="s">
+        <v>218</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4789,8 +4932,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>205</v>
+      <c r="E36" s="65" t="s">
+        <v>204</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -4909,8 +5052,8 @@
       <c r="DP36" s="15"/>
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A37" s="42" t="s">
-        <v>210</v>
+      <c r="A37" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1178.8</v>
@@ -4920,8 +5063,8 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>250</v>
+      <c r="E37" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5040,8 +5183,8 @@
       <c r="DP37" s="15"/>
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A38" s="42" t="s">
-        <v>241</v>
+      <c r="A38" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
@@ -5051,8 +5194,8 @@
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="18" t="s">
-        <v>250</v>
+      <c r="E38" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5171,8 +5314,8 @@
       <c r="DP38" s="15"/>
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A39" s="42" t="s">
-        <v>280</v>
+      <c r="A39" s="36" t="s">
+        <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5182,8 +5325,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>250</v>
+      <c r="E39" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5302,7 +5445,7 @@
       <c r="DP39" s="15"/>
     </row>
     <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="36" t="s">
         <v>116</v>
       </c>
       <c r="B40" s="28">
@@ -5313,7 +5456,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="18"/>
+      <c r="E40" s="65"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -5431,8 +5574,8 @@
       <c r="DP40" s="15"/>
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A41" s="42" t="s">
-        <v>154</v>
+      <c r="A41" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5442,7 +5585,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="18"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -5560,8 +5703,8 @@
       <c r="DP41" s="15"/>
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A42" s="42" t="s">
-        <v>196</v>
+      <c r="A42" s="36" t="s">
+        <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5571,8 +5714,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="39" t="s">
-        <v>289</v>
+      <c r="E42" s="66" t="s">
+        <v>288</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5691,7 +5834,7 @@
       <c r="DP42" s="15"/>
     </row>
     <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="28">
@@ -5702,7 +5845,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="65"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -5820,8 +5963,8 @@
       <c r="DP43" s="15"/>
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A44" s="42" t="s">
-        <v>156</v>
+      <c r="A44" s="36" t="s">
+        <v>155</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -5831,7 +5974,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="18"/>
+      <c r="E44" s="65"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -5949,8 +6092,8 @@
       <c r="DP44" s="15"/>
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A45" s="42" t="s">
-        <v>222</v>
+      <c r="A45" s="36" t="s">
+        <v>221</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -5960,7 +6103,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="18"/>
+      <c r="E45" s="65"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -6078,8 +6221,8 @@
       <c r="DP45" s="15"/>
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A46" s="43" t="s">
-        <v>155</v>
+      <c r="A46" s="37" t="s">
+        <v>154</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6089,7 +6232,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="65"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -6207,8 +6350,8 @@
       <c r="DP46" s="15"/>
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A47" s="42" t="s">
-        <v>239</v>
+      <c r="A47" s="36" t="s">
+        <v>238</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6218,59 +6361,59 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="38"/>
-      <c r="S47" s="38"/>
-      <c r="T47" s="38"/>
-      <c r="U47" s="38"/>
-      <c r="V47" s="38"/>
-      <c r="W47" s="38"/>
-      <c r="X47" s="38"/>
-      <c r="Y47" s="38"/>
-      <c r="Z47" s="38"/>
-      <c r="AA47" s="38"/>
-      <c r="AB47" s="38"/>
-      <c r="AC47" s="38"/>
-      <c r="AD47" s="38"/>
-      <c r="AE47" s="38"/>
-      <c r="AF47" s="38"/>
-      <c r="AG47" s="38"/>
-      <c r="AH47" s="38"/>
-      <c r="AI47" s="38"/>
-      <c r="AJ47" s="38"/>
-      <c r="AK47" s="38"/>
-      <c r="AL47" s="38"/>
-      <c r="AM47" s="38"/>
-      <c r="AN47" s="38"/>
-      <c r="AO47" s="38"/>
-      <c r="AP47" s="38"/>
-      <c r="AQ47" s="38"/>
-      <c r="AR47" s="38"/>
-      <c r="AS47" s="38"/>
-      <c r="AT47" s="38"/>
-      <c r="AU47" s="38"/>
-      <c r="AV47" s="38"/>
-      <c r="AW47" s="38"/>
-      <c r="AX47" s="38"/>
-      <c r="AY47" s="38"/>
-      <c r="AZ47" s="38"/>
-      <c r="BA47" s="38"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33"/>
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="33"/>
+      <c r="AQ47" s="33"/>
+      <c r="AR47" s="33"/>
+      <c r="AS47" s="33"/>
+      <c r="AT47" s="33"/>
+      <c r="AU47" s="33"/>
+      <c r="AV47" s="33"/>
+      <c r="AW47" s="33"/>
+      <c r="AX47" s="33"/>
+      <c r="AY47" s="33"/>
+      <c r="AZ47" s="33"/>
+      <c r="BA47" s="33"/>
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A48" s="42" t="s">
-        <v>253</v>
+      <c r="A48" s="36" t="s">
+        <v>252</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6280,8 +6423,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="18" t="s">
-        <v>250</v>
+      <c r="E48" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6400,8 +6543,8 @@
       <c r="DP48" s="15"/>
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A49" s="42" t="s">
-        <v>291</v>
+      <c r="A49" s="36" t="s">
+        <v>290</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6411,8 +6554,8 @@
         <f t="shared" ref="D49" si="2">B49*C49</f>
         <v>0</v>
       </c>
-      <c r="E49" s="18" t="s">
-        <v>250</v>
+      <c r="E49" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6531,8 +6674,8 @@
       <c r="DP49" s="15"/>
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A50" s="43" t="s">
-        <v>284</v>
+      <c r="A50" s="37" t="s">
+        <v>283</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -6542,8 +6685,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>250</v>
+      <c r="E50" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6662,8 +6805,8 @@
       <c r="DP50" s="15"/>
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A51" s="43" t="s">
-        <v>256</v>
+      <c r="A51" s="37" t="s">
+        <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6673,8 +6816,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>250</v>
+      <c r="E51" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6793,8 +6936,8 @@
       <c r="DP51" s="15"/>
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A52" s="42" t="s">
-        <v>237</v>
+      <c r="A52" s="36" t="s">
+        <v>236</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6804,8 +6947,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E52" s="18" t="s">
-        <v>250</v>
+      <c r="E52" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -6924,8 +7067,8 @@
       <c r="DP52" s="15"/>
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A53" s="42" t="s">
-        <v>178</v>
+      <c r="A53" s="36" t="s">
+        <v>177</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -6935,7 +7078,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E53" s="18"/>
+      <c r="E53" s="65"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -7053,8 +7196,8 @@
       <c r="DP53" s="15"/>
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A54" s="43" t="s">
-        <v>224</v>
+      <c r="A54" s="37" t="s">
+        <v>223</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7064,8 +7207,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54" s="18" t="s">
-        <v>230</v>
+      <c r="E54" s="65" t="s">
+        <v>229</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7184,8 +7327,8 @@
       <c r="DP54" s="15"/>
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A55" s="43" t="s">
-        <v>243</v>
+      <c r="A55" s="37" t="s">
+        <v>242</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7195,8 +7338,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="18" t="s">
-        <v>250</v>
+      <c r="E55" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7315,19 +7458,19 @@
       <c r="DP55" s="15"/>
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A56" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="B56" s="47">
+      <c r="A56" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="48"/>
-      <c r="D56" s="45">
+      <c r="C56" s="42"/>
+      <c r="D56" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E56" s="39" t="s">
-        <v>296</v>
+      <c r="E56" s="66" t="s">
+        <v>295</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7446,8 +7589,8 @@
       <c r="DP56" s="15"/>
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A57" s="42" t="s">
-        <v>172</v>
+      <c r="A57" s="36" t="s">
+        <v>171</v>
       </c>
       <c r="B57" s="28">
         <v>20340.84</v>
@@ -7457,7 +7600,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E57" s="18"/>
+      <c r="E57" s="65"/>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -7575,7 +7718,7 @@
       <c r="DP57" s="15"/>
     </row>
     <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="36" t="s">
         <v>115</v>
       </c>
       <c r="B58" s="28">
@@ -7586,7 +7729,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E58" s="18"/>
+      <c r="E58" s="65"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -7704,7 +7847,7 @@
       <c r="DP58" s="15"/>
     </row>
     <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B59" s="28">
@@ -7715,8 +7858,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>203</v>
+      <c r="E59" s="65" t="s">
+        <v>202</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7835,8 +7978,8 @@
       <c r="DP59" s="15"/>
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A60" s="42" t="s">
-        <v>185</v>
+      <c r="A60" s="36" t="s">
+        <v>184</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -7846,7 +7989,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="18"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -7964,8 +8107,8 @@
       <c r="DP60" s="15"/>
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A61" s="42" t="s">
-        <v>146</v>
+      <c r="A61" s="36" t="s">
+        <v>145</v>
       </c>
       <c r="B61" s="28">
         <v>6715.95</v>
@@ -7975,7 +8118,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="18"/>
+      <c r="E61" s="65"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -8093,7 +8236,7 @@
       <c r="DP61" s="15"/>
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A62" s="42" t="s">
+      <c r="A62" s="36" t="s">
         <v>140</v>
       </c>
       <c r="B62" s="28">
@@ -8104,7 +8247,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="18"/>
+      <c r="E62" s="65"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -8222,8 +8365,8 @@
       <c r="DP62" s="15"/>
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A63" s="42" t="s">
-        <v>248</v>
+      <c r="A63" s="36" t="s">
+        <v>247</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8233,8 +8376,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E63" s="18" t="s">
-        <v>257</v>
+      <c r="E63" s="65" t="s">
+        <v>256</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8353,8 +8496,8 @@
       <c r="DP63" s="15"/>
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A64" s="42" t="s">
-        <v>170</v>
+      <c r="A64" s="36" t="s">
+        <v>169</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8364,7 +8507,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E64" s="18"/>
+      <c r="E64" s="65"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -8482,8 +8625,8 @@
       <c r="DP64" s="15"/>
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A65" s="42" t="s">
-        <v>169</v>
+      <c r="A65" s="36" t="s">
+        <v>168</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8493,7 +8636,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E65" s="18"/>
+      <c r="E65" s="65"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -8611,8 +8754,8 @@
       <c r="DP65" s="15"/>
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A66" s="42" t="s">
-        <v>202</v>
+      <c r="A66" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8622,7 +8765,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E66" s="18"/>
+      <c r="E66" s="65"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
@@ -8740,8 +8883,8 @@
       <c r="DP66" s="15"/>
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A67" s="42" t="s">
-        <v>235</v>
+      <c r="A67" s="36" t="s">
+        <v>234</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8751,8 +8894,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E67" s="18" t="s">
-        <v>236</v>
+      <c r="E67" s="65" t="s">
+        <v>235</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8811,8 +8954,8 @@
       <c r="DD67" s="14"/>
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A68" s="42" t="s">
-        <v>285</v>
+      <c r="A68" s="36" t="s">
+        <v>284</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8822,8 +8965,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E68" s="18" t="s">
-        <v>250</v>
+      <c r="E68" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -8882,8 +9025,8 @@
       <c r="DD68" s="14"/>
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A69" s="42" t="s">
-        <v>194</v>
+      <c r="A69" s="36" t="s">
+        <v>193</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -8893,7 +9036,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E69" s="18"/>
+      <c r="E69" s="65"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -8944,8 +9087,8 @@
       <c r="BA69" s="25"/>
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A70" s="42" t="s">
-        <v>244</v>
+      <c r="A70" s="36" t="s">
+        <v>243</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -8955,7 +9098,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="65"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -9006,8 +9149,8 @@
       <c r="BA70" s="25"/>
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A71" s="42" t="s">
-        <v>262</v>
+      <c r="A71" s="36" t="s">
+        <v>261</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9017,8 +9160,8 @@
         <f t="shared" ref="D71:D102" si="3">B71*C71</f>
         <v>0</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>203</v>
+      <c r="E71" s="65" t="s">
+        <v>202</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9070,8 +9213,8 @@
       <c r="BA71" s="25"/>
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A72" s="42" t="s">
-        <v>221</v>
+      <c r="A72" s="36" t="s">
+        <v>220</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9081,8 +9224,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>199</v>
+      <c r="E72" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9133,22 +9276,20 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A73" s="42" t="s">
-        <v>293</v>
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A73" s="36" t="s">
+        <v>292</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
       </c>
-      <c r="C73" s="17">
-        <v>13</v>
-      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="18">
         <f t="shared" si="3"/>
-        <v>82160.13</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="E73" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9200,8 +9341,8 @@
       <c r="BA73" s="25"/>
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A74" s="42" t="s">
-        <v>229</v>
+      <c r="A74" s="36" t="s">
+        <v>228</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9211,8 +9352,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="18" t="s">
-        <v>250</v>
+      <c r="E74" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9264,8 +9405,8 @@
       <c r="BA74" s="25"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="42" t="s">
-        <v>163</v>
+      <c r="A75" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="B75" s="28">
         <v>5793.45</v>
@@ -9275,8 +9416,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E75" s="18" t="s">
-        <v>199</v>
+      <c r="E75" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9328,7 +9469,7 @@
       <c r="BA75" s="25"/>
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A76" s="42" t="s">
+      <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
       <c r="B76" s="28">
@@ -9339,7 +9480,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="18"/>
+      <c r="E76" s="65"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -9390,8 +9531,8 @@
       <c r="BA76" s="25"/>
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A77" s="42" t="s">
-        <v>147</v>
+      <c r="A77" s="36" t="s">
+        <v>146</v>
       </c>
       <c r="B77" s="28">
         <v>8225.51</v>
@@ -9401,7 +9542,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="18"/>
+      <c r="E77" s="65"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9452,8 +9593,8 @@
       <c r="BA77" s="25"/>
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A78" s="42" t="s">
-        <v>191</v>
+      <c r="A78" s="36" t="s">
+        <v>190</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9463,7 +9604,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="18"/>
+      <c r="E78" s="65"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -9514,8 +9655,8 @@
       <c r="BA78" s="25"/>
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A79" s="42" t="s">
-        <v>214</v>
+      <c r="A79" s="36" t="s">
+        <v>213</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9525,8 +9666,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E79" s="18" t="s">
-        <v>199</v>
+      <c r="E79" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9645,8 +9786,8 @@
       <c r="DP79" s="15"/>
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A80" s="42" t="s">
-        <v>252</v>
+      <c r="A80" s="36" t="s">
+        <v>251</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9656,8 +9797,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E80" s="18" t="s">
-        <v>250</v>
+      <c r="E80" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9776,8 +9917,8 @@
       <c r="DP80" s="15"/>
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A81" s="42" t="s">
-        <v>251</v>
+      <c r="A81" s="36" t="s">
+        <v>250</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9787,8 +9928,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>250</v>
+      <c r="E81" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -9907,7 +10048,7 @@
       <c r="DP81" s="15"/>
     </row>
     <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B82" s="28">
@@ -9918,8 +10059,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="18" t="s">
-        <v>201</v>
+      <c r="E82" s="65" t="s">
+        <v>200</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10038,8 +10179,8 @@
       <c r="DP82" s="15"/>
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A83" s="43" t="s">
-        <v>167</v>
+      <c r="A83" s="37" t="s">
+        <v>166</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10049,7 +10190,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="18"/>
+      <c r="E83" s="65"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
       <c r="H83" s="26"/>
@@ -10167,8 +10308,8 @@
       <c r="DP83" s="15"/>
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A84" s="43" t="s">
-        <v>145</v>
+      <c r="A84" s="37" t="s">
+        <v>144</v>
       </c>
       <c r="B84" s="28">
         <v>1189.97</v>
@@ -10178,7 +10319,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="18"/>
+      <c r="E84" s="65"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -10229,8 +10370,8 @@
       <c r="BA84" s="25"/>
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A85" s="43" t="s">
-        <v>217</v>
+      <c r="A85" s="37" t="s">
+        <v>216</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10240,8 +10381,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E85" s="18" t="s">
-        <v>250</v>
+      <c r="E85" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10293,8 +10434,8 @@
       <c r="BA85" s="25"/>
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="43" t="s">
-        <v>255</v>
+      <c r="A86" s="37" t="s">
+        <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
@@ -10304,8 +10445,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="18" t="s">
-        <v>250</v>
+      <c r="E86" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10361,8 +10502,8 @@
       <c r="BE86" s="25"/>
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="43" t="s">
-        <v>265</v>
+      <c r="A87" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
@@ -10372,8 +10513,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="18" t="s">
-        <v>250</v>
+      <c r="E87" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10492,7 +10633,7 @@
       <c r="DP87" s="15"/>
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="37" t="s">
         <v>134</v>
       </c>
       <c r="B88" s="28">
@@ -10503,7 +10644,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E88" s="18"/>
+      <c r="E88" s="65"/>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
       <c r="BD88" s="14"/>
@@ -10561,7 +10702,7 @@
       <c r="DD88" s="14"/>
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="37" t="s">
         <v>132</v>
       </c>
       <c r="B89" s="28">
@@ -10572,7 +10713,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="18"/>
+      <c r="E89" s="65"/>
       <c r="BB89" s="14"/>
       <c r="BC89" s="14"/>
       <c r="BD89" s="14"/>
@@ -10630,8 +10771,8 @@
       <c r="DD89" s="14"/>
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A90" s="42" t="s">
-        <v>144</v>
+      <c r="A90" s="36" t="s">
+        <v>143</v>
       </c>
       <c r="B90" s="28">
         <v>5607.9849999999997</v>
@@ -10641,8 +10782,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="18" t="s">
-        <v>199</v>
+      <c r="E90" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10761,7 +10902,7 @@
       <c r="DP90" s="15"/>
     </row>
     <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="37" t="s">
         <v>54</v>
       </c>
       <c r="B91" s="28">
@@ -10772,8 +10913,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="18" t="s">
-        <v>204</v>
+      <c r="E91" s="65" t="s">
+        <v>203</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -10892,8 +11033,8 @@
       <c r="DP91" s="15"/>
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A92" s="43" t="s">
-        <v>166</v>
+      <c r="A92" s="37" t="s">
+        <v>165</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -10903,7 +11044,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E92" s="18"/>
+      <c r="E92" s="65"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
@@ -11021,7 +11162,7 @@
       <c r="DP92" s="15"/>
     </row>
     <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A93" s="42" t="s">
+      <c r="A93" s="36" t="s">
         <v>57</v>
       </c>
       <c r="B93" s="28">
@@ -11032,7 +11173,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E93" s="18"/>
+      <c r="E93" s="65"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -11150,8 +11291,8 @@
       <c r="DP93" s="15"/>
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A94" s="43" t="s">
-        <v>193</v>
+      <c r="A94" s="37" t="s">
+        <v>192</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11161,7 +11302,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E94" s="18"/>
+      <c r="E94" s="65"/>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
@@ -11279,8 +11420,8 @@
       <c r="DP94" s="15"/>
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A95" s="43" t="s">
-        <v>226</v>
+      <c r="A95" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11290,8 +11431,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="18" t="s">
-        <v>250</v>
+      <c r="E95" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11343,8 +11484,8 @@
       <c r="BA95" s="25"/>
     </row>
     <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A96" s="43" t="s">
-        <v>161</v>
+      <c r="A96" s="37" t="s">
+        <v>160</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11354,8 +11495,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="18" t="s">
-        <v>250</v>
+      <c r="E96" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11407,8 +11548,8 @@
       <c r="BA96" s="25"/>
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A97" s="43" t="s">
-        <v>259</v>
+      <c r="A97" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
@@ -11418,8 +11559,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="18" t="s">
-        <v>250</v>
+      <c r="E97" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11538,8 +11679,8 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="43" t="s">
-        <v>263</v>
+      <c r="A98" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11549,8 +11690,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E98" s="18" t="s">
-        <v>250</v>
+      <c r="E98" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11669,8 +11810,8 @@
       <c r="DP98" s="15"/>
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A99" s="43" t="s">
-        <v>297</v>
+      <c r="A99" s="37" t="s">
+        <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11680,8 +11821,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="18" t="s">
-        <v>250</v>
+      <c r="E99" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11800,8 +11941,8 @@
       <c r="DP99" s="15"/>
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A100" s="42" t="s">
-        <v>294</v>
+      <c r="A100" s="36" t="s">
+        <v>293</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11811,8 +11952,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="18" t="s">
-        <v>250</v>
+      <c r="E100" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -11931,8 +12072,8 @@
       <c r="DP100" s="15"/>
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A101" s="42" t="s">
-        <v>220</v>
+      <c r="A101" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -11942,8 +12083,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="18" t="s">
-        <v>250</v>
+      <c r="E101" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12050,8 +12191,8 @@
       <c r="DD101" s="25"/>
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A102" s="42" t="s">
-        <v>282</v>
+      <c r="A102" s="36" t="s">
+        <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12061,8 +12202,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="18" t="s">
-        <v>250</v>
+      <c r="E102" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12114,8 +12255,8 @@
       <c r="BA102" s="25"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A103" s="42" t="s">
-        <v>266</v>
+      <c r="A103" s="36" t="s">
+        <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
@@ -12125,8 +12266,8 @@
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
         <v>0</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>250</v>
+      <c r="E103" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12233,8 +12374,8 @@
       <c r="DD103" s="25"/>
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A104" s="43" t="s">
-        <v>295</v>
+      <c r="A104" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12244,8 +12385,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>250</v>
+      <c r="E104" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12297,7 +12438,7 @@
       <c r="BA104" s="25"/>
     </row>
     <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A105" s="43" t="s">
+      <c r="A105" s="37" t="s">
         <v>128</v>
       </c>
       <c r="B105" s="28">
@@ -12308,8 +12449,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>200</v>
+      <c r="E105" s="65" t="s">
+        <v>199</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12428,8 +12569,8 @@
       <c r="DP105" s="15"/>
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A106" s="43" t="s">
-        <v>192</v>
+      <c r="A106" s="37" t="s">
+        <v>191</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12439,8 +12580,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>198</v>
+      <c r="E106" s="65" t="s">
+        <v>197</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12559,8 +12700,8 @@
       <c r="DP106" s="15"/>
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A107" s="43" t="s">
-        <v>157</v>
+      <c r="A107" s="37" t="s">
+        <v>156</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12570,7 +12711,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E107" s="18"/>
+      <c r="E107" s="65"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
@@ -12688,8 +12829,8 @@
       <c r="DP107" s="15"/>
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A108" s="43" t="s">
-        <v>173</v>
+      <c r="A108" s="37" t="s">
+        <v>172</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12699,7 +12840,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E108" s="18"/>
+      <c r="E108" s="65"/>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
@@ -12817,8 +12958,8 @@
       <c r="DP108" s="15"/>
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A109" s="43" t="s">
-        <v>180</v>
+      <c r="A109" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12828,8 +12969,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>198</v>
+      <c r="E109" s="65" t="s">
+        <v>197</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -12948,8 +13089,8 @@
       <c r="DP109" s="15"/>
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A110" s="43" t="s">
-        <v>162</v>
+      <c r="A110" s="37" t="s">
+        <v>161</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -12959,7 +13100,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E110" s="18"/>
+      <c r="E110" s="65"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
       <c r="H110" s="26"/>
@@ -13077,8 +13218,8 @@
       <c r="DP110" s="15"/>
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A111" s="43" t="s">
-        <v>249</v>
+      <c r="A111" s="37" t="s">
+        <v>248</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13088,8 +13229,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>250</v>
+      <c r="E111" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13148,7 +13289,7 @@
       <c r="DD111" s="14"/>
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A112" s="42" t="s">
+      <c r="A112" s="36" t="s">
         <v>141</v>
       </c>
       <c r="B112" s="28">
@@ -13159,7 +13300,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E112" s="18"/>
+      <c r="E112" s="65"/>
       <c r="BB112" s="14"/>
       <c r="BC112" s="14"/>
       <c r="BD112" s="14"/>
@@ -13217,7 +13358,7 @@
       <c r="DD112" s="14"/>
     </row>
     <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A113" s="42" t="s">
+      <c r="A113" s="36" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="28">
@@ -13228,7 +13369,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E113" s="18"/>
+      <c r="E113" s="65"/>
       <c r="BB113" s="14"/>
       <c r="BC113" s="14"/>
       <c r="BD113" s="14"/>
@@ -13286,7 +13427,7 @@
       <c r="DD113" s="14"/>
     </row>
     <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A114" s="42" t="s">
+      <c r="A114" s="36" t="s">
         <v>129</v>
       </c>
       <c r="B114" s="28">
@@ -13297,7 +13438,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E114" s="18"/>
+      <c r="E114" s="65"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
@@ -13415,7 +13556,7 @@
       <c r="DP114" s="15"/>
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A115" s="42" t="s">
+      <c r="A115" s="36" t="s">
         <v>137</v>
       </c>
       <c r="B115" s="28">
@@ -13426,7 +13567,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E115" s="18"/>
+      <c r="E115" s="65"/>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
@@ -13544,8 +13685,8 @@
       <c r="DP115" s="15"/>
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A116" s="42" t="s">
-        <v>195</v>
+      <c r="A116" s="36" t="s">
+        <v>194</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13555,8 +13696,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E116" s="18" t="s">
-        <v>225</v>
+      <c r="E116" s="65" t="s">
+        <v>224</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13675,7 +13816,7 @@
       <c r="DP116" s="15"/>
     </row>
     <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A117" s="42" t="s">
+      <c r="A117" s="36" t="s">
         <v>121</v>
       </c>
       <c r="B117" s="28">
@@ -13686,7 +13827,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E117" s="18"/>
+      <c r="E117" s="65"/>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
@@ -13804,7 +13945,7 @@
       <c r="DP117" s="15"/>
     </row>
     <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A118" s="42" t="s">
+      <c r="A118" s="36" t="s">
         <v>92</v>
       </c>
       <c r="B118" s="28">
@@ -13815,8 +13956,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>199</v>
+      <c r="E118" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -13935,7 +14076,7 @@
       <c r="DP118" s="15"/>
     </row>
     <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A119" s="42" t="s">
+      <c r="A119" s="36" t="s">
         <v>94</v>
       </c>
       <c r="B119" s="28">
@@ -13946,7 +14087,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E119" s="18"/>
+      <c r="E119" s="65"/>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
@@ -14064,7 +14205,7 @@
       <c r="DP119" s="15"/>
     </row>
     <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A120" s="42" t="s">
+      <c r="A120" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B120" s="28">
@@ -14075,7 +14216,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E120" s="18"/>
+      <c r="E120" s="65"/>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
@@ -14193,8 +14334,8 @@
       <c r="DP120" s="15"/>
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A121" s="42" t="s">
-        <v>292</v>
+      <c r="A121" s="36" t="s">
+        <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -14204,8 +14345,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>250</v>
+      <c r="E121" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14324,8 +14465,8 @@
       <c r="DP121" s="15"/>
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A122" s="42" t="s">
-        <v>216</v>
+      <c r="A122" s="36" t="s">
+        <v>215</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14335,7 +14476,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E122" s="18"/>
+      <c r="E122" s="65"/>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
@@ -14453,7 +14594,7 @@
       <c r="DP122" s="15"/>
     </row>
     <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B123" s="28">
@@ -14464,7 +14605,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E123" s="18"/>
+      <c r="E123" s="65"/>
       <c r="F123" s="26"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
@@ -14582,7 +14723,7 @@
       <c r="DP123" s="15"/>
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A124" s="43" t="s">
+      <c r="A124" s="37" t="s">
         <v>138</v>
       </c>
       <c r="B124" s="28">
@@ -14593,7 +14734,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E124" s="18"/>
+      <c r="E124" s="65"/>
       <c r="BB124" s="14"/>
       <c r="BC124" s="14"/>
       <c r="BD124" s="14"/>
@@ -14651,7 +14792,7 @@
       <c r="DD124" s="14"/>
     </row>
     <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B125" s="28">
@@ -14662,7 +14803,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E125" s="18"/>
+      <c r="E125" s="65"/>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
@@ -14780,7 +14921,7 @@
       <c r="DP125" s="15"/>
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A126" s="43" t="s">
+      <c r="A126" s="37" t="s">
         <v>131</v>
       </c>
       <c r="B126" s="28">
@@ -14791,7 +14932,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E126" s="18"/>
+      <c r="E126" s="65"/>
       <c r="F126" s="26"/>
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
@@ -14909,8 +15050,8 @@
       <c r="DP126" s="15"/>
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A127" s="42" t="s">
-        <v>179</v>
+      <c r="A127" s="36" t="s">
+        <v>178</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -14920,8 +15061,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E127" s="18" t="s">
-        <v>234</v>
+      <c r="E127" s="65" t="s">
+        <v>233</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15040,8 +15181,8 @@
       <c r="DP127" s="15"/>
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A128" s="42" t="s">
-        <v>183</v>
+      <c r="A128" s="36" t="s">
+        <v>182</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15051,8 +15192,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E128" s="18" t="s">
-        <v>245</v>
+      <c r="E128" s="65" t="s">
+        <v>244</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15171,8 +15312,8 @@
       <c r="DP128" s="15"/>
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A129" s="42" t="s">
-        <v>242</v>
+      <c r="A129" s="36" t="s">
+        <v>241</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15182,7 +15323,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E129" s="18"/>
+      <c r="E129" s="65"/>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
@@ -15300,7 +15441,7 @@
       <c r="DP129" s="15"/>
     </row>
     <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A130" s="42" t="s">
+      <c r="A130" s="36" t="s">
         <v>118</v>
       </c>
       <c r="B130" s="28">
@@ -15311,7 +15452,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E130" s="18"/>
+      <c r="E130" s="65"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
       <c r="H130" s="26"/>
@@ -15429,7 +15570,7 @@
       <c r="DP130" s="15"/>
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A131" s="42" t="s">
+      <c r="A131" s="36" t="s">
         <v>135</v>
       </c>
       <c r="B131" s="28">
@@ -15440,7 +15581,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E131" s="18"/>
+      <c r="E131" s="65"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
@@ -15558,8 +15699,8 @@
       <c r="DP131" s="15"/>
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A132" s="42" t="s">
-        <v>258</v>
+      <c r="A132" s="36" t="s">
+        <v>257</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15569,8 +15710,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E132" s="18" t="s">
-        <v>250</v>
+      <c r="E132" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15689,8 +15830,8 @@
       <c r="DP132" s="15"/>
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A133" s="42" t="s">
-        <v>228</v>
+      <c r="A133" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15700,8 +15841,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E133" s="18" t="s">
-        <v>225</v>
+      <c r="E133" s="65" t="s">
+        <v>224</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15820,8 +15961,8 @@
       <c r="DP133" s="15"/>
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A134" s="42" t="s">
-        <v>227</v>
+      <c r="A134" s="36" t="s">
+        <v>226</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15831,8 +15972,8 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E134" s="18" t="s">
-        <v>250</v>
+      <c r="E134" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -15951,8 +16092,8 @@
       <c r="DP134" s="15"/>
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A135" s="42" t="s">
-        <v>190</v>
+      <c r="A135" s="36" t="s">
+        <v>189</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -15962,8 +16103,8 @@
         <f t="shared" ref="D135:D166" si="5">B135*C135</f>
         <v>0</v>
       </c>
-      <c r="E135" s="18" t="s">
-        <v>199</v>
+      <c r="E135" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16081,18 +16222,21 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="42" t="s">
-        <v>142</v>
+    <row r="136" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A136" s="36" t="s">
+        <v>302</v>
       </c>
       <c r="B136" s="28">
-        <v>4174.41</v>
-      </c>
-      <c r="C136" s="17"/>
+        <v>5929.08</v>
+      </c>
+      <c r="C136" s="17">
+        <v>130</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>770780.4</v>
+      </c>
+      <c r="E136" s="67"/>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
@@ -16210,8 +16354,8 @@
       <c r="DP136" s="15"/>
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A137" s="42" t="s">
-        <v>168</v>
+      <c r="A137" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="B137" s="28">
         <v>5510.74</v>
@@ -16221,7 +16365,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E137" s="18"/>
+      <c r="E137" s="65"/>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
@@ -16339,8 +16483,8 @@
       <c r="DP137" s="15"/>
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A138" s="42" t="s">
-        <v>158</v>
+      <c r="A138" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16350,7 +16494,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E138" s="18"/>
+      <c r="E138" s="65"/>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
@@ -16468,8 +16612,8 @@
       <c r="DP138" s="15"/>
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A139" s="43" t="s">
-        <v>206</v>
+      <c r="A139" s="37" t="s">
+        <v>205</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16479,8 +16623,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E139" s="32" t="s">
-        <v>199</v>
+      <c r="E139" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16532,8 +16676,8 @@
       <c r="BA139" s="25"/>
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A140" s="42" t="s">
-        <v>189</v>
+      <c r="A140" s="36" t="s">
+        <v>188</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16543,7 +16687,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E140" s="33"/>
+      <c r="E140" s="67"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
@@ -16594,8 +16738,8 @@
       <c r="BA140" s="25"/>
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A141" s="42" t="s">
-        <v>175</v>
+      <c r="A141" s="36" t="s">
+        <v>174</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16605,7 +16749,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E141" s="18"/>
+      <c r="E141" s="65"/>
       <c r="F141" s="25"/>
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
@@ -16656,8 +16800,8 @@
       <c r="BA141" s="25"/>
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A142" s="42" t="s">
-        <v>171</v>
+      <c r="A142" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16667,7 +16811,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E142" s="18"/>
+      <c r="E142" s="65"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
@@ -16718,8 +16862,8 @@
       <c r="BA142" s="25"/>
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A143" s="42" t="s">
-        <v>177</v>
+      <c r="A143" s="36" t="s">
+        <v>176</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16729,7 +16873,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E143" s="18"/>
+      <c r="E143" s="65"/>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
@@ -16780,7 +16924,7 @@
       <c r="BA143" s="25"/>
     </row>
     <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B144" s="28">
@@ -16791,8 +16935,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E144" s="18" t="s">
-        <v>199</v>
+      <c r="E144" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -16844,8 +16988,8 @@
       <c r="BA144" s="25"/>
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A145" s="43" t="s">
-        <v>164</v>
+      <c r="A145" s="37" t="s">
+        <v>163</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -16855,7 +16999,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E145" s="18"/>
+      <c r="E145" s="65"/>
       <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -16906,8 +17050,8 @@
       <c r="BA145" s="25"/>
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A146" s="42" t="s">
-        <v>209</v>
+      <c r="A146" s="36" t="s">
+        <v>208</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -16917,8 +17061,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E146" s="18" t="s">
-        <v>199</v>
+      <c r="E146" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17037,8 +17181,8 @@
       <c r="DP146" s="15"/>
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A147" s="43" t="s">
-        <v>182</v>
+      <c r="A147" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17048,8 +17192,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E147" s="18" t="s">
-        <v>199</v>
+      <c r="E147" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17168,8 +17312,8 @@
       <c r="DP147" s="15"/>
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A148" s="43" t="s">
-        <v>149</v>
+      <c r="A148" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17179,7 +17323,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E148" s="18"/>
+      <c r="E148" s="65"/>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
       <c r="H148" s="26"/>
@@ -17297,7 +17441,7 @@
       <c r="DP148" s="15"/>
     </row>
     <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A149" s="43" t="s">
+      <c r="A149" s="37" t="s">
         <v>127</v>
       </c>
       <c r="B149" s="28">
@@ -17308,8 +17452,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E149" s="32" t="s">
-        <v>215</v>
+      <c r="E149" s="65" t="s">
+        <v>214</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17428,8 +17572,8 @@
       <c r="DP149" s="15"/>
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A150" s="43" t="s">
-        <v>159</v>
+      <c r="A150" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17439,7 +17583,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E150" s="18"/>
+      <c r="E150" s="65"/>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
@@ -17557,8 +17701,8 @@
       <c r="DP150" s="15"/>
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A151" s="43" t="s">
-        <v>181</v>
+      <c r="A151" s="37" t="s">
+        <v>180</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17568,8 +17712,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E151" s="18" t="s">
-        <v>225</v>
+      <c r="E151" s="65" t="s">
+        <v>224</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17688,7 +17832,7 @@
       <c r="DP151" s="15"/>
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A152" s="43" t="s">
+      <c r="A152" s="37" t="s">
         <v>139</v>
       </c>
       <c r="B152" s="30">
@@ -17699,8 +17843,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E152" s="18" t="s">
-        <v>199</v>
+      <c r="E152" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17819,8 +17963,8 @@
       <c r="DP152" s="15"/>
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A153" s="43" t="s">
-        <v>160</v>
+      <c r="A153" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -17830,7 +17974,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E153" s="18"/>
+      <c r="E153" s="65"/>
       <c r="F153" s="26"/>
       <c r="G153" s="26"/>
       <c r="H153" s="26"/>
@@ -17948,8 +18092,8 @@
       <c r="DP153" s="15"/>
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A154" s="43" t="s">
-        <v>188</v>
+      <c r="A154" s="37" t="s">
+        <v>187</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -17959,7 +18103,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E154" s="18"/>
+      <c r="E154" s="65"/>
       <c r="F154" s="26"/>
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
@@ -18077,8 +18221,8 @@
       <c r="DP154" s="15"/>
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A155" s="43" t="s">
-        <v>174</v>
+      <c r="A155" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18088,8 +18232,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E155" s="33" t="s">
-        <v>199</v>
+      <c r="E155" s="67" t="s">
+        <v>198</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18208,8 +18352,8 @@
       <c r="DP155" s="15"/>
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A156" s="43" t="s">
-        <v>218</v>
+      <c r="A156" s="37" t="s">
+        <v>217</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18219,8 +18363,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E156" s="18" t="s">
-        <v>199</v>
+      <c r="E156" s="65" t="s">
+        <v>198</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18339,8 +18483,8 @@
       <c r="DP156" s="15"/>
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A157" s="42" t="s">
-        <v>246</v>
+      <c r="A157" s="36" t="s">
+        <v>245</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18350,8 +18494,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E157" s="18" t="s">
-        <v>203</v>
+      <c r="E157" s="65" t="s">
+        <v>202</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18409,8 +18553,8 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A158" s="42" t="s">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
       <c r="B158" s="28">
@@ -18421,7 +18565,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E158" s="18"/>
+      <c r="E158" s="65"/>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
@@ -18471,9 +18615,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A159" s="42" t="s">
-        <v>231</v>
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+      <c r="A159" s="36" t="s">
+        <v>230</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18483,8 +18627,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E159" s="18" t="s">
-        <v>250</v>
+      <c r="E159" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18536,8 +18680,8 @@
       <c r="BA159" s="25"/>
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A160" s="42" t="s">
-        <v>197</v>
+      <c r="A160" s="36" t="s">
+        <v>196</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18547,7 +18691,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E160" s="18"/>
+      <c r="E160" s="65"/>
       <c r="F160" s="26"/>
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
@@ -18665,8 +18809,8 @@
       <c r="DP160" s="15"/>
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A161" s="42" t="s">
-        <v>247</v>
+      <c r="A161" s="36" t="s">
+        <v>246</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18676,8 +18820,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E161" s="18" t="s">
-        <v>250</v>
+      <c r="E161" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18796,8 +18940,8 @@
       <c r="DP161" s="15"/>
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A162" s="42" t="s">
-        <v>267</v>
+      <c r="A162" s="36" t="s">
+        <v>266</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18807,8 +18951,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E162" s="18" t="s">
-        <v>250</v>
+      <c r="E162" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -18927,8 +19071,8 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="42" t="s">
-        <v>300</v>
+      <c r="A163" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -18938,8 +19082,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E163" s="18" t="s">
-        <v>203</v>
+      <c r="E163" s="65" t="s">
+        <v>202</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19058,8 +19202,8 @@
       <c r="DP163" s="15"/>
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A164" s="42" t="s">
-        <v>269</v>
+      <c r="A164" s="36" t="s">
+        <v>268</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19069,7 +19213,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E164" s="18"/>
+      <c r="E164" s="65"/>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
@@ -19187,8 +19331,8 @@
       <c r="DP164" s="15"/>
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A165" s="42" t="s">
-        <v>270</v>
+      <c r="A165" s="36" t="s">
+        <v>269</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19198,8 +19342,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E165" s="18" t="s">
-        <v>276</v>
+      <c r="E165" s="65" t="s">
+        <v>275</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19318,8 +19462,8 @@
       <c r="DP165" s="15"/>
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A166" s="42" t="s">
-        <v>271</v>
+      <c r="A166" s="36" t="s">
+        <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19329,8 +19473,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E166" s="39" t="s">
-        <v>286</v>
+      <c r="E166" s="66" t="s">
+        <v>285</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19449,8 +19593,8 @@
       <c r="DP166" s="15"/>
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A167" s="42" t="s">
-        <v>260</v>
+      <c r="A167" s="36" t="s">
+        <v>259</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19460,8 +19604,8 @@
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
         <v>0</v>
       </c>
-      <c r="E167" s="39" t="s">
-        <v>286</v>
+      <c r="E167" s="66" t="s">
+        <v>285</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19580,8 +19724,8 @@
       <c r="DP167" s="15"/>
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A168" s="42" t="s">
-        <v>272</v>
+      <c r="A168" s="36" t="s">
+        <v>271</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19591,8 +19735,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E168" s="18" t="s">
-        <v>250</v>
+      <c r="E168" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19710,22 +19854,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="42" t="s">
-        <v>288</v>
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A169" s="36" t="s">
+        <v>287</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>50</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>416007.5</v>
-      </c>
-      <c r="E169" s="18" t="s">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="E169" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19844,8 +19986,8 @@
       <c r="DP169" s="15"/>
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A170" s="42" t="s">
-        <v>277</v>
+      <c r="A170" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -19855,8 +19997,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E170" s="18" t="s">
-        <v>250</v>
+      <c r="E170" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -19975,8 +20117,8 @@
       <c r="DP170" s="15"/>
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A171" s="42" t="s">
-        <v>278</v>
+      <c r="A171" s="36" t="s">
+        <v>277</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -19986,8 +20128,8 @@
         <f t="shared" ref="D171" si="8">B171*C171</f>
         <v>0</v>
       </c>
-      <c r="E171" s="18" t="s">
-        <v>250</v>
+      <c r="E171" s="65" t="s">
+        <v>249</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20106,8 +20248,8 @@
       <c r="DP171" s="15"/>
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A172" s="42" t="s">
-        <v>273</v>
+      <c r="A172" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20117,8 +20259,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E172" s="39" t="s">
-        <v>287</v>
+      <c r="E172" s="66" t="s">
+        <v>286</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20237,19 +20379,19 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A173" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="B173" s="28">
+      <c r="A173" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="B173" s="69">
         <v>10133.07</v>
       </c>
-      <c r="C173" s="17"/>
-      <c r="D173" s="18">
+      <c r="C173" s="70"/>
+      <c r="D173" s="71">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E173" s="18" t="s">
-        <v>250</v>
+      <c r="E173" s="72" t="s">
+        <v>249</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20368,19 +20510,19 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A174" s="70" t="s">
+      <c r="A174" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B174" s="71"/>
-      <c r="C174" s="58">
-        <f>SUBTOTAL(9,C21:C173)</f>
-        <v>113</v>
-      </c>
-      <c r="D174" s="59">
-        <f>SUBTOTAL(9,D21:D173)</f>
-        <v>551647.13</v>
-      </c>
-      <c r="E174" s="60"/>
+      <c r="B174" s="82"/>
+      <c r="C174" s="52">
+        <f>SUBTOTAL(9,C51:C173)</f>
+        <v>130</v>
+      </c>
+      <c r="D174" s="53">
+        <f>SUBTOTAL(9,D51:D173)</f>
+        <v>770780.4</v>
+      </c>
+      <c r="E174" s="54"/>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
       <c r="H174" s="26"/>
@@ -20498,7 +20640,7 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1">
-      <c r="A175" s="44"/>
+      <c r="A175" s="38"/>
       <c r="B175" s="29"/>
       <c r="C175" s="20"/>
       <c r="D175" s="21"/>
@@ -20620,64 +20762,64 @@
       <c r="DP175" s="15"/>
     </row>
     <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B176" s="62"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="62"/>
-      <c r="E176" s="62"/>
-      <c r="I176" s="61"/>
+      <c r="B176" s="73"/>
+      <c r="C176" s="73"/>
+      <c r="D176" s="73"/>
+      <c r="E176" s="73"/>
+      <c r="I176" s="55"/>
     </row>
     <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="67" t="s">
+      <c r="B177" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C177" s="68"/>
-      <c r="D177" s="69"/>
+      <c r="C177" s="79"/>
+      <c r="D177" s="80"/>
       <c r="E177" s="24"/>
     </row>
     <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
     <row r="179" spans="2:5">
-      <c r="B179" s="49" t="s">
+      <c r="B179" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C179" s="50" t="s">
+      <c r="C179" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D179" s="51" t="s">
+      <c r="D179" s="45" t="s">
         <v>133</v>
       </c>
       <c r="E179" s="22"/>
     </row>
     <row r="180" spans="2:5" ht="15" customHeight="1">
-      <c r="B180" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="C180" s="53">
-        <v>550000</v>
-      </c>
-      <c r="D180" s="54"/>
+      <c r="B180" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="C180" s="47">
+        <v>450000</v>
+      </c>
+      <c r="D180" s="48"/>
       <c r="E180" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
-      <c r="B181" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="C181" s="53">
+      <c r="B181" s="46" t="s">
+        <v>298</v>
+      </c>
+      <c r="C181" s="47">
         <v>0</v>
       </c>
-      <c r="D181" s="54"/>
+      <c r="D181" s="48"/>
       <c r="E181" s="22"/>
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
-      <c r="B182" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="C182" s="57">
+      <c r="B182" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>550000</v>
-      </c>
-      <c r="D182" s="56"/>
+        <v>450000</v>
+      </c>
+      <c r="D182" s="50"/>
       <c r="E182" s="23"/>
     </row>
     <row r="183" spans="2:5" ht="15" customHeight="1"/>
@@ -20730,33 +20872,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76" t="e">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="76"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22697,10 +22839,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="72" t="s">
+      <c r="A101" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="72"/>
+      <c r="B101" s="83"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2071,16 +2071,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomRight" activeCell="K181" sqref="K181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44580</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2138,7 +2138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>260</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>207</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="DC7" s="14"/>
       <c r="DD7" s="14"/>
     </row>
-    <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:120" ht="15" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>183</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="DO8" s="15"/>
       <c r="DP8" s="15"/>
     </row>
-    <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:120" ht="15" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>119</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="DO9" s="15"/>
       <c r="DP9" s="15"/>
     </row>
-    <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:120" ht="15" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>151</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="DC10" s="14"/>
       <c r="DD10" s="14"/>
     </row>
-    <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:120" ht="15" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>152</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
     </row>
-    <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:120" ht="15" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>164</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>231</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:120" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>237</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="DC15" s="14"/>
       <c r="DD15" s="14"/>
     </row>
-    <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:120" ht="15" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>212</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
     </row>
-    <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:120" ht="15" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>222</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>263</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>297</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>278</v>
       </c>
@@ -3225,7 +3225,7 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="DC21" s="14"/>
       <c r="DD21" s="14"/>
     </row>
-    <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:120" ht="15" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3363,7 @@
       <c r="DC22" s="14"/>
       <c r="DD22" s="14"/>
     </row>
-    <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:120" ht="15" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>150</v>
       </c>
@@ -3492,7 +3492,7 @@
       <c r="DO23" s="15"/>
       <c r="DP23" s="15"/>
     </row>
-    <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:120" ht="15" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>123</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="DO24" s="15"/>
       <c r="DP24" s="15"/>
     </row>
-    <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:120" ht="15" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>175</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
@@ -3883,7 +3883,7 @@
       <c r="DO26" s="15"/>
       <c r="DP26" s="15"/>
     </row>
-    <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:120" ht="15" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>211</v>
       </c>
@@ -4014,7 +4014,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>282</v>
       </c>
@@ -4145,7 +4145,7 @@
       <c r="DO28" s="15"/>
       <c r="DP28" s="15"/>
     </row>
-    <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:120" ht="15" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="DO29" s="15"/>
       <c r="DP29" s="15"/>
     </row>
-    <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:120" ht="15" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>60</v>
       </c>
@@ -4407,7 +4407,7 @@
       <c r="DO30" s="15"/>
       <c r="DP30" s="15"/>
     </row>
-    <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:120" ht="15" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>210</v>
       </c>
@@ -4538,7 +4538,7 @@
       <c r="DO31" s="15"/>
       <c r="DP31" s="15"/>
     </row>
-    <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:120" ht="15" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>142</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="DO32" s="15"/>
       <c r="DP32" s="15"/>
     </row>
-    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>186</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>
     </row>
-    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>149</v>
       </c>
@@ -4791,7 +4791,7 @@
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
     </row>
-    <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:120" ht="15" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>185</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="DO35" s="15"/>
       <c r="DP35" s="15"/>
     </row>
-    <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:120" ht="15" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>218</v>
       </c>
@@ -5051,7 +5051,7 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
@@ -5182,7 +5182,7 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
@@ -5444,7 +5444,7 @@
       <c r="DO39" s="15"/>
       <c r="DP39" s="15"/>
     </row>
-    <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:120" ht="15" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>116</v>
       </c>
@@ -5573,7 +5573,7 @@
       <c r="DO40" s="15"/>
       <c r="DP40" s="15"/>
     </row>
-    <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:120" ht="15" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>153</v>
       </c>
@@ -5702,7 +5702,7 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="DO42" s="15"/>
       <c r="DP42" s="15"/>
     </row>
-    <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:120" ht="15" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="DO43" s="15"/>
       <c r="DP43" s="15"/>
     </row>
-    <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:120" ht="15" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>155</v>
       </c>
@@ -6091,7 +6091,7 @@
       <c r="DO44" s="15"/>
       <c r="DP44" s="15"/>
     </row>
-    <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:120" ht="15" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>221</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="DO45" s="15"/>
       <c r="DP45" s="15"/>
     </row>
-    <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:120" ht="15" customHeight="1">
       <c r="A46" s="37" t="s">
         <v>154</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>238</v>
       </c>
@@ -6411,7 +6411,7 @@
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
     </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="36" t="s">
         <v>252</v>
       </c>
@@ -6542,7 +6542,7 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>290</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>283</v>
       </c>
@@ -6804,7 +6804,7 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="DO51" s="15"/>
       <c r="DP51" s="15"/>
     </row>
-    <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:120" ht="15" customHeight="1">
       <c r="A52" s="36" t="s">
         <v>236</v>
       </c>
@@ -7066,7 +7066,7 @@
       <c r="DO52" s="15"/>
       <c r="DP52" s="15"/>
     </row>
-    <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:120" ht="15" customHeight="1">
       <c r="A53" s="36" t="s">
         <v>177</v>
       </c>
@@ -7195,7 +7195,7 @@
       <c r="DO53" s="15"/>
       <c r="DP53" s="15"/>
     </row>
-    <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:120" ht="15" customHeight="1">
       <c r="A54" s="37" t="s">
         <v>223</v>
       </c>
@@ -7326,7 +7326,7 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:120" ht="15" customHeight="1">
       <c r="A55" s="37" t="s">
         <v>242</v>
       </c>
@@ -7457,7 +7457,7 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:120" ht="15" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>171</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="DO57" s="15"/>
       <c r="DP57" s="15"/>
     </row>
-    <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:120" ht="15" customHeight="1">
       <c r="A58" s="36" t="s">
         <v>115</v>
       </c>
@@ -7846,7 +7846,7 @@
       <c r="DO58" s="15"/>
       <c r="DP58" s="15"/>
     </row>
-    <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:120" ht="15" customHeight="1">
       <c r="A59" s="36" t="s">
         <v>124</v>
       </c>
@@ -7977,7 +7977,7 @@
       <c r="DO59" s="15"/>
       <c r="DP59" s="15"/>
     </row>
-    <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:120" ht="15" customHeight="1">
       <c r="A60" s="36" t="s">
         <v>184</v>
       </c>
@@ -8106,7 +8106,7 @@
       <c r="DO60" s="15"/>
       <c r="DP60" s="15"/>
     </row>
-    <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:120" ht="15" customHeight="1">
       <c r="A61" s="36" t="s">
         <v>145</v>
       </c>
@@ -8235,7 +8235,7 @@
       <c r="DO61" s="15"/>
       <c r="DP61" s="15"/>
     </row>
-    <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:120" ht="15" customHeight="1">
       <c r="A62" s="36" t="s">
         <v>140</v>
       </c>
@@ -8364,7 +8364,7 @@
       <c r="DO62" s="15"/>
       <c r="DP62" s="15"/>
     </row>
-    <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:120" ht="15" customHeight="1">
       <c r="A63" s="36" t="s">
         <v>247</v>
       </c>
@@ -8495,7 +8495,7 @@
       <c r="DO63" s="15"/>
       <c r="DP63" s="15"/>
     </row>
-    <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:120" ht="15" customHeight="1">
       <c r="A64" s="36" t="s">
         <v>169</v>
       </c>
@@ -8624,7 +8624,7 @@
       <c r="DO64" s="15"/>
       <c r="DP64" s="15"/>
     </row>
-    <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:120" ht="15" customHeight="1">
       <c r="A65" s="36" t="s">
         <v>168</v>
       </c>
@@ -8753,7 +8753,7 @@
       <c r="DO65" s="15"/>
       <c r="DP65" s="15"/>
     </row>
-    <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:120" ht="15" customHeight="1">
       <c r="A66" s="36" t="s">
         <v>201</v>
       </c>
@@ -8882,7 +8882,7 @@
       <c r="DO66" s="15"/>
       <c r="DP66" s="15"/>
     </row>
-    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:120" ht="15" customHeight="1">
       <c r="A67" s="36" t="s">
         <v>234</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:120" ht="15" customHeight="1">
       <c r="A68" s="36" t="s">
         <v>284</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="DC68" s="14"/>
       <c r="DD68" s="14"/>
     </row>
-    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="36" t="s">
         <v>193</v>
       </c>
@@ -9086,7 +9086,7 @@
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="36" t="s">
         <v>243</v>
       </c>
@@ -9148,7 +9148,7 @@
       <c r="AZ70" s="25"/>
       <c r="BA70" s="25"/>
     </row>
-    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="36" t="s">
         <v>261</v>
       </c>
@@ -9212,7 +9212,7 @@
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
     </row>
-    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="36" t="s">
         <v>220</v>
       </c>
@@ -9276,7 +9276,7 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="36" t="s">
         <v>292</v>
       </c>
@@ -9340,7 +9340,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9404,7 +9404,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9468,7 +9468,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9592,7 +9592,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -9654,7 +9654,7 @@
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
     </row>
-    <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:120" ht="15" customHeight="1">
       <c r="A79" s="36" t="s">
         <v>213</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:120" ht="15" customHeight="1">
       <c r="A80" s="36" t="s">
         <v>251</v>
       </c>
@@ -9916,7 +9916,7 @@
       <c r="DO80" s="15"/>
       <c r="DP80" s="15"/>
     </row>
-    <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:120" ht="15" customHeight="1">
       <c r="A81" s="36" t="s">
         <v>250</v>
       </c>
@@ -10047,7 +10047,7 @@
       <c r="DO81" s="15"/>
       <c r="DP81" s="15"/>
     </row>
-    <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:120" ht="15" customHeight="1">
       <c r="A82" s="37" t="s">
         <v>125</v>
       </c>
@@ -10178,7 +10178,7 @@
       <c r="DO82" s="15"/>
       <c r="DP82" s="15"/>
     </row>
-    <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:120" ht="15" customHeight="1">
       <c r="A83" s="37" t="s">
         <v>166</v>
       </c>
@@ -10307,7 +10307,7 @@
       <c r="DO83" s="15"/>
       <c r="DP83" s="15"/>
     </row>
-    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="37" t="s">
         <v>144</v>
       </c>
@@ -10369,7 +10369,7 @@
       <c r="AZ84" s="25"/>
       <c r="BA84" s="25"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="37" t="s">
         <v>216</v>
       </c>
@@ -10433,7 +10433,7 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
@@ -10501,7 +10501,7 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
@@ -10632,7 +10632,7 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>134</v>
       </c>
@@ -10701,7 +10701,7 @@
       <c r="DC88" s="14"/>
       <c r="DD88" s="14"/>
     </row>
-    <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:120" ht="15" customHeight="1">
       <c r="A89" s="37" t="s">
         <v>132</v>
       </c>
@@ -10770,7 +10770,7 @@
       <c r="DC89" s="14"/>
       <c r="DD89" s="14"/>
     </row>
-    <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:120" ht="15" customHeight="1">
       <c r="A90" s="36" t="s">
         <v>143</v>
       </c>
@@ -10901,7 +10901,7 @@
       <c r="DO90" s="15"/>
       <c r="DP90" s="15"/>
     </row>
-    <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:120" ht="15" customHeight="1">
       <c r="A91" s="37" t="s">
         <v>54</v>
       </c>
@@ -11032,7 +11032,7 @@
       <c r="DO91" s="15"/>
       <c r="DP91" s="15"/>
     </row>
-    <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:120" ht="15" customHeight="1">
       <c r="A92" s="37" t="s">
         <v>165</v>
       </c>
@@ -11161,7 +11161,7 @@
       <c r="DO92" s="15"/>
       <c r="DP92" s="15"/>
     </row>
-    <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:120" ht="15" customHeight="1">
       <c r="A93" s="36" t="s">
         <v>57</v>
       </c>
@@ -11290,7 +11290,7 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>192</v>
       </c>
@@ -11419,7 +11419,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11547,7 +11547,7 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
@@ -11678,7 +11678,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
@@ -11809,7 +11809,7 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" ht="15" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>293</v>
       </c>
@@ -12071,7 +12071,7 @@
       <c r="DO100" s="15"/>
       <c r="DP100" s="15"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="36" t="s">
         <v>219</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
@@ -12254,7 +12254,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
@@ -12373,7 +12373,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
@@ -12437,7 +12437,7 @@
       <c r="AZ104" s="25"/>
       <c r="BA104" s="25"/>
     </row>
-    <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:120" ht="15" customHeight="1">
       <c r="A105" s="37" t="s">
         <v>128</v>
       </c>
@@ -12568,7 +12568,7 @@
       <c r="DO105" s="15"/>
       <c r="DP105" s="15"/>
     </row>
-    <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:120" ht="15" customHeight="1">
       <c r="A106" s="37" t="s">
         <v>191</v>
       </c>
@@ -12699,7 +12699,7 @@
       <c r="DO106" s="15"/>
       <c r="DP106" s="15"/>
     </row>
-    <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:120" ht="15" customHeight="1">
       <c r="A107" s="37" t="s">
         <v>156</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="DO107" s="15"/>
       <c r="DP107" s="15"/>
     </row>
-    <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:120" ht="15" customHeight="1">
       <c r="A108" s="37" t="s">
         <v>172</v>
       </c>
@@ -12957,7 +12957,7 @@
       <c r="DO108" s="15"/>
       <c r="DP108" s="15"/>
     </row>
-    <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:120" ht="15" customHeight="1">
       <c r="A109" s="37" t="s">
         <v>179</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="DO109" s="15"/>
       <c r="DP109" s="15"/>
     </row>
-    <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:120" ht="15" customHeight="1">
       <c r="A110" s="37" t="s">
         <v>161</v>
       </c>
@@ -13217,7 +13217,7 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>248</v>
       </c>
@@ -13288,7 +13288,7 @@
       <c r="DC111" s="14"/>
       <c r="DD111" s="14"/>
     </row>
-    <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:120" ht="15" customHeight="1">
       <c r="A112" s="36" t="s">
         <v>141</v>
       </c>
@@ -13357,7 +13357,7 @@
       <c r="DC112" s="14"/>
       <c r="DD112" s="14"/>
     </row>
-    <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:120" ht="15" customHeight="1">
       <c r="A113" s="36" t="s">
         <v>120</v>
       </c>
@@ -13426,7 +13426,7 @@
       <c r="DC113" s="14"/>
       <c r="DD113" s="14"/>
     </row>
-    <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:120" ht="15" customHeight="1">
       <c r="A114" s="36" t="s">
         <v>129</v>
       </c>
@@ -13555,7 +13555,7 @@
       <c r="DO114" s="15"/>
       <c r="DP114" s="15"/>
     </row>
-    <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:120" ht="15" customHeight="1">
       <c r="A115" s="36" t="s">
         <v>137</v>
       </c>
@@ -13684,7 +13684,7 @@
       <c r="DO115" s="15"/>
       <c r="DP115" s="15"/>
     </row>
-    <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:120" ht="15" customHeight="1">
       <c r="A116" s="36" t="s">
         <v>194</v>
       </c>
@@ -13815,7 +13815,7 @@
       <c r="DO116" s="15"/>
       <c r="DP116" s="15"/>
     </row>
-    <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:120" ht="15" customHeight="1">
       <c r="A117" s="36" t="s">
         <v>121</v>
       </c>
@@ -13944,7 +13944,7 @@
       <c r="DO117" s="15"/>
       <c r="DP117" s="15"/>
     </row>
-    <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:120" ht="15" customHeight="1">
       <c r="A118" s="36" t="s">
         <v>92</v>
       </c>
@@ -14075,7 +14075,7 @@
       <c r="DO118" s="15"/>
       <c r="DP118" s="15"/>
     </row>
-    <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:120" ht="15" customHeight="1">
       <c r="A119" s="36" t="s">
         <v>94</v>
       </c>
@@ -14204,7 +14204,7 @@
       <c r="DO119" s="15"/>
       <c r="DP119" s="15"/>
     </row>
-    <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:120" ht="15" customHeight="1">
       <c r="A120" s="36" t="s">
         <v>93</v>
       </c>
@@ -14333,7 +14333,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
@@ -14464,7 +14464,7 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>215</v>
       </c>
@@ -14593,7 +14593,7 @@
       <c r="DO122" s="15"/>
       <c r="DP122" s="15"/>
     </row>
-    <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:120" ht="15" customHeight="1">
       <c r="A123" s="37" t="s">
         <v>74</v>
       </c>
@@ -14722,7 +14722,7 @@
       <c r="DO123" s="15"/>
       <c r="DP123" s="15"/>
     </row>
-    <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:120" ht="15" customHeight="1">
       <c r="A124" s="37" t="s">
         <v>138</v>
       </c>
@@ -14791,7 +14791,7 @@
       <c r="DC124" s="14"/>
       <c r="DD124" s="14"/>
     </row>
-    <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:120" ht="15" customHeight="1">
       <c r="A125" s="37" t="s">
         <v>75</v>
       </c>
@@ -14920,7 +14920,7 @@
       <c r="DO125" s="15"/>
       <c r="DP125" s="15"/>
     </row>
-    <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:120" ht="15" customHeight="1">
       <c r="A126" s="37" t="s">
         <v>131</v>
       </c>
@@ -15049,7 +15049,7 @@
       <c r="DO126" s="15"/>
       <c r="DP126" s="15"/>
     </row>
-    <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:120" ht="15" customHeight="1">
       <c r="A127" s="36" t="s">
         <v>178</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="DO127" s="15"/>
       <c r="DP127" s="15"/>
     </row>
-    <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:120" ht="15" customHeight="1">
       <c r="A128" s="36" t="s">
         <v>182</v>
       </c>
@@ -15311,7 +15311,7 @@
       <c r="DO128" s="15"/>
       <c r="DP128" s="15"/>
     </row>
-    <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:120" ht="15" customHeight="1">
       <c r="A129" s="36" t="s">
         <v>241</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="DO129" s="15"/>
       <c r="DP129" s="15"/>
     </row>
-    <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:120" ht="15" customHeight="1">
       <c r="A130" s="36" t="s">
         <v>118</v>
       </c>
@@ -15569,7 +15569,7 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="36" t="s">
         <v>135</v>
       </c>
@@ -15698,7 +15698,7 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>257</v>
       </c>
@@ -15829,7 +15829,7 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:120" ht="15" customHeight="1">
       <c r="A133" s="36" t="s">
         <v>227</v>
       </c>
@@ -15960,7 +15960,7 @@
       <c r="DO133" s="15"/>
       <c r="DP133" s="15"/>
     </row>
-    <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:120" ht="15" customHeight="1">
       <c r="A134" s="36" t="s">
         <v>226</v>
       </c>
@@ -16091,7 +16091,7 @@
       <c r="DO134" s="15"/>
       <c r="DP134" s="15"/>
     </row>
-    <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:120" ht="15" customHeight="1">
       <c r="A135" s="36" t="s">
         <v>189</v>
       </c>
@@ -16222,19 +16222,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>302</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>130</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>770780.4</v>
+        <v>0</v>
       </c>
       <c r="E136" s="67"/>
       <c r="F136" s="26"/>
@@ -16353,7 +16351,7 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:120" ht="15" customHeight="1">
       <c r="A137" s="36" t="s">
         <v>167</v>
       </c>
@@ -16482,7 +16480,7 @@
       <c r="DO137" s="15"/>
       <c r="DP137" s="15"/>
     </row>
-    <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:120" ht="15" customHeight="1">
       <c r="A138" s="36" t="s">
         <v>157</v>
       </c>
@@ -16611,7 +16609,7 @@
       <c r="DO138" s="15"/>
       <c r="DP138" s="15"/>
     </row>
-    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="37" t="s">
         <v>205</v>
       </c>
@@ -16675,7 +16673,7 @@
       <c r="AZ139" s="25"/>
       <c r="BA139" s="25"/>
     </row>
-    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="36" t="s">
         <v>188</v>
       </c>
@@ -16737,7 +16735,7 @@
       <c r="AZ140" s="25"/>
       <c r="BA140" s="25"/>
     </row>
-    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="36" t="s">
         <v>174</v>
       </c>
@@ -16799,7 +16797,7 @@
       <c r="AZ141" s="25"/>
       <c r="BA141" s="25"/>
     </row>
-    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="36" t="s">
         <v>170</v>
       </c>
@@ -16861,7 +16859,7 @@
       <c r="AZ142" s="25"/>
       <c r="BA142" s="25"/>
     </row>
-    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="36" t="s">
         <v>176</v>
       </c>
@@ -16923,7 +16921,7 @@
       <c r="AZ143" s="25"/>
       <c r="BA143" s="25"/>
     </row>
-    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="37" t="s">
         <v>122</v>
       </c>
@@ -16987,7 +16985,7 @@
       <c r="AZ144" s="25"/>
       <c r="BA144" s="25"/>
     </row>
-    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="37" t="s">
         <v>163</v>
       </c>
@@ -17049,7 +17047,7 @@
       <c r="AZ145" s="25"/>
       <c r="BA145" s="25"/>
     </row>
-    <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:120" ht="15" customHeight="1">
       <c r="A146" s="36" t="s">
         <v>208</v>
       </c>
@@ -17180,7 +17178,7 @@
       <c r="DO146" s="15"/>
       <c r="DP146" s="15"/>
     </row>
-    <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:120" ht="15" customHeight="1">
       <c r="A147" s="37" t="s">
         <v>181</v>
       </c>
@@ -17311,7 +17309,7 @@
       <c r="DO147" s="15"/>
       <c r="DP147" s="15"/>
     </row>
-    <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:120" ht="15" customHeight="1">
       <c r="A148" s="37" t="s">
         <v>148</v>
       </c>
@@ -17440,7 +17438,7 @@
       <c r="DO148" s="15"/>
       <c r="DP148" s="15"/>
     </row>
-    <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:120" ht="15" customHeight="1">
       <c r="A149" s="37" t="s">
         <v>127</v>
       </c>
@@ -17571,7 +17569,7 @@
       <c r="DO149" s="15"/>
       <c r="DP149" s="15"/>
     </row>
-    <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:120" ht="15" customHeight="1">
       <c r="A150" s="37" t="s">
         <v>158</v>
       </c>
@@ -17700,7 +17698,7 @@
       <c r="DO150" s="15"/>
       <c r="DP150" s="15"/>
     </row>
-    <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:120" ht="15" customHeight="1">
       <c r="A151" s="37" t="s">
         <v>180</v>
       </c>
@@ -17831,7 +17829,7 @@
       <c r="DO151" s="15"/>
       <c r="DP151" s="15"/>
     </row>
-    <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:120" ht="15" customHeight="1">
       <c r="A152" s="37" t="s">
         <v>139</v>
       </c>
@@ -17962,7 +17960,7 @@
       <c r="DO152" s="15"/>
       <c r="DP152" s="15"/>
     </row>
-    <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:120" ht="15" customHeight="1">
       <c r="A153" s="37" t="s">
         <v>159</v>
       </c>
@@ -18091,7 +18089,7 @@
       <c r="DO153" s="15"/>
       <c r="DP153" s="15"/>
     </row>
-    <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:120" ht="15" customHeight="1">
       <c r="A154" s="37" t="s">
         <v>187</v>
       </c>
@@ -18220,7 +18218,7 @@
       <c r="DO154" s="15"/>
       <c r="DP154" s="15"/>
     </row>
-    <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:120" ht="15" customHeight="1">
       <c r="A155" s="37" t="s">
         <v>173</v>
       </c>
@@ -18351,7 +18349,7 @@
       <c r="DO155" s="15"/>
       <c r="DP155" s="15"/>
     </row>
-    <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:120" ht="15" customHeight="1">
       <c r="A156" s="37" t="s">
         <v>217</v>
       </c>
@@ -18482,7 +18480,7 @@
       <c r="DO156" s="15"/>
       <c r="DP156" s="15"/>
     </row>
-    <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:120" ht="15" customHeight="1">
       <c r="A157" s="36" t="s">
         <v>245</v>
       </c>
@@ -18553,7 +18551,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18615,7 +18613,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -18679,7 +18677,7 @@
       <c r="AZ159" s="25"/>
       <c r="BA159" s="25"/>
     </row>
-    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:120" ht="15" customHeight="1">
       <c r="A160" s="36" t="s">
         <v>196</v>
       </c>
@@ -18808,7 +18806,7 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="36" t="s">
         <v>246</v>
       </c>
@@ -18939,7 +18937,7 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="36" t="s">
         <v>266</v>
       </c>
@@ -19070,7 +19068,7 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
@@ -19201,7 +19199,7 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:120" ht="15" customHeight="1">
       <c r="A164" s="36" t="s">
         <v>268</v>
       </c>
@@ -19330,7 +19328,7 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="36" t="s">
         <v>269</v>
       </c>
@@ -19461,7 +19459,7 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
@@ -19592,7 +19590,7 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="36" t="s">
         <v>259</v>
       </c>
@@ -19723,7 +19721,7 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>271</v>
       </c>
@@ -19854,7 +19852,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
@@ -19985,7 +19983,7 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
@@ -20116,7 +20114,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="36" t="s">
         <v>277</v>
       </c>
@@ -20247,7 +20245,7 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>272</v>
       </c>
@@ -20378,7 +20376,7 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>273</v>
       </c>
@@ -20516,11 +20514,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C51:C173)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D51:D173)</f>
-        <v>770780.4</v>
+        <v>0</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20826,11 +20824,6 @@
     <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E173">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A24:G136">
       <sortCondition ref="C5:C136"/>
     </sortState>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2071,16 +2071,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B173" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K181" sqref="K181"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44581</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2138,7 +2138,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>260</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>207</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="DC7" s="14"/>
       <c r="DD7" s="14"/>
     </row>
-    <row r="8" spans="1:120" ht="15" customHeight="1">
+    <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>183</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="DO8" s="15"/>
       <c r="DP8" s="15"/>
     </row>
-    <row r="9" spans="1:120" ht="15" customHeight="1">
+    <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>119</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="DO9" s="15"/>
       <c r="DP9" s="15"/>
     </row>
-    <row r="10" spans="1:120" ht="15" customHeight="1">
+    <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>151</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="DC10" s="14"/>
       <c r="DD10" s="14"/>
     </row>
-    <row r="11" spans="1:120" ht="15" customHeight="1">
+    <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>152</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
     </row>
-    <row r="12" spans="1:120" ht="15" customHeight="1">
+    <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>164</v>
       </c>
@@ -2822,7 +2822,7 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>231</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="15" customHeight="1">
+    <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>237</v>
       </c>
@@ -2909,7 +2909,7 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
@@ -2980,7 +2980,7 @@
       <c r="DC15" s="14"/>
       <c r="DD15" s="14"/>
     </row>
-    <row r="16" spans="1:120" ht="15" customHeight="1">
+    <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>212</v>
       </c>
@@ -3051,7 +3051,7 @@
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
     </row>
-    <row r="17" spans="1:120" ht="15" customHeight="1">
+    <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>222</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>263</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>297</v>
       </c>
@@ -3161,10 +3161,12 @@
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36888</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3232,10 +3234,12 @@
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>80</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85567.2</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3292,7 +3296,7 @@
       <c r="DC21" s="14"/>
       <c r="DD21" s="14"/>
     </row>
-    <row r="22" spans="1:120" ht="15" customHeight="1">
+    <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
@@ -3363,7 +3367,7 @@
       <c r="DC22" s="14"/>
       <c r="DD22" s="14"/>
     </row>
-    <row r="23" spans="1:120" ht="15" customHeight="1">
+    <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>150</v>
       </c>
@@ -3492,7 +3496,7 @@
       <c r="DO23" s="15"/>
       <c r="DP23" s="15"/>
     </row>
-    <row r="24" spans="1:120" ht="15" customHeight="1">
+    <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>123</v>
       </c>
@@ -3621,7 +3625,7 @@
       <c r="DO24" s="15"/>
       <c r="DP24" s="15"/>
     </row>
-    <row r="25" spans="1:120" ht="15" customHeight="1">
+    <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>175</v>
       </c>
@@ -3752,7 +3756,7 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
@@ -3883,7 +3887,7 @@
       <c r="DO26" s="15"/>
       <c r="DP26" s="15"/>
     </row>
-    <row r="27" spans="1:120" ht="15" customHeight="1">
+    <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>211</v>
       </c>
@@ -4014,7 +4018,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>282</v>
       </c>
@@ -4145,7 +4149,7 @@
       <c r="DO28" s="15"/>
       <c r="DP28" s="15"/>
     </row>
-    <row r="29" spans="1:120" ht="15" customHeight="1">
+    <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
@@ -4276,7 +4280,7 @@
       <c r="DO29" s="15"/>
       <c r="DP29" s="15"/>
     </row>
-    <row r="30" spans="1:120" ht="15" customHeight="1">
+    <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>60</v>
       </c>
@@ -4407,7 +4411,7 @@
       <c r="DO30" s="15"/>
       <c r="DP30" s="15"/>
     </row>
-    <row r="31" spans="1:120" ht="15" customHeight="1">
+    <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>210</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="DO31" s="15"/>
       <c r="DP31" s="15"/>
     </row>
-    <row r="32" spans="1:120" ht="15" customHeight="1">
+    <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>142</v>
       </c>
@@ -4667,7 +4671,7 @@
       <c r="DO32" s="15"/>
       <c r="DP32" s="15"/>
     </row>
-    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>186</v>
       </c>
@@ -4729,7 +4733,7 @@
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>
     </row>
-    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>149</v>
       </c>
@@ -4791,7 +4795,7 @@
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
     </row>
-    <row r="35" spans="1:120" ht="15" customHeight="1">
+    <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>185</v>
       </c>
@@ -4920,7 +4924,7 @@
       <c r="DO35" s="15"/>
       <c r="DP35" s="15"/>
     </row>
-    <row r="36" spans="1:120" ht="15" customHeight="1">
+    <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>218</v>
       </c>
@@ -5051,7 +5055,7 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
@@ -5182,7 +5186,7 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
@@ -5320,10 +5324,12 @@
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -5444,7 +5450,7 @@
       <c r="DO39" s="15"/>
       <c r="DP39" s="15"/>
     </row>
-    <row r="40" spans="1:120" ht="15" customHeight="1">
+    <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>116</v>
       </c>
@@ -5573,7 +5579,7 @@
       <c r="DO40" s="15"/>
       <c r="DP40" s="15"/>
     </row>
-    <row r="41" spans="1:120" ht="15" customHeight="1">
+    <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>153</v>
       </c>
@@ -5702,7 +5708,7 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
@@ -5833,7 +5839,7 @@
       <c r="DO42" s="15"/>
       <c r="DP42" s="15"/>
     </row>
-    <row r="43" spans="1:120" ht="15" customHeight="1">
+    <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
@@ -5962,7 +5968,7 @@
       <c r="DO43" s="15"/>
       <c r="DP43" s="15"/>
     </row>
-    <row r="44" spans="1:120" ht="15" customHeight="1">
+    <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>155</v>
       </c>
@@ -6091,7 +6097,7 @@
       <c r="DO44" s="15"/>
       <c r="DP44" s="15"/>
     </row>
-    <row r="45" spans="1:120" ht="15" customHeight="1">
+    <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>221</v>
       </c>
@@ -6220,7 +6226,7 @@
       <c r="DO45" s="15"/>
       <c r="DP45" s="15"/>
     </row>
-    <row r="46" spans="1:120" ht="15" customHeight="1">
+    <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
         <v>154</v>
       </c>
@@ -6349,7 +6355,7 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>238</v>
       </c>
@@ -6411,7 +6417,7 @@
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
         <v>252</v>
       </c>
@@ -6542,7 +6548,7 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>290</v>
       </c>
@@ -6673,7 +6679,7 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>283</v>
       </c>
@@ -6811,10 +6817,12 @@
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>50</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>55384</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -6935,7 +6943,7 @@
       <c r="DO51" s="15"/>
       <c r="DP51" s="15"/>
     </row>
-    <row r="52" spans="1:120" ht="15" customHeight="1">
+    <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
         <v>236</v>
       </c>
@@ -7066,7 +7074,7 @@
       <c r="DO52" s="15"/>
       <c r="DP52" s="15"/>
     </row>
-    <row r="53" spans="1:120" ht="15" customHeight="1">
+    <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
         <v>177</v>
       </c>
@@ -7195,7 +7203,7 @@
       <c r="DO53" s="15"/>
       <c r="DP53" s="15"/>
     </row>
-    <row r="54" spans="1:120" ht="15" customHeight="1">
+    <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
         <v>223</v>
       </c>
@@ -7326,7 +7334,7 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
         <v>242</v>
       </c>
@@ -7457,7 +7465,7 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
@@ -7588,7 +7596,7 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" customHeight="1">
+    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>171</v>
       </c>
@@ -7717,7 +7725,7 @@
       <c r="DO57" s="15"/>
       <c r="DP57" s="15"/>
     </row>
-    <row r="58" spans="1:120" ht="15" customHeight="1">
+    <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="36" t="s">
         <v>115</v>
       </c>
@@ -7846,7 +7854,7 @@
       <c r="DO58" s="15"/>
       <c r="DP58" s="15"/>
     </row>
-    <row r="59" spans="1:120" ht="15" customHeight="1">
+    <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="36" t="s">
         <v>124</v>
       </c>
@@ -7977,7 +7985,7 @@
       <c r="DO59" s="15"/>
       <c r="DP59" s="15"/>
     </row>
-    <row r="60" spans="1:120" ht="15" customHeight="1">
+    <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
         <v>184</v>
       </c>
@@ -8106,7 +8114,7 @@
       <c r="DO60" s="15"/>
       <c r="DP60" s="15"/>
     </row>
-    <row r="61" spans="1:120" ht="15" customHeight="1">
+    <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="36" t="s">
         <v>145</v>
       </c>
@@ -8235,7 +8243,7 @@
       <c r="DO61" s="15"/>
       <c r="DP61" s="15"/>
     </row>
-    <row r="62" spans="1:120" ht="15" customHeight="1">
+    <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="36" t="s">
         <v>140</v>
       </c>
@@ -8364,7 +8372,7 @@
       <c r="DO62" s="15"/>
       <c r="DP62" s="15"/>
     </row>
-    <row r="63" spans="1:120" ht="15" customHeight="1">
+    <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
         <v>247</v>
       </c>
@@ -8495,7 +8503,7 @@
       <c r="DO63" s="15"/>
       <c r="DP63" s="15"/>
     </row>
-    <row r="64" spans="1:120" ht="15" customHeight="1">
+    <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
         <v>169</v>
       </c>
@@ -8624,7 +8632,7 @@
       <c r="DO64" s="15"/>
       <c r="DP64" s="15"/>
     </row>
-    <row r="65" spans="1:120" ht="15" customHeight="1">
+    <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
         <v>168</v>
       </c>
@@ -8753,7 +8761,7 @@
       <c r="DO65" s="15"/>
       <c r="DP65" s="15"/>
     </row>
-    <row r="66" spans="1:120" ht="15" customHeight="1">
+    <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
         <v>201</v>
       </c>
@@ -8882,7 +8890,7 @@
       <c r="DO66" s="15"/>
       <c r="DP66" s="15"/>
     </row>
-    <row r="67" spans="1:120" ht="15" customHeight="1">
+    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
         <v>234</v>
       </c>
@@ -8953,7 +8961,7 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" customHeight="1">
+    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
         <v>284</v>
       </c>
@@ -9024,7 +9032,7 @@
       <c r="DC68" s="14"/>
       <c r="DD68" s="14"/>
     </row>
-    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
         <v>193</v>
       </c>
@@ -9086,7 +9094,7 @@
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
         <v>243</v>
       </c>
@@ -9148,7 +9156,7 @@
       <c r="AZ70" s="25"/>
       <c r="BA70" s="25"/>
     </row>
-    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
         <v>261</v>
       </c>
@@ -9212,7 +9220,7 @@
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
     </row>
-    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
         <v>220</v>
       </c>
@@ -9276,7 +9284,7 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
         <v>292</v>
       </c>
@@ -9340,7 +9348,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9404,7 +9412,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9468,7 +9476,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9530,7 +9538,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9592,7 +9600,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -9654,7 +9662,7 @@
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
     </row>
-    <row r="79" spans="1:120" ht="15" customHeight="1">
+    <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
         <v>213</v>
       </c>
@@ -9785,7 +9793,7 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" customHeight="1">
+    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
         <v>251</v>
       </c>
@@ -9916,7 +9924,7 @@
       <c r="DO80" s="15"/>
       <c r="DP80" s="15"/>
     </row>
-    <row r="81" spans="1:120" ht="15" customHeight="1">
+    <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
         <v>250</v>
       </c>
@@ -10047,7 +10055,7 @@
       <c r="DO81" s="15"/>
       <c r="DP81" s="15"/>
     </row>
-    <row r="82" spans="1:120" ht="15" customHeight="1">
+    <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="37" t="s">
         <v>125</v>
       </c>
@@ -10178,7 +10186,7 @@
       <c r="DO82" s="15"/>
       <c r="DP82" s="15"/>
     </row>
-    <row r="83" spans="1:120" ht="15" customHeight="1">
+    <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
         <v>166</v>
       </c>
@@ -10307,7 +10315,7 @@
       <c r="DO83" s="15"/>
       <c r="DP83" s="15"/>
     </row>
-    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="37" t="s">
         <v>144</v>
       </c>
@@ -10369,7 +10377,7 @@
       <c r="AZ84" s="25"/>
       <c r="BA84" s="25"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
         <v>216</v>
       </c>
@@ -10440,10 +10448,12 @@
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10508,10 +10518,12 @@
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>52244.095999999998</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -10632,7 +10644,7 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>134</v>
       </c>
@@ -10701,7 +10713,7 @@
       <c r="DC88" s="14"/>
       <c r="DD88" s="14"/>
     </row>
-    <row r="89" spans="1:120" ht="15" customHeight="1">
+    <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="37" t="s">
         <v>132</v>
       </c>
@@ -10770,7 +10782,7 @@
       <c r="DC89" s="14"/>
       <c r="DD89" s="14"/>
     </row>
-    <row r="90" spans="1:120" ht="15" customHeight="1">
+    <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="36" t="s">
         <v>143</v>
       </c>
@@ -10901,7 +10913,7 @@
       <c r="DO90" s="15"/>
       <c r="DP90" s="15"/>
     </row>
-    <row r="91" spans="1:120" ht="15" customHeight="1">
+    <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="37" t="s">
         <v>54</v>
       </c>
@@ -11032,7 +11044,7 @@
       <c r="DO91" s="15"/>
       <c r="DP91" s="15"/>
     </row>
-    <row r="92" spans="1:120" ht="15" customHeight="1">
+    <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
         <v>165</v>
       </c>
@@ -11161,7 +11173,7 @@
       <c r="DO92" s="15"/>
       <c r="DP92" s="15"/>
     </row>
-    <row r="93" spans="1:120" ht="15" customHeight="1">
+    <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="36" t="s">
         <v>57</v>
       </c>
@@ -11290,7 +11302,7 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>192</v>
       </c>
@@ -11419,7 +11431,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11483,7 +11495,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11554,10 +11566,12 @@
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>60</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81854.430000000008</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11678,7 +11692,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
@@ -11816,10 +11830,12 @@
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>20</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24501.199999999997</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -11940,7 +11956,7 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" customHeight="1">
+    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>293</v>
       </c>
@@ -12071,7 +12087,7 @@
       <c r="DO100" s="15"/>
       <c r="DP100" s="15"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
         <v>219</v>
       </c>
@@ -12190,7 +12206,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
@@ -12261,10 +12277,12 @@
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>47552.799999999996</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12380,10 +12398,12 @@
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>40</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48194.399999999994</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -12437,7 +12457,7 @@
       <c r="AZ104" s="25"/>
       <c r="BA104" s="25"/>
     </row>
-    <row r="105" spans="1:120" ht="15" customHeight="1">
+    <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="37" t="s">
         <v>128</v>
       </c>
@@ -12568,7 +12588,7 @@
       <c r="DO105" s="15"/>
       <c r="DP105" s="15"/>
     </row>
-    <row r="106" spans="1:120" ht="15" customHeight="1">
+    <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
         <v>191</v>
       </c>
@@ -12699,7 +12719,7 @@
       <c r="DO106" s="15"/>
       <c r="DP106" s="15"/>
     </row>
-    <row r="107" spans="1:120" ht="15" customHeight="1">
+    <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
         <v>156</v>
       </c>
@@ -12828,7 +12848,7 @@
       <c r="DO107" s="15"/>
       <c r="DP107" s="15"/>
     </row>
-    <row r="108" spans="1:120" ht="15" customHeight="1">
+    <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
         <v>172</v>
       </c>
@@ -12957,7 +12977,7 @@
       <c r="DO108" s="15"/>
       <c r="DP108" s="15"/>
     </row>
-    <row r="109" spans="1:120" ht="15" customHeight="1">
+    <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
         <v>179</v>
       </c>
@@ -13088,7 +13108,7 @@
       <c r="DO109" s="15"/>
       <c r="DP109" s="15"/>
     </row>
-    <row r="110" spans="1:120" ht="15" customHeight="1">
+    <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
         <v>161</v>
       </c>
@@ -13217,7 +13237,7 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>248</v>
       </c>
@@ -13288,7 +13308,7 @@
       <c r="DC111" s="14"/>
       <c r="DD111" s="14"/>
     </row>
-    <row r="112" spans="1:120" ht="15" customHeight="1">
+    <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="36" t="s">
         <v>141</v>
       </c>
@@ -13357,7 +13377,7 @@
       <c r="DC112" s="14"/>
       <c r="DD112" s="14"/>
     </row>
-    <row r="113" spans="1:120" ht="15" customHeight="1">
+    <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="36" t="s">
         <v>120</v>
       </c>
@@ -13426,7 +13446,7 @@
       <c r="DC113" s="14"/>
       <c r="DD113" s="14"/>
     </row>
-    <row r="114" spans="1:120" ht="15" customHeight="1">
+    <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="36" t="s">
         <v>129</v>
       </c>
@@ -13555,7 +13575,7 @@
       <c r="DO114" s="15"/>
       <c r="DP114" s="15"/>
     </row>
-    <row r="115" spans="1:120" ht="15" customHeight="1">
+    <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="36" t="s">
         <v>137</v>
       </c>
@@ -13684,7 +13704,7 @@
       <c r="DO115" s="15"/>
       <c r="DP115" s="15"/>
     </row>
-    <row r="116" spans="1:120" ht="15" customHeight="1">
+    <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
         <v>194</v>
       </c>
@@ -13815,7 +13835,7 @@
       <c r="DO116" s="15"/>
       <c r="DP116" s="15"/>
     </row>
-    <row r="117" spans="1:120" ht="15" customHeight="1">
+    <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="36" t="s">
         <v>121</v>
       </c>
@@ -13944,7 +13964,7 @@
       <c r="DO117" s="15"/>
       <c r="DP117" s="15"/>
     </row>
-    <row r="118" spans="1:120" ht="15" customHeight="1">
+    <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="36" t="s">
         <v>92</v>
       </c>
@@ -14075,7 +14095,7 @@
       <c r="DO118" s="15"/>
       <c r="DP118" s="15"/>
     </row>
-    <row r="119" spans="1:120" ht="15" customHeight="1">
+    <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="36" t="s">
         <v>94</v>
       </c>
@@ -14204,7 +14224,7 @@
       <c r="DO119" s="15"/>
       <c r="DP119" s="15"/>
     </row>
-    <row r="120" spans="1:120" ht="15" customHeight="1">
+    <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="36" t="s">
         <v>93</v>
       </c>
@@ -14333,7 +14353,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
@@ -14464,7 +14484,7 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>215</v>
       </c>
@@ -14593,7 +14613,7 @@
       <c r="DO122" s="15"/>
       <c r="DP122" s="15"/>
     </row>
-    <row r="123" spans="1:120" ht="15" customHeight="1">
+    <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="37" t="s">
         <v>74</v>
       </c>
@@ -14722,7 +14742,7 @@
       <c r="DO123" s="15"/>
       <c r="DP123" s="15"/>
     </row>
-    <row r="124" spans="1:120" ht="15" customHeight="1">
+    <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="37" t="s">
         <v>138</v>
       </c>
@@ -14791,7 +14811,7 @@
       <c r="DC124" s="14"/>
       <c r="DD124" s="14"/>
     </row>
-    <row r="125" spans="1:120" ht="15" customHeight="1">
+    <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="37" t="s">
         <v>75</v>
       </c>
@@ -14920,7 +14940,7 @@
       <c r="DO125" s="15"/>
       <c r="DP125" s="15"/>
     </row>
-    <row r="126" spans="1:120" ht="15" customHeight="1">
+    <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="37" t="s">
         <v>131</v>
       </c>
@@ -15049,7 +15069,7 @@
       <c r="DO126" s="15"/>
       <c r="DP126" s="15"/>
     </row>
-    <row r="127" spans="1:120" ht="15" customHeight="1">
+    <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
         <v>178</v>
       </c>
@@ -15180,7 +15200,7 @@
       <c r="DO127" s="15"/>
       <c r="DP127" s="15"/>
     </row>
-    <row r="128" spans="1:120" ht="15" customHeight="1">
+    <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
         <v>182</v>
       </c>
@@ -15311,7 +15331,7 @@
       <c r="DO128" s="15"/>
       <c r="DP128" s="15"/>
     </row>
-    <row r="129" spans="1:120" ht="15" customHeight="1">
+    <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
         <v>241</v>
       </c>
@@ -15440,7 +15460,7 @@
       <c r="DO129" s="15"/>
       <c r="DP129" s="15"/>
     </row>
-    <row r="130" spans="1:120" ht="15" customHeight="1">
+    <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="36" t="s">
         <v>118</v>
       </c>
@@ -15569,7 +15589,7 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="36" t="s">
         <v>135</v>
       </c>
@@ -15698,7 +15718,7 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>257</v>
       </c>
@@ -15829,7 +15849,7 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" customHeight="1">
+    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
         <v>227</v>
       </c>
@@ -15960,7 +15980,7 @@
       <c r="DO133" s="15"/>
       <c r="DP133" s="15"/>
     </row>
-    <row r="134" spans="1:120" ht="15" customHeight="1">
+    <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
         <v>226</v>
       </c>
@@ -16091,7 +16111,7 @@
       <c r="DO134" s="15"/>
       <c r="DP134" s="15"/>
     </row>
-    <row r="135" spans="1:120" ht="15" customHeight="1">
+    <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
         <v>189</v>
       </c>
@@ -16222,7 +16242,7 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>302</v>
       </c>
@@ -16351,7 +16371,7 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" customHeight="1">
+    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
         <v>167</v>
       </c>
@@ -16480,7 +16500,7 @@
       <c r="DO137" s="15"/>
       <c r="DP137" s="15"/>
     </row>
-    <row r="138" spans="1:120" ht="15" customHeight="1">
+    <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
         <v>157</v>
       </c>
@@ -16609,7 +16629,7 @@
       <c r="DO138" s="15"/>
       <c r="DP138" s="15"/>
     </row>
-    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
         <v>205</v>
       </c>
@@ -16673,7 +16693,7 @@
       <c r="AZ139" s="25"/>
       <c r="BA139" s="25"/>
     </row>
-    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
         <v>188</v>
       </c>
@@ -16735,7 +16755,7 @@
       <c r="AZ140" s="25"/>
       <c r="BA140" s="25"/>
     </row>
-    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
         <v>174</v>
       </c>
@@ -16797,7 +16817,7 @@
       <c r="AZ141" s="25"/>
       <c r="BA141" s="25"/>
     </row>
-    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
         <v>170</v>
       </c>
@@ -16859,7 +16879,7 @@
       <c r="AZ142" s="25"/>
       <c r="BA142" s="25"/>
     </row>
-    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
         <v>176</v>
       </c>
@@ -16921,7 +16941,7 @@
       <c r="AZ143" s="25"/>
       <c r="BA143" s="25"/>
     </row>
-    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="37" t="s">
         <v>122</v>
       </c>
@@ -16985,7 +17005,7 @@
       <c r="AZ144" s="25"/>
       <c r="BA144" s="25"/>
     </row>
-    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
         <v>163</v>
       </c>
@@ -17047,7 +17067,7 @@
       <c r="AZ145" s="25"/>
       <c r="BA145" s="25"/>
     </row>
-    <row r="146" spans="1:120" ht="15" customHeight="1">
+    <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
         <v>208</v>
       </c>
@@ -17178,7 +17198,7 @@
       <c r="DO146" s="15"/>
       <c r="DP146" s="15"/>
     </row>
-    <row r="147" spans="1:120" ht="15" customHeight="1">
+    <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
         <v>181</v>
       </c>
@@ -17309,7 +17329,7 @@
       <c r="DO147" s="15"/>
       <c r="DP147" s="15"/>
     </row>
-    <row r="148" spans="1:120" ht="15" customHeight="1">
+    <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
         <v>148</v>
       </c>
@@ -17438,7 +17458,7 @@
       <c r="DO148" s="15"/>
       <c r="DP148" s="15"/>
     </row>
-    <row r="149" spans="1:120" ht="15" customHeight="1">
+    <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="37" t="s">
         <v>127</v>
       </c>
@@ -17569,7 +17589,7 @@
       <c r="DO149" s="15"/>
       <c r="DP149" s="15"/>
     </row>
-    <row r="150" spans="1:120" ht="15" customHeight="1">
+    <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
         <v>158</v>
       </c>
@@ -17698,7 +17718,7 @@
       <c r="DO150" s="15"/>
       <c r="DP150" s="15"/>
     </row>
-    <row r="151" spans="1:120" ht="15" customHeight="1">
+    <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
         <v>180</v>
       </c>
@@ -17829,7 +17849,7 @@
       <c r="DO151" s="15"/>
       <c r="DP151" s="15"/>
     </row>
-    <row r="152" spans="1:120" ht="15" customHeight="1">
+    <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="37" t="s">
         <v>139</v>
       </c>
@@ -17960,7 +17980,7 @@
       <c r="DO152" s="15"/>
       <c r="DP152" s="15"/>
     </row>
-    <row r="153" spans="1:120" ht="15" customHeight="1">
+    <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
         <v>159</v>
       </c>
@@ -18089,7 +18109,7 @@
       <c r="DO153" s="15"/>
       <c r="DP153" s="15"/>
     </row>
-    <row r="154" spans="1:120" ht="15" customHeight="1">
+    <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
         <v>187</v>
       </c>
@@ -18218,7 +18238,7 @@
       <c r="DO154" s="15"/>
       <c r="DP154" s="15"/>
     </row>
-    <row r="155" spans="1:120" ht="15" customHeight="1">
+    <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
         <v>173</v>
       </c>
@@ -18349,7 +18369,7 @@
       <c r="DO155" s="15"/>
       <c r="DP155" s="15"/>
     </row>
-    <row r="156" spans="1:120" ht="15" customHeight="1">
+    <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
         <v>217</v>
       </c>
@@ -18480,7 +18500,7 @@
       <c r="DO156" s="15"/>
       <c r="DP156" s="15"/>
     </row>
-    <row r="157" spans="1:120" ht="15" customHeight="1">
+    <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
         <v>245</v>
       </c>
@@ -18551,7 +18571,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18613,7 +18633,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -18677,7 +18697,7 @@
       <c r="AZ159" s="25"/>
       <c r="BA159" s="25"/>
     </row>
-    <row r="160" spans="1:120" ht="15" customHeight="1">
+    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
         <v>196</v>
       </c>
@@ -18806,7 +18826,7 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
         <v>246</v>
       </c>
@@ -18937,7 +18957,7 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
         <v>266</v>
       </c>
@@ -19075,13 +19095,15 @@
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>7</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>52416.91</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19199,7 +19221,7 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" customHeight="1">
+    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
         <v>268</v>
       </c>
@@ -19328,7 +19350,7 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
         <v>269</v>
       </c>
@@ -19459,7 +19481,7 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
@@ -19590,7 +19612,7 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
         <v>259</v>
       </c>
@@ -19721,7 +19743,7 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>271</v>
       </c>
@@ -19852,7 +19874,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
@@ -19983,17 +20005,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>30</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>271695.3</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20114,7 +20138,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
         <v>277</v>
       </c>
@@ -20245,7 +20269,7 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>272</v>
       </c>
@@ -20376,7 +20400,7 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>273</v>
       </c>
@@ -20513,12 +20537,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C51:C173)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>447</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D51:D173)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>805996.32600000012</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20792,7 +20816,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>450000</v>
+        <v>1000000</v>
       </c>
       <c r="D180" s="48"/>
       <c r="E180" s="22" t="s">
@@ -20815,7 +20839,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>450000</v>
+        <v>1000000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>
@@ -20824,6 +20848,11 @@
     <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E173">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A24:G136">
       <sortCondition ref="C5:C136"/>
     </sortState>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2080,7 +2080,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44584</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3154,19 +3154,17 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>40</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>36888</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3227,19 +3225,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>80</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>85567.2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3756,17 +3752,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
-        <v>1069.5899999999999</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1001.5</v>
+      </c>
+      <c r="C26" s="17">
+        <v>500</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>500750</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5055,17 +5053,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
-        <v>1178.8</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>1148.8</v>
+      </c>
+      <c r="C37" s="17">
+        <v>160</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>183808</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5317,19 +5317,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -6810,19 +6808,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>50</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>55384</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -9348,7 +9344,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9412,7 +9408,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9476,7 +9472,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9538,7 +9534,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9600,7 +9596,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -10441,19 +10437,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10511,19 +10505,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>40</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>52244.095999999998</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11431,7 +11423,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11495,7 +11487,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11559,19 +11551,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>60</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>81854.430000000008</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11823,19 +11813,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>20</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>24501.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12270,19 +12258,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>47552.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12391,19 +12377,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>40</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>48194.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -18571,7 +18555,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18633,7 +18617,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19088,19 +19072,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>7</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>52416.91</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -20005,19 +19987,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>30</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>271695.3</v>
+        <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20538,11 +20518,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C20:C173)</f>
-        <v>447</v>
+        <v>660</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D20:D173)</f>
-        <v>805996.32600000012</v>
+        <v>684558</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20816,7 +20796,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="D180" s="48"/>
       <c r="E180" s="22" t="s">
@@ -20828,7 +20808,7 @@
         <v>298</v>
       </c>
       <c r="C181" s="47">
-        <v>0</v>
+        <v>81000</v>
       </c>
       <c r="D181" s="48"/>
       <c r="E181" s="22"/>
@@ -20839,7 +20819,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>1000000</v>
+        <v>681000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2080,7 +2080,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44585</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3760,11 +3760,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>500750</v>
+        <v>140210</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5053,19 +5053,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
-        <v>1148.8</v>
+        <v>1168.83</v>
       </c>
       <c r="C37" s="17">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>183808</v>
+        <v>116883</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5317,17 +5317,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -6808,17 +6810,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>20</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22153.600000000002</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -9344,7 +9348,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9408,7 +9412,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9472,7 +9476,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9534,7 +9538,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9596,7 +9600,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -10437,17 +10441,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10505,17 +10511,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11423,7 +11431,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11487,7 +11495,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11682,17 +11690,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -14337,17 +14347,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>30</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>41709</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -18555,7 +18567,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18617,7 +18629,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19072,17 +19084,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>15</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>112321.95</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -20517,12 +20531,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>660</v>
+        <f>SUBTOTAL(9,C26:C173)</f>
+        <v>425</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>684558</v>
+        <f>SUBTOTAL(9,D26:D173)</f>
+        <v>593297.38799999992</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20807,9 +20821,7 @@
       <c r="B181" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="C181" s="47">
-        <v>81000</v>
-      </c>
+      <c r="C181" s="47"/>
       <c r="D181" s="48"/>
       <c r="E181" s="22"/>
     </row>
@@ -20819,7 +20831,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>681000</v>
+        <v>600000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -2080,7 +2080,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L174" sqref="L174"/>
+      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44586</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2209,17 +2209,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>30</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>211702.80000000002</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -3225,17 +3227,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>60</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64175.399999999994</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3752,19 +3756,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>140</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>140210</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5053,19 +5055,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>116883</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5317,19 +5317,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -6810,7 +6808,7 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
@@ -6818,11 +6816,11 @@
         <v>1107.68</v>
       </c>
       <c r="C51" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>22153.600000000002</v>
+        <v>33230.400000000001</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -9348,7 +9346,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9412,7 +9410,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9476,7 +9474,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9538,7 +9536,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9600,7 +9598,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -10441,19 +10439,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10511,19 +10507,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11431,7 +11425,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11495,7 +11489,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11690,19 +11684,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>84199.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -12387,7 +12379,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
@@ -14347,19 +14339,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>30</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>41709</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -18567,7 +18557,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18629,7 +18619,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19084,19 +19074,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>15</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>112321.95</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -20531,12 +20519,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C26:C173)</f>
-        <v>425</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>120</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D26:D173)</f>
-        <v>593297.38799999992</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>309108.60000000003</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20810,9 +20798,11 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>600000</v>
-      </c>
-      <c r="D180" s="48"/>
+        <v>400000</v>
+      </c>
+      <c r="D180" s="48" t="s">
+        <v>133</v>
+      </c>
       <c r="E180" s="22" t="s">
         <v>133</v>
       </c>
@@ -20831,7 +20821,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>V138</t>
+  </si>
+  <si>
+    <t>Blue Only</t>
   </si>
 </sst>
 </file>
@@ -2077,10 +2080,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2117,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2209,19 +2212,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>30</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>211702.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -3156,17 +3157,19 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92220</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3235,11 +3238,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>64175.399999999994</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3756,17 +3759,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>200</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200300</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5055,17 +5060,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>140</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163636.19999999998</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5186,17 +5193,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>80</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>93582.88</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5706,17 +5715,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>56895.200000000004</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>288</v>
@@ -6808,7 +6819,7 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
@@ -6816,11 +6827,11 @@
         <v>1107.68</v>
       </c>
       <c r="C51" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>33230.400000000001</v>
+        <v>22153.600000000002</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -7463,17 +7474,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>17</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>80005.06</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>295</v>
@@ -9346,7 +9359,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9410,7 +9423,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9474,7 +9487,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9536,7 +9549,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9598,7 +9611,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -10439,17 +10452,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10507,17 +10522,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>100</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11425,7 +11442,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11489,7 +11506,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11684,17 +11701,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56133.2</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11815,17 +11834,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>60</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>73503.599999999991</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12196,17 +12217,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12260,17 +12283,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>60</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12379,17 +12404,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>60</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>72291.599999999991</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14339,17 +14366,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -18557,7 +18586,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18619,7 +18648,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19074,17 +19103,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>5</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>37440.65</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -19858,20 +19889,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>40</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
-      </c>
-      <c r="E169" s="65" t="s">
-        <v>249</v>
+        <v>332806</v>
+      </c>
+      <c r="E169" s="66" t="s">
+        <v>303</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19989,17 +20022,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>5</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>45282.55</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20519,12 +20554,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>120</v>
+        <f>SUBTOTAL(9,C20:C173)</f>
+        <v>1387</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>309108.60000000003</v>
+        <f>SUBTOTAL(9,D20:D173)</f>
+        <v>2001489.1500000001</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20798,7 +20833,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20821,7 +20856,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2080,10 +2080,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
+      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44588</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2212,17 +2212,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -3165,11 +3167,11 @@
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92220</v>
+        <v>55332</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3230,19 +3232,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>300</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3767,11 +3767,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>200300</v>
+        <v>60090</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5068,11 +5068,11 @@
         <v>1168.83</v>
       </c>
       <c r="C37" s="17">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>163636.19999999998</v>
+        <v>116883</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5193,19 +5193,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>80</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>93582.88</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5715,19 +5713,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>56895.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>288</v>
@@ -6819,19 +6815,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>20</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>22153.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -7474,19 +7468,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>17</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>80005.06</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>295</v>
@@ -10452,19 +10444,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10522,19 +10512,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11701,19 +11689,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>56133.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11834,19 +11820,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>60</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>73503.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12217,19 +12201,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12283,19 +12265,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>60</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12404,19 +12384,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>60</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>72291.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14366,19 +14344,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -19103,19 +19079,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>5</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>37440.65</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -19889,7 +19863,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
@@ -19897,11 +19871,11 @@
         <v>8320.15</v>
       </c>
       <c r="C169" s="17">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>332806</v>
+        <v>124802.25</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>303</v>
@@ -20022,19 +19996,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>5</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>45282.55</v>
+        <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20554,12 +20526,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C20:C173)</f>
-        <v>1387</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>255</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D20:D173)</f>
-        <v>2001489.1500000001</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>498242.45</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20833,7 +20805,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20856,7 +20828,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H179" sqref="H179"/>
+      <selection pane="bottomRight" activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44591</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2212,19 +2212,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>20</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -2914,17 +2912,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>200</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186452</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3167,11 +3167,11 @@
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>55332</v>
+        <v>276660</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3232,17 +3232,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>300</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3767,11 +3769,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>60090</v>
+        <v>80120</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5060,19 +5062,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>116883</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5193,17 +5193,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5324,17 +5326,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -5713,17 +5717,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>80</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>113790.40000000001</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>288</v>
@@ -6815,17 +6821,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>40</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44307.200000000004</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -7468,17 +7476,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>10</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>295</v>
@@ -10444,17 +10454,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>140</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>177381.33</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10512,17 +10524,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>170</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>222037.408</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11689,17 +11703,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>80</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>112266.4</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11820,17 +11836,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>140</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171508.4</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12201,17 +12219,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12265,17 +12285,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>80</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>95105.599999999991</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12384,17 +12406,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>140</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>168680.4</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14344,17 +14368,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -19079,17 +19105,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>20</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>149762.6</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -19863,7 +19891,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
@@ -19871,11 +19899,11 @@
         <v>8320.15</v>
       </c>
       <c r="C169" s="17">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>124802.25</v>
+        <v>332806</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>303</v>
@@ -19996,17 +20024,19 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17"/>
+      <c r="C170" s="17">
+        <v>100</v>
+      </c>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>905651</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20526,12 +20556,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>255</v>
+        <f>SUBTOTAL(9,C15:C173)</f>
+        <v>2080</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>498242.45</v>
+        <f>SUBTOTAL(9,D15:D173)</f>
+        <v>3597907.7380000004</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20805,7 +20835,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>1500000</v>
+        <v>1600000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20828,7 +20858,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>1500000</v>
+        <v>1600000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L98" sqref="L98"/>
+      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44592</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,19 +2912,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>200</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>186452</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3159,19 +3157,17 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>300</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>276660</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3232,19 +3228,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>300</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3761,19 +3755,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>80</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>80120</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5193,19 +5185,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5326,19 +5316,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -5717,19 +5705,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>80</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>113790.40000000001</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>288</v>
@@ -6821,19 +6807,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>40</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>44307.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -7476,19 +7460,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>10</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>295</v>
@@ -10454,19 +10436,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>140</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>177381.33</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10524,19 +10504,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>170</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>222037.408</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11572,17 +11550,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>50</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>68212.025000000009</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11703,19 +11683,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>80</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>112266.4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11836,19 +11814,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>140</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>171508.4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12219,19 +12195,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12285,19 +12259,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>80</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>95105.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12406,19 +12378,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>140</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>168680.4</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14368,19 +14338,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -18588,7 +18556,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18650,7 +18618,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19105,19 +19073,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>20</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>149762.6</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -19891,19 +19857,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>287</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>40</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>332806</v>
+        <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>303</v>
@@ -20024,19 +19988,17 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
       </c>
-      <c r="C170" s="17">
-        <v>100</v>
-      </c>
+      <c r="C170" s="17"/>
       <c r="D170" s="18">
         <f t="shared" si="6"/>
-        <v>905651</v>
+        <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
         <v>249</v>
@@ -20557,11 +20519,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>2080</v>
+        <v>50</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>3597907.7380000004</v>
+        <v>68212.025000000009</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20835,7 +20797,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>1600000</v>
+        <v>250000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20858,7 +20820,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>1600000</v>
+        <v>250000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomRight" activeCell="I182" sqref="I182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44594</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,17 +2912,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>228</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>212555.28</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -9343,7 +9345,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9407,7 +9409,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9471,7 +9473,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9533,7 +9535,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9595,7 +9597,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -11422,7 +11424,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11486,7 +11488,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11550,19 +11552,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>50</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>68212.025000000009</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -20519,11 +20519,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>68212.025000000009</v>
+        <v>212555.28</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20797,7 +20797,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20820,7 +20820,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I182" sqref="I182"/>
+      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44595</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,7 +2912,7 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>300</v>
       </c>
@@ -2920,11 +2920,11 @@
         <v>932.26</v>
       </c>
       <c r="C15" s="17">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>212555.28</v>
+        <v>158484.20000000001</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -9345,7 +9345,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>228</v>
       </c>
@@ -9409,7 +9409,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>162</v>
       </c>
@@ -9473,7 +9473,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>136</v>
       </c>
@@ -9535,7 +9535,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>146</v>
       </c>
@@ -9597,7 +9597,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>190</v>
       </c>
@@ -11424,7 +11424,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>225</v>
       </c>
@@ -11488,7 +11488,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>160</v>
       </c>
@@ -11552,17 +11552,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>70</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>95496.835000000006</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -20519,11 +20521,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>212555.28</v>
+        <v>253981.03500000003</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20797,7 +20799,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20820,7 +20822,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>300000</v>
+        <v>250000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I181" sqref="I181"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44599</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2920,11 +2920,11 @@
         <v>932.26</v>
       </c>
       <c r="C15" s="17">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>158484.20000000001</v>
+        <v>93226</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -7462,17 +7462,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>280</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>10</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>295</v>
@@ -11552,19 +11554,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>70</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>95496.835000000006</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -12380,17 +12380,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A104" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>50</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>60242.999999999993</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -20521,11 +20523,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>253981.03500000003</v>
+        <v>200530.8</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20799,7 +20801,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20822,7 +20824,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -844,9 +844,6 @@
     <t>Z40</t>
   </si>
   <si>
-    <t>Z50</t>
-  </si>
-  <si>
     <t>ATOM2</t>
   </si>
   <si>
@@ -935,6 +932,9 @@
   </si>
   <si>
     <t>Blue Only</t>
+  </si>
+  <si>
+    <t>Z45</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2112,7 +2112,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="76" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="77"/>
       <c r="D2" s="34" t="s">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44600</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
@@ -2912,19 +2912,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>93226</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3145,7 +3143,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3161,7 +3159,7 @@
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
@@ -3757,17 +3755,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40060</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -4021,7 +4021,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5707,20 +5707,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6549,7 +6551,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
@@ -6680,7 +6682,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
@@ -7462,22 +7464,20 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>10</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -8962,7 +8962,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9285,7 +9285,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -11818,7 +11818,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12199,7 +12199,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
@@ -12380,19 +12380,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
       <c r="C104" s="17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>60242.999999999993</v>
+        <v>36145.799999999996</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14344,7 +14344,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
@@ -16233,7 +16233,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -18560,7 +18560,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18622,7 +18622,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19079,7 +19079,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19481,7 +19481,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19612,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19863,7 +19863,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -19994,7 +19994,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20125,7 +20125,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20267,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20385,17 +20385,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="B173" s="69">
-        <v>10133.07</v>
-      </c>
-      <c r="C173" s="70"/>
+        <v>9317.56</v>
+      </c>
+      <c r="C173" s="70">
+        <v>130</v>
+      </c>
       <c r="D173" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1211282.8</v>
       </c>
       <c r="E173" s="72" t="s">
         <v>249</v>
@@ -20523,11 +20525,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>160</v>
+        <v>220</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>200530.8</v>
+        <v>1315936.2</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20801,7 +20803,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20812,7 +20814,7 @@
     </row>
     <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C181" s="47"/>
       <c r="D181" s="48"/>
@@ -20820,11 +20822,11 @@
     </row>
     <row r="182" spans="2:5" ht="19.5" thickBot="1">
       <c r="B182" s="49" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>700000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I187" sqref="I187"/>
+      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44602</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3755,19 +3755,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>40</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>40060</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5707,19 +5705,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -12380,19 +12376,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>30</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>36145.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -20393,11 +20387,11 @@
         <v>9317.56</v>
       </c>
       <c r="C173" s="70">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="D173" s="71">
         <f t="shared" si="6"/>
-        <v>1211282.8</v>
+        <v>93175.599999999991</v>
       </c>
       <c r="E173" s="72" t="s">
         <v>249</v>
@@ -20525,11 +20519,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>1315936.2</v>
+        <v>93175.599999999991</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F184" sqref="F184"/>
+      <selection pane="bottomRight" activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44605</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,17 +2912,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93226</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -5705,17 +5707,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>28447.600000000002</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -11550,17 +11554,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>50</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>68212.025000000009</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -18554,7 +18560,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18616,7 +18622,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -20379,19 +20385,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>303</v>
       </c>
       <c r="B173" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C173" s="70">
-        <v>10</v>
-      </c>
+      <c r="C173" s="70"/>
       <c r="D173" s="71">
         <f t="shared" si="6"/>
-        <v>93175.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E173" s="72" t="s">
         <v>249</v>
@@ -20519,11 +20523,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>93175.599999999991</v>
+        <v>189885.625</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20797,7 +20801,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20820,7 +20824,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>700000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -931,10 +931,10 @@
     <t>V138</t>
   </si>
   <si>
-    <t>Blue Only</t>
-  </si>
-  <si>
     <t>Z45</t>
+  </si>
+  <si>
+    <t>Blue &amp; Green Only</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F187" sqref="F187"/>
+      <selection pane="bottomRight" activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44607</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,19 +2912,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>93226</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -5707,19 +5705,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>28447.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -11554,19 +11550,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>50</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>68212.025000000009</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -18560,7 +18554,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18622,7 +18616,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19468,17 +19462,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>20</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>181330.80000000002</v>
       </c>
       <c r="E166" s="66" t="s">
         <v>284</v>
@@ -19861,20 +19857,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>60</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>499209</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20387,7 +20385,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B173" s="69">
         <v>9317.56</v>
@@ -20523,11 +20521,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>189885.625</v>
+        <v>680539.8</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20801,7 +20799,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20824,7 +20822,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F183" sqref="F183"/>
+      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44608</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,17 +2912,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>160</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>149161.60000000001</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3755,17 +3757,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100150</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5316,17 +5320,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -5705,17 +5711,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -10504,17 +10512,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11550,17 +11560,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>40</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -19071,17 +19083,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>5</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>37440.65</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>249</v>
@@ -19462,19 +19476,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17">
-        <v>20</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>181330.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
         <v>284</v>
@@ -19857,19 +19869,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>60</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>499209</v>
+        <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>303</v>
@@ -20521,11 +20531,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C15:C173)</f>
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D15:D173)</f>
-        <v>680539.8</v>
+        <v>477144.51800000004</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>Blue &amp; Green Only</t>
+  </si>
+  <si>
+    <t>Royel Blue, Mint Green</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2086,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J180" sqref="J180"/>
+      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44609</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2912,19 +2915,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>160</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>149161.60000000001</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3757,19 +3758,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>100150</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5189,17 +5188,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>46791.44</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5320,19 +5321,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>249</v>
@@ -5711,19 +5710,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -10444,17 +10441,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10512,19 +10511,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11560,19 +11557,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -12205,17 +12200,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -19091,14 +19088,14 @@
         <v>7488.13</v>
       </c>
       <c r="C163" s="17">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>37440.65</v>
-      </c>
-      <c r="E163" s="65" t="s">
-        <v>249</v>
+        <v>112321.95</v>
+      </c>
+      <c r="E163" s="66" t="s">
+        <v>304</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -20530,12 +20527,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C15:C173)</f>
-        <v>405</v>
+        <f>SUBTOTAL(9,C38:C173)</f>
+        <v>95</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D15:D173)</f>
-        <v>477144.51800000004</v>
+        <f>SUBTOTAL(9,D38:D173)</f>
+        <v>208751.38</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20809,7 +20806,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20832,7 +20829,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2086,7 +2086,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
+      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44614</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2215,17 +2215,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>273</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>20</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>141135.20000000001</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -5188,19 +5190,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>46791.44</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -10449,11 +10449,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>101360.76</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10511,17 +10511,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>100</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11557,17 +11559,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>100</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>136424.05000000002</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11688,17 +11692,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>100</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>140333</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -12200,19 +12206,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12266,17 +12270,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>60</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>71329.2</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -16234,17 +16240,19 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>7</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>41503.56</v>
       </c>
       <c r="E136" s="67"/>
       <c r="F136" s="26"/>
@@ -19080,7 +19088,7 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
@@ -19088,11 +19096,11 @@
         <v>7488.13</v>
       </c>
       <c r="C163" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>112321.95</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -19473,17 +19481,19 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17"/>
+      <c r="C166" s="17">
+        <v>25</v>
+      </c>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>226663.50000000003</v>
       </c>
       <c r="E166" s="66" t="s">
         <v>284</v>
@@ -19604,17 +19614,19 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A167" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17"/>
+      <c r="C167" s="17">
+        <v>25</v>
+      </c>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>0</v>
+        <v>246836.25000000003</v>
       </c>
       <c r="E167" s="66" t="s">
         <v>284</v>
@@ -20527,12 +20539,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C38:C173)</f>
-        <v>95</v>
+        <f>SUBTOTAL(9,C6:C173)</f>
+        <v>527</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D38:D173)</f>
-        <v>208751.38</v>
+        <f>SUBTOTAL(9,D6:D173)</f>
+        <v>1311077.06</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20806,7 +20818,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>450000</v>
+        <v>600000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20829,7 +20841,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>450000</v>
+        <v>600000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2086,7 +2086,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G179" sqref="G179"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44616</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2223,11 +2223,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>141135.20000000001</v>
+        <v>352838</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -2917,17 +2917,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>300</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>279678</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3162,17 +3164,19 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92220</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3233,17 +3237,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>300</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3760,17 +3766,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>200</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200300</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5059,17 +5067,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>100</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>116883</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5190,17 +5200,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5710,17 +5722,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>100</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>142238</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -6812,17 +6826,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>40</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44307.200000000004</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -10449,11 +10465,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>101360.76</v>
+        <v>76020.569999999992</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10519,11 +10535,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11567,11 +11583,11 @@
         <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>136424.05000000002</v>
+        <v>54569.62</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11700,11 +11716,11 @@
         <v>1403.33</v>
       </c>
       <c r="C98" s="17">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>140333</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11825,17 +11841,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>120</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>147007.19999999998</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12206,17 +12224,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>40</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12391,17 +12411,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>80</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>96388.799999999988</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -16240,19 +16262,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>7</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>41503.56</v>
+        <v>0</v>
       </c>
       <c r="E136" s="67"/>
       <c r="F136" s="26"/>
@@ -19088,7 +19108,7 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
@@ -19096,11 +19116,11 @@
         <v>7488.13</v>
       </c>
       <c r="C163" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
+        <v>149762.6</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -19481,19 +19501,17 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
       </c>
-      <c r="C166" s="17">
-        <v>25</v>
-      </c>
+      <c r="C166" s="17"/>
       <c r="D166" s="18">
         <f t="shared" si="5"/>
-        <v>226663.50000000003</v>
+        <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
         <v>284</v>
@@ -19614,19 +19632,17 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
         <v>259</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
-      <c r="C167" s="17">
-        <v>25</v>
-      </c>
+      <c r="C167" s="17"/>
       <c r="D167" s="18">
         <f t="shared" ref="D167:D173" si="6">B167*C167</f>
-        <v>246836.25000000003</v>
+        <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
         <v>284</v>
@@ -20540,11 +20556,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>527</v>
+        <v>1830</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>1311077.06</v>
+        <v>2472559.3340000007</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2086,7 +2086,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2215,19 +2215,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>273</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>50</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>352838</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -2925,11 +2923,11 @@
         <v>932.26</v>
       </c>
       <c r="C15" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>279678</v>
+        <v>186452</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3245,11 +3243,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>213917.99999999997</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3774,11 +3772,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>200300</v>
+        <v>100150</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5075,11 +5073,11 @@
         <v>1168.83</v>
       </c>
       <c r="C37" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>116883</v>
+        <v>46753.2</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5208,11 +5206,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>46791.44</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5722,19 +5720,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -6826,19 +6822,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>40</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>44307.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -10465,11 +10459,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76020.569999999992</v>
+        <v>25340.19</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10535,11 +10529,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11583,11 +11577,11 @@
         <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>54569.62</v>
+        <v>40927.215000000004</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11708,7 +11702,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
@@ -11716,11 +11710,11 @@
         <v>1403.33</v>
       </c>
       <c r="C98" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>84199.799999999988</v>
+        <v>28066.6</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11841,19 +11835,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>120</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>147007.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12224,19 +12216,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>40</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12290,19 +12280,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>60</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>71329.2</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12411,19 +12399,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>80</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>96388.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -18591,7 +18577,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18653,7 +18639,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19108,19 +19094,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>20</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>149762.6</v>
+        <v>0</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -20556,11 +20540,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>1830</v>
+        <v>770</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>2472559.3340000007</v>
+        <v>806740.69299999974</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20834,7 +20818,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20857,7 +20841,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -2083,10 +2083,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I38" sqref="I38"/>
+      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44619</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2215,17 +2215,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>273</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>60</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>423405.60000000003</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -2915,19 +2917,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>200</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>186452</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3243,11 +3243,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>213917.99999999997</v>
+        <v>427835.99999999994</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3764,19 +3764,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>100150</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5073,11 +5071,11 @@
         <v>1168.83</v>
       </c>
       <c r="C37" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>46753.2</v>
+        <v>116883</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5206,11 +5204,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>46791.44</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5720,17 +5718,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>140</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>199133.2</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -6822,17 +6822,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>60</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66460.800000000003</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -10459,11 +10461,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25340.19</v>
+        <v>126700.94999999998</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10529,11 +10531,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>156732.288</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11577,11 +11579,11 @@
         <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>40927.215000000004</v>
+        <v>81854.430000000008</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11702,7 +11704,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
@@ -11710,11 +11712,11 @@
         <v>1403.33</v>
       </c>
       <c r="C98" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>28066.6</v>
+        <v>112266.4</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11835,17 +11837,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>295</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>140</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171508.4</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12216,17 +12220,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72893.400000000009</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12280,17 +12286,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>100</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>118882</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12399,17 +12407,19 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17"/>
+      <c r="C104" s="17">
+        <v>100</v>
+      </c>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120485.99999999999</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14359,17 +14369,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -15724,17 +15736,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>257</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>249</v>
@@ -16248,19 +16262,23 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>20</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="67"/>
+        <v>118581.6</v>
+      </c>
+      <c r="E136" s="67" t="s">
+        <v>249</v>
+      </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
@@ -18577,7 +18595,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18639,7 +18657,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19094,17 +19112,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>40</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>299525.2</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -20540,11 +20560,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>770</v>
+        <v>1820</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>806740.69299999974</v>
+        <v>2874314.0680000004</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20792,16 +20812,19 @@
       <c r="E176" s="73"/>
       <c r="I176" s="55"/>
     </row>
-    <row r="177" spans="2:5" ht="16.5" customHeight="1" thickBot="1">
+    <row r="177" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
       <c r="B177" s="78" t="s">
         <v>84</v>
       </c>
       <c r="C177" s="79"/>
       <c r="D177" s="80"/>
       <c r="E177" s="24"/>
-    </row>
-    <row r="178" spans="2:5" ht="9" customHeight="1" thickBot="1"/>
-    <row r="179" spans="2:5">
+      <c r="J177" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" ht="9" customHeight="1" thickBot="1"/>
+    <row r="179" spans="2:10">
       <c r="B179" s="43" t="s">
         <v>85</v>
       </c>
@@ -20813,7 +20836,7 @@
       </c>
       <c r="E179" s="22"/>
     </row>
-    <row r="180" spans="2:5" ht="15" customHeight="1">
+    <row r="180" spans="2:10" ht="15" customHeight="1">
       <c r="B180" s="46" t="s">
         <v>267</v>
       </c>
@@ -20827,7 +20850,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="181" spans="2:5" ht="15" customHeight="1" thickBot="1">
+    <row r="181" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B181" s="46" t="s">
         <v>297</v>
       </c>
@@ -20835,7 +20858,7 @@
       <c r="D181" s="48"/>
       <c r="E181" s="22"/>
     </row>
-    <row r="182" spans="2:5" ht="19.5" thickBot="1">
+    <row r="182" spans="2:10" ht="19.5" thickBot="1">
       <c r="B182" s="49" t="s">
         <v>288</v>
       </c>
@@ -20846,8 +20869,8 @@
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>
     </row>
-    <row r="183" spans="2:5" ht="15" customHeight="1"/>
-    <row r="184" spans="2:5" ht="15.75" customHeight="1"/>
+    <row r="183" spans="2:10" ht="15" customHeight="1"/>
+    <row r="184" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E173">
     <filterColumn colId="2">

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,10 +2083,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
+      <selection pane="bottomRight" activeCell="J187" sqref="J187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44620</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2215,19 +2215,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>273</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>60</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>423405.60000000003</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>249</v>
@@ -3162,19 +3160,17 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92220</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3235,19 +3231,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>400</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>427835.99999999994</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>249</v>
@@ -3764,17 +3758,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>253</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>140</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140210</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -5063,19 +5059,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>209</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>100</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>116883</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>249</v>
@@ -5196,19 +5190,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -5718,19 +5710,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>195</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>140</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>199133.2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>287</v>
@@ -6822,19 +6812,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>255</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>60</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>66460.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>249</v>
@@ -10453,19 +10441,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126700.94999999998</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10523,19 +10509,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>120</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>156732.288</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11571,19 +11555,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>60</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>81854.430000000008</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11704,19 +11686,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>80</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>112266.4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11837,7 +11817,7 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A99" s="37" t="s">
         <v>295</v>
       </c>
@@ -11845,11 +11825,11 @@
         <v>1225.06</v>
       </c>
       <c r="C99" s="17">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>171508.4</v>
+        <v>61253</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>249</v>
@@ -12220,19 +12200,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>72893.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>249</v>
@@ -12286,19 +12264,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>100</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12407,19 +12383,17 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
       </c>
-      <c r="C104" s="17">
-        <v>100</v>
-      </c>
+      <c r="C104" s="17"/>
       <c r="D104" s="18">
         <f t="shared" si="4"/>
-        <v>120485.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
         <v>249</v>
@@ -14369,19 +14343,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -15736,19 +15708,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>257</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>249</v>
@@ -16262,19 +16232,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>20</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>118581.6</v>
+        <v>0</v>
       </c>
       <c r="E136" s="67" t="s">
         <v>249</v>
@@ -18595,7 +18563,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18657,7 +18625,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19112,19 +19080,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>40</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>299525.2</v>
+        <v>0</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -20560,11 +20526,11 @@
       <c r="B174" s="82"/>
       <c r="C174" s="52">
         <f>SUBTOTAL(9,C6:C173)</f>
-        <v>1820</v>
+        <v>190</v>
       </c>
       <c r="D174" s="53">
         <f>SUBTOTAL(9,D6:D173)</f>
-        <v>2874314.0680000004</v>
+        <v>201463</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20841,7 +20807,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20864,7 +20830,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -934,10 +934,10 @@
     <t>Z45</t>
   </si>
   <si>
-    <t>Blue &amp; Green Only</t>
-  </si>
-  <si>
-    <t>Royel Blue, Mint Green</t>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Mint Green</t>
   </si>
 </sst>
 </file>
@@ -2083,10 +2083,10 @@
   <dimension ref="A1:DP184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J187" sqref="J187"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I177:I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44634</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2915,17 +2915,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93226</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>249</v>
@@ -3160,17 +3162,19 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92220</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>249</v>
@@ -3766,11 +3770,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>140210</v>
+        <v>100150</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>249</v>
@@ -4022,17 +4026,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>281</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>190</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>195785.5</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>249</v>
@@ -5190,17 +5196,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>240</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>30</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>35093.58</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>249</v>
@@ -10441,17 +10449,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>40</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50680.38</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>249</v>
@@ -10509,17 +10519,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>264</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26122.047999999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>249</v>
@@ -11555,17 +11567,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>258</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17"/>
+      <c r="C97" s="17">
+        <v>60</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>81854.430000000008</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>249</v>
@@ -11686,17 +11700,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>262</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56133.2</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>249</v>
@@ -11817,7 +11833,7 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>295</v>
       </c>
@@ -11825,14 +11841,14 @@
         <v>1225.06</v>
       </c>
       <c r="C99" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>61253</v>
+        <v>49002.399999999994</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12264,17 +12280,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>30</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>35664.6</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>249</v>
@@ -12383,7 +12401,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>293</v>
       </c>
@@ -14343,17 +14361,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>290</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>249</v>
@@ -18563,7 +18583,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18625,7 +18645,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>230</v>
       </c>
@@ -19080,17 +19100,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>10</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="66" t="s">
         <v>304</v>
@@ -19864,20 +19886,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>83201.5</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20525,12 +20549,12 @@
       </c>
       <c r="B174" s="82"/>
       <c r="C174" s="52">
-        <f>SUBTOTAL(9,C6:C173)</f>
-        <v>190</v>
+        <f>SUBTOTAL(9,C15:C173)</f>
+        <v>790</v>
       </c>
       <c r="D174" s="53">
-        <f>SUBTOTAL(9,D6:D173)</f>
-        <v>201463</v>
+        <f>SUBTOTAL(9,D15:D173)</f>
+        <v>1001820.938</v>
       </c>
       <c r="E174" s="54"/>
       <c r="F174" s="26"/>
@@ -20807,7 +20831,7 @@
         <v>267</v>
       </c>
       <c r="C180" s="47">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="D180" s="48" t="s">
         <v>133</v>
@@ -20830,7 +20854,7 @@
       </c>
       <c r="C182" s="51">
         <f>C180+C181</f>
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="D182" s="50"/>
       <c r="E182" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -433,9 +433,6 @@
     <t>T85</t>
   </si>
   <si>
-    <t>i90</t>
-  </si>
-  <si>
     <t>P9+</t>
   </si>
   <si>
@@ -937,7 +934,10 @@
     <t>White</t>
   </si>
   <si>
-    <t>Mint Green</t>
+    <t>Z42</t>
+  </si>
+  <si>
+    <t>i82</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1511,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,9 +1708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="12" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,13 +2077,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP184"/>
+  <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I177:I178"/>
+      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2102,28 +2099,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>300</v>
-      </c>
-      <c r="C2" s="77"/>
+      <c r="B2" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="76"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44636</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2141,12 +2138,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2157,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2215,20 +2212,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>60</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>423405.60000000003</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2284,7 +2283,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2295,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2355,7 +2354,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2366,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2497,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2617,7 +2616,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2688,7 +2687,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2699,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2759,7 +2758,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2770,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2828,25 +2827,27 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>500</v>
+      </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>486212.5</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2857,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2917,20 +2918,20 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
       <c r="C15" s="17">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>93226</v>
+        <v>652582</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2990,7 +2991,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3001,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3061,7 +3062,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3072,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3132,7 +3133,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3143,12 +3144,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3159,25 +3160,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92220</v>
+        <v>645540</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3235,20 +3236,22 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>700</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>748713</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3315,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3375,7 +3378,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3644,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3764,20 +3767,20 @@
     </row>
     <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>100150</v>
+        <v>701050</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3897,7 +3900,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3908,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4028,20 +4031,20 @@
     </row>
     <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>190</v>
+        <v>500</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>195785.5</v>
+        <v>515225</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4172,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4303,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4423,7 +4426,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4434,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" s="28">
         <v>858.14</v>
@@ -4683,7 +4686,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4745,7 +4748,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4807,7 +4810,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4936,7 +4939,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4947,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5065,20 +5068,22 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>200</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>233766</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5198,20 +5203,20 @@
     </row>
     <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>35093.58</v>
+        <v>233957.2</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5331,7 +5336,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5342,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5591,7 +5596,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5718,20 +5723,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>200</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>284476</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5980,7 +5987,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -6109,7 +6116,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6238,7 +6245,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6367,7 +6374,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6429,7 +6436,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6440,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6558,20 +6565,22 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17">
+        <v>20</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>0</v>
+        <v>23135</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6689,20 +6698,22 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>20</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23335.4</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6820,20 +6831,22 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>100</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110768</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6953,7 +6966,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6964,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7084,7 +7097,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7213,7 +7226,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7224,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7344,7 +7357,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7355,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7473,20 +7486,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>100</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>470618</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7606,7 +7621,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B57" s="28">
         <v>20340.84</v>
@@ -7875,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7995,7 +8010,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8124,7 +8139,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61" s="28">
         <v>6715.95</v>
@@ -8253,7 +8268,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="28">
         <v>8573.3799999999992</v>
@@ -8382,7 +8397,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8393,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8513,7 +8528,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8642,7 +8657,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8771,7 +8786,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8900,7 +8915,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8911,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8971,7 +8986,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8982,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9042,7 +9057,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9104,7 +9119,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9166,7 +9181,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9177,7 +9192,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9230,7 +9245,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9241,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9294,7 +9309,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9305,7 +9320,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9358,7 +9373,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9369,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9422,7 +9437,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="28">
         <v>5793.45</v>
@@ -9433,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9484,17 +9499,19 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
-        <v>136</v>
+        <v>304</v>
       </c>
       <c r="B76" s="28">
-        <v>7714.24</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>7000</v>
+      </c>
+      <c r="C76" s="17">
+        <v>130</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>910000</v>
       </c>
       <c r="E76" s="65"/>
       <c r="F76" s="25"/>
@@ -9548,7 +9565,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B77" s="28">
         <v>8225.51</v>
@@ -9610,7 +9627,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9672,7 +9689,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9683,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9803,7 +9820,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9814,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9934,7 +9951,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9945,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10076,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10196,7 +10213,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10325,7 +10342,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B84" s="28">
         <v>1189.97</v>
@@ -10387,7 +10404,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10398,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10451,20 +10468,20 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>50680.38</v>
+        <v>253401.89999999997</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10521,20 +10538,20 @@
     </row>
     <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>26122.047999999999</v>
+        <v>261220.48000000001</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10792,7 +10809,7 @@
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B90" s="28">
         <v>5607.9849999999997</v>
@@ -10803,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10934,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11054,7 +11071,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11312,7 +11329,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11441,7 +11458,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11452,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11505,7 +11522,7 @@
     </row>
     <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11516,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11569,20 +11586,20 @@
     </row>
     <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>81854.430000000008</v>
+        <v>272848.10000000003</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11702,20 +11719,20 @@
     </row>
     <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
       <c r="C98" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>56133.2</v>
+        <v>280666</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11835,20 +11852,20 @@
     </row>
     <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
       <c r="C99" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>49002.399999999994</v>
+        <v>245012</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11968,7 +11985,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11979,7 +11996,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12099,7 +12116,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12110,7 +12127,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12216,20 +12233,22 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>100</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>121489.00000000001</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12282,20 +12301,20 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>35664.6</v>
+        <v>356646</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12403,7 +12422,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12414,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12478,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12598,7 +12617,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12609,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12729,7 +12748,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12858,7 +12877,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12987,7 +13006,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12998,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13118,7 +13137,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -13245,20 +13264,22 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13318,7 +13339,7 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" s="28">
         <v>12215.46</v>
@@ -13585,7 +13606,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B115" s="28">
         <v>10616.475</v>
@@ -13714,7 +13735,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13725,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13985,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14363,20 +14384,20 @@
     </row>
     <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14496,7 +14517,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14754,7 +14775,7 @@
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B124" s="28">
         <v>5476.38</v>
@@ -15081,7 +15102,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15092,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15212,7 +15233,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15223,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15343,7 +15364,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15730,7 +15751,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15741,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15861,7 +15882,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15872,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15992,7 +16013,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16003,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16123,7 +16144,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16134,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16252,20 +16273,22 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>20</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="67" t="s">
-        <v>249</v>
+        <v>118581.6</v>
+      </c>
+      <c r="E136" s="65" t="s">
+        <v>248</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16385,7 +16408,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B137" s="28">
         <v>5510.74</v>
@@ -16514,7 +16537,7 @@
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16643,7 +16666,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16654,7 +16677,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16707,7 +16730,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16769,7 +16792,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16831,7 +16854,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16893,7 +16916,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16966,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17019,7 +17042,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -17081,7 +17104,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17092,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17212,7 +17235,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17223,7 +17246,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17343,7 +17366,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17483,7 +17506,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17603,7 +17626,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17732,7 +17755,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17743,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17863,7 +17886,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B152" s="30">
         <v>3891.71</v>
@@ -17874,7 +17897,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17994,7 +18017,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -18123,7 +18146,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18252,7 +18275,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18263,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18383,7 +18406,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18394,7 +18417,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18514,7 +18537,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18525,7 +18548,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18647,7 +18670,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18658,7 +18681,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18711,7 +18734,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18840,7 +18863,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18851,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18971,7 +18994,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18982,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19102,20 +19125,20 @@
     </row>
     <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
       <c r="C163" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
-      </c>
-      <c r="E163" s="66" t="s">
-        <v>304</v>
+        <v>374406.5</v>
+      </c>
+      <c r="E163" s="65" t="s">
+        <v>248</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19235,7 +19258,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19364,7 +19387,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19375,7 +19398,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19495,7 +19518,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19506,7 +19529,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19626,18 +19649,18 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="18">
-        <f t="shared" ref="D167:D173" si="6">B167*C167</f>
+        <f t="shared" ref="D167:D174" si="6">B167*C167</f>
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19757,7 +19780,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19768,7 +19791,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19886,22 +19909,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
       <c r="C169" s="17">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>83201.5</v>
-      </c>
-      <c r="E169" s="66" t="s">
-        <v>199</v>
+        <v>499209</v>
+      </c>
+      <c r="E169" s="65" t="s">
+        <v>248</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20021,7 +20044,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20032,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20152,7 +20175,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20163,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20283,7 +20306,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20294,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20412,20 +20435,22 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B173" s="69">
-        <v>9317.56</v>
-      </c>
-      <c r="C173" s="70"/>
-      <c r="D173" s="71">
+        <v>9000</v>
+      </c>
+      <c r="C173" s="70">
+        <v>60</v>
+      </c>
+      <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="72" t="s">
-        <v>249</v>
+        <v>540000</v>
+      </c>
+      <c r="E173" s="65" t="s">
+        <v>248</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20475,10 +20500,10 @@
       <c r="AY173" s="26"/>
       <c r="AZ173" s="26"/>
       <c r="BA173" s="26"/>
-      <c r="BB173" s="15"/>
-      <c r="BC173" s="15"/>
-      <c r="BD173" s="15"/>
-      <c r="BE173" s="15"/>
+      <c r="BB173" s="26"/>
+      <c r="BC173" s="26"/>
+      <c r="BD173" s="26"/>
+      <c r="BE173" s="26"/>
       <c r="BF173" s="15"/>
       <c r="BG173" s="15"/>
       <c r="BH173" s="15"/>
@@ -20544,19 +20569,22 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A174" s="81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B174" s="82"/>
-      <c r="C174" s="52">
-        <f>SUBTOTAL(9,C15:C173)</f>
-        <v>790</v>
-      </c>
-      <c r="D174" s="53">
-        <f>SUBTOTAL(9,D15:D173)</f>
-        <v>1001820.938</v>
-      </c>
-      <c r="E174" s="54"/>
+      <c r="A174" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="B174" s="69">
+        <v>9317.56</v>
+      </c>
+      <c r="C174" s="70">
+        <v>100</v>
+      </c>
+      <c r="D174" s="71">
+        <f t="shared" si="6"/>
+        <v>931756</v>
+      </c>
+      <c r="E174" s="65" t="s">
+        <v>248</v>
+      </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
       <c r="H174" s="26"/>
@@ -20605,61 +20633,61 @@
       <c r="AY174" s="26"/>
       <c r="AZ174" s="26"/>
       <c r="BA174" s="26"/>
-      <c r="BB174" s="26"/>
-      <c r="BC174" s="26"/>
-      <c r="BD174" s="26"/>
-      <c r="BE174" s="26"/>
-      <c r="BF174" s="26"/>
-      <c r="BG174" s="26"/>
-      <c r="BH174" s="26"/>
-      <c r="BI174" s="26"/>
-      <c r="BJ174" s="26"/>
-      <c r="BK174" s="26"/>
-      <c r="BL174" s="26"/>
-      <c r="BM174" s="26"/>
-      <c r="BN174" s="26"/>
-      <c r="BO174" s="26"/>
-      <c r="BP174" s="26"/>
-      <c r="BQ174" s="26"/>
-      <c r="BR174" s="26"/>
-      <c r="BS174" s="26"/>
-      <c r="BT174" s="26"/>
-      <c r="BU174" s="26"/>
-      <c r="BV174" s="26"/>
-      <c r="BW174" s="26"/>
-      <c r="BX174" s="26"/>
-      <c r="BY174" s="26"/>
-      <c r="BZ174" s="26"/>
-      <c r="CA174" s="26"/>
-      <c r="CB174" s="26"/>
-      <c r="CC174" s="26"/>
-      <c r="CD174" s="26"/>
-      <c r="CE174" s="26"/>
-      <c r="CF174" s="26"/>
-      <c r="CG174" s="26"/>
-      <c r="CH174" s="26"/>
-      <c r="CI174" s="26"/>
-      <c r="CJ174" s="26"/>
-      <c r="CK174" s="26"/>
-      <c r="CL174" s="26"/>
-      <c r="CM174" s="26"/>
-      <c r="CN174" s="26"/>
-      <c r="CO174" s="26"/>
-      <c r="CP174" s="26"/>
-      <c r="CQ174" s="26"/>
-      <c r="CR174" s="26"/>
-      <c r="CS174" s="26"/>
-      <c r="CT174" s="26"/>
-      <c r="CU174" s="26"/>
-      <c r="CV174" s="26"/>
-      <c r="CW174" s="26"/>
-      <c r="CX174" s="26"/>
-      <c r="CY174" s="26"/>
-      <c r="CZ174" s="26"/>
-      <c r="DA174" s="26"/>
-      <c r="DB174" s="26"/>
-      <c r="DC174" s="26"/>
-      <c r="DD174" s="26"/>
+      <c r="BB174" s="15"/>
+      <c r="BC174" s="15"/>
+      <c r="BD174" s="15"/>
+      <c r="BE174" s="15"/>
+      <c r="BF174" s="15"/>
+      <c r="BG174" s="15"/>
+      <c r="BH174" s="15"/>
+      <c r="BI174" s="15"/>
+      <c r="BJ174" s="15"/>
+      <c r="BK174" s="15"/>
+      <c r="BL174" s="15"/>
+      <c r="BM174" s="15"/>
+      <c r="BN174" s="15"/>
+      <c r="BO174" s="15"/>
+      <c r="BP174" s="15"/>
+      <c r="BQ174" s="15"/>
+      <c r="BR174" s="15"/>
+      <c r="BS174" s="15"/>
+      <c r="BT174" s="15"/>
+      <c r="BU174" s="15"/>
+      <c r="BV174" s="15"/>
+      <c r="BW174" s="15"/>
+      <c r="BX174" s="15"/>
+      <c r="BY174" s="15"/>
+      <c r="BZ174" s="15"/>
+      <c r="CA174" s="15"/>
+      <c r="CB174" s="15"/>
+      <c r="CC174" s="15"/>
+      <c r="CD174" s="15"/>
+      <c r="CE174" s="15"/>
+      <c r="CF174" s="15"/>
+      <c r="CG174" s="15"/>
+      <c r="CH174" s="15"/>
+      <c r="CI174" s="15"/>
+      <c r="CJ174" s="15"/>
+      <c r="CK174" s="15"/>
+      <c r="CL174" s="15"/>
+      <c r="CM174" s="15"/>
+      <c r="CN174" s="15"/>
+      <c r="CO174" s="15"/>
+      <c r="CP174" s="15"/>
+      <c r="CQ174" s="15"/>
+      <c r="CR174" s="15"/>
+      <c r="CS174" s="15"/>
+      <c r="CT174" s="15"/>
+      <c r="CU174" s="15"/>
+      <c r="CV174" s="15"/>
+      <c r="CW174" s="15"/>
+      <c r="CX174" s="15"/>
+      <c r="CY174" s="15"/>
+      <c r="CZ174" s="15"/>
+      <c r="DA174" s="15"/>
+      <c r="DB174" s="15"/>
+      <c r="DC174" s="15"/>
+      <c r="DD174" s="15"/>
       <c r="DE174" s="15"/>
       <c r="DF174" s="15"/>
       <c r="DG174" s="15"/>
@@ -20673,12 +20701,20 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
-      <c r="A175" s="38"/>
-      <c r="B175" s="29"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
+    <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A175" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B175" s="81"/>
+      <c r="C175" s="52">
+        <f>SUBTOTAL(9,C6:C174)</f>
+        <v>6580</v>
+      </c>
+      <c r="D175" s="53">
+        <f>SUBTOTAL(9,D6:D174)</f>
+        <v>10798494.280000001</v>
+      </c>
+      <c r="E175" s="54"/>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
       <c r="H175" s="26"/>
@@ -20795,74 +20831,194 @@
       <c r="DO175" s="15"/>
       <c r="DP175" s="15"/>
     </row>
-    <row r="176" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B176" s="73"/>
-      <c r="C176" s="73"/>
-      <c r="D176" s="73"/>
-      <c r="E176" s="73"/>
-      <c r="I176" s="55"/>
-    </row>
-    <row r="177" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B177" s="78" t="s">
+    <row r="176" spans="1:120" ht="15" customHeight="1">
+      <c r="A176" s="38"/>
+      <c r="B176" s="29"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="21"/>
+      <c r="E176" s="21"/>
+      <c r="F176" s="26"/>
+      <c r="G176" s="26"/>
+      <c r="H176" s="26"/>
+      <c r="I176" s="26"/>
+      <c r="J176" s="26"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="26"/>
+      <c r="M176" s="26"/>
+      <c r="N176" s="26"/>
+      <c r="O176" s="26"/>
+      <c r="P176" s="26"/>
+      <c r="Q176" s="26"/>
+      <c r="R176" s="26"/>
+      <c r="S176" s="26"/>
+      <c r="T176" s="26"/>
+      <c r="U176" s="26"/>
+      <c r="V176" s="26"/>
+      <c r="W176" s="26"/>
+      <c r="X176" s="26"/>
+      <c r="Y176" s="26"/>
+      <c r="Z176" s="26"/>
+      <c r="AA176" s="26"/>
+      <c r="AB176" s="26"/>
+      <c r="AC176" s="26"/>
+      <c r="AD176" s="26"/>
+      <c r="AE176" s="26"/>
+      <c r="AF176" s="26"/>
+      <c r="AG176" s="26"/>
+      <c r="AH176" s="26"/>
+      <c r="AI176" s="26"/>
+      <c r="AJ176" s="26"/>
+      <c r="AK176" s="26"/>
+      <c r="AL176" s="26"/>
+      <c r="AM176" s="26"/>
+      <c r="AN176" s="26"/>
+      <c r="AO176" s="26"/>
+      <c r="AP176" s="26"/>
+      <c r="AQ176" s="26"/>
+      <c r="AR176" s="26"/>
+      <c r="AS176" s="26"/>
+      <c r="AT176" s="26"/>
+      <c r="AU176" s="26"/>
+      <c r="AV176" s="26"/>
+      <c r="AW176" s="26"/>
+      <c r="AX176" s="26"/>
+      <c r="AY176" s="26"/>
+      <c r="AZ176" s="26"/>
+      <c r="BA176" s="26"/>
+      <c r="BB176" s="26"/>
+      <c r="BC176" s="26"/>
+      <c r="BD176" s="26"/>
+      <c r="BE176" s="26"/>
+      <c r="BF176" s="26"/>
+      <c r="BG176" s="26"/>
+      <c r="BH176" s="26"/>
+      <c r="BI176" s="26"/>
+      <c r="BJ176" s="26"/>
+      <c r="BK176" s="26"/>
+      <c r="BL176" s="26"/>
+      <c r="BM176" s="26"/>
+      <c r="BN176" s="26"/>
+      <c r="BO176" s="26"/>
+      <c r="BP176" s="26"/>
+      <c r="BQ176" s="26"/>
+      <c r="BR176" s="26"/>
+      <c r="BS176" s="26"/>
+      <c r="BT176" s="26"/>
+      <c r="BU176" s="26"/>
+      <c r="BV176" s="26"/>
+      <c r="BW176" s="26"/>
+      <c r="BX176" s="26"/>
+      <c r="BY176" s="26"/>
+      <c r="BZ176" s="26"/>
+      <c r="CA176" s="26"/>
+      <c r="CB176" s="26"/>
+      <c r="CC176" s="26"/>
+      <c r="CD176" s="26"/>
+      <c r="CE176" s="26"/>
+      <c r="CF176" s="26"/>
+      <c r="CG176" s="26"/>
+      <c r="CH176" s="26"/>
+      <c r="CI176" s="26"/>
+      <c r="CJ176" s="26"/>
+      <c r="CK176" s="26"/>
+      <c r="CL176" s="26"/>
+      <c r="CM176" s="26"/>
+      <c r="CN176" s="26"/>
+      <c r="CO176" s="26"/>
+      <c r="CP176" s="26"/>
+      <c r="CQ176" s="26"/>
+      <c r="CR176" s="26"/>
+      <c r="CS176" s="26"/>
+      <c r="CT176" s="26"/>
+      <c r="CU176" s="26"/>
+      <c r="CV176" s="26"/>
+      <c r="CW176" s="26"/>
+      <c r="CX176" s="26"/>
+      <c r="CY176" s="26"/>
+      <c r="CZ176" s="26"/>
+      <c r="DA176" s="26"/>
+      <c r="DB176" s="26"/>
+      <c r="DC176" s="26"/>
+      <c r="DD176" s="26"/>
+      <c r="DE176" s="15"/>
+      <c r="DF176" s="15"/>
+      <c r="DG176" s="15"/>
+      <c r="DH176" s="15"/>
+      <c r="DI176" s="15"/>
+      <c r="DJ176" s="15"/>
+      <c r="DK176" s="15"/>
+      <c r="DL176" s="15"/>
+      <c r="DM176" s="15"/>
+      <c r="DN176" s="15"/>
+      <c r="DO176" s="15"/>
+      <c r="DP176" s="15"/>
+    </row>
+    <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
+      <c r="B177" s="72"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="I177" s="55"/>
+    </row>
+    <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B178" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="C177" s="79"/>
-      <c r="D177" s="80"/>
-      <c r="E177" s="24"/>
-      <c r="J177" s="25" t="s">
+      <c r="C178" s="78"/>
+      <c r="D178" s="79"/>
+      <c r="E178" s="24"/>
+      <c r="J178" s="25" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="2:10" ht="9" customHeight="1" thickBot="1"/>
-    <row r="179" spans="2:10">
-      <c r="B179" s="43" t="s">
+    <row r="179" spans="2:10" ht="9" customHeight="1" thickBot="1"/>
+    <row r="180" spans="2:10">
+      <c r="B180" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C179" s="44" t="s">
+      <c r="C180" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D179" s="45" t="s">
+      <c r="D180" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="E179" s="22"/>
-    </row>
-    <row r="180" spans="2:10" ht="15" customHeight="1">
-      <c r="B180" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="C180" s="47">
-        <v>300000</v>
-      </c>
-      <c r="D180" s="48" t="s">
+      <c r="E180" s="22"/>
+    </row>
+    <row r="181" spans="2:10" ht="15" customHeight="1">
+      <c r="B181" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="C181" s="47"/>
+      <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E180" s="22" t="s">
+      <c r="E181" s="22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="181" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B181" s="46" t="s">
-        <v>297</v>
-      </c>
-      <c r="C181" s="47"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="22"/>
-    </row>
-    <row r="182" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B182" s="49" t="s">
-        <v>288</v>
-      </c>
-      <c r="C182" s="51">
-        <f>C180+C181</f>
-        <v>300000</v>
-      </c>
-      <c r="D182" s="50"/>
-      <c r="E182" s="23"/>
-    </row>
-    <row r="183" spans="2:10" ht="15" customHeight="1"/>
-    <row r="184" spans="2:10" ht="15.75" customHeight="1"/>
+    <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B182" s="46" t="s">
+        <v>296</v>
+      </c>
+      <c r="C182" s="47"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="2:10" ht="19.5" thickBot="1">
+      <c r="B183" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="C183" s="51">
+        <f>C181+C182</f>
+        <v>0</v>
+      </c>
+      <c r="D183" s="50"/>
+      <c r="E183" s="23"/>
+    </row>
+    <row r="184" spans="2:10" ht="15" customHeight="1"/>
+    <row r="185" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E173">
+  <autoFilter ref="A4:E174">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20876,13 +21032,13 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B176:E176"/>
+    <mergeCell ref="B177:E177"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="A175:B175"/>
   </mergeCells>
-  <conditionalFormatting sqref="C181">
+  <conditionalFormatting sqref="C182">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -20909,33 +21065,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87" t="e">
+      <c r="B3" s="85"/>
+      <c r="C3" s="86" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22876,10 +23032,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="83"/>
+      <c r="B101" s="82"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2080,10 +2080,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J49" sqref="J49"/>
+      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44642</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2220,11 +2220,11 @@
         <v>7056.76</v>
       </c>
       <c r="C6" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>423405.60000000003</v>
+        <v>282270.40000000002</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>248</v>
@@ -2827,19 +2827,17 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="28">
         <v>972.42499999999995</v>
       </c>
-      <c r="C13" s="17">
-        <v>500</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>486212.5</v>
+        <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>248</v>
@@ -2916,19 +2914,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>700</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>652582</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>248</v>
@@ -3171,11 +3167,11 @@
         <v>922.2</v>
       </c>
       <c r="C20" s="17">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>645540</v>
+        <v>276660</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>248</v>
@@ -3244,11 +3240,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>700</v>
+        <v>300</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>748713</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>248</v>
@@ -3773,11 +3769,11 @@
         <v>1001.5</v>
       </c>
       <c r="C26" s="17">
-        <v>700</v>
+        <v>250</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>701050</v>
+        <v>250375</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>248</v>
@@ -4037,11 +4033,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>515225</v>
+        <v>103045</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>248</v>
@@ -5068,19 +5064,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>200</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>233766</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>248</v>
@@ -5209,11 +5203,11 @@
         <v>1169.7860000000001</v>
       </c>
       <c r="C38" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>233957.2</v>
+        <v>116978.6</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>248</v>
@@ -5731,11 +5725,11 @@
         <v>1422.38</v>
       </c>
       <c r="C42" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>284476</v>
+        <v>142238</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>286</v>
@@ -6565,19 +6559,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B49" s="28">
         <v>1156.75</v>
       </c>
-      <c r="C49" s="17">
-        <v>20</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>23135</v>
+        <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>248</v>
@@ -6698,19 +6690,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B50" s="28">
         <v>1166.77</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>23335.4</v>
+        <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>248</v>
@@ -6831,19 +6821,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>254</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>100</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>110768</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>248</v>
@@ -7486,19 +7474,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>100</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>470618</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>293</v>
@@ -9499,19 +9485,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="28">
         <v>7000</v>
       </c>
-      <c r="C76" s="17">
-        <v>130</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>910000</v>
+        <v>0</v>
       </c>
       <c r="E76" s="65"/>
       <c r="F76" s="25"/>
@@ -10474,11 +10458,11 @@
         <v>1267.0094999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>253401.89999999997</v>
+        <v>126700.94999999998</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -10544,11 +10528,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>261220.48000000001</v>
+        <v>130610.24000000001</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>248</v>
@@ -11592,11 +11576,11 @@
         <v>1364.2405000000001</v>
       </c>
       <c r="C97" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>272848.10000000003</v>
+        <v>136424.05000000002</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>248</v>
@@ -11717,19 +11701,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>261</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>200</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>280666</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>248</v>
@@ -11850,19 +11832,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B99" s="28">
         <v>1225.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>200</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>245012</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>302</v>
@@ -12233,19 +12213,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>100</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>121489.00000000001</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>248</v>
@@ -12299,7 +12277,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
@@ -12307,11 +12285,11 @@
         <v>1188.82</v>
       </c>
       <c r="C103" s="17">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>356646</v>
+        <v>118882</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -13264,19 +13242,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>247</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
         <v>248</v>
@@ -14382,19 +14358,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>248</v>
@@ -16273,19 +16247,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>20</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>118581.6</v>
+        <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>248</v>
@@ -18606,7 +18578,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18668,7 +18640,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -19123,19 +19095,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>50</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>374406.5</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>248</v>
@@ -19909,19 +19879,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>60</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>499209</v>
+        <v>0</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>248</v>
@@ -20435,19 +20403,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
         <v>303</v>
       </c>
       <c r="B173" s="69">
         <v>9000</v>
       </c>
-      <c r="C173" s="70">
-        <v>60</v>
-      </c>
+      <c r="C173" s="70"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>540000</v>
+        <v>0</v>
       </c>
       <c r="E173" s="65" t="s">
         <v>248</v>
@@ -20568,19 +20534,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="68" t="s">
         <v>301</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C174" s="70">
-        <v>100</v>
-      </c>
+      <c r="C174" s="70"/>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>931756</v>
+        <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>248</v>
@@ -20708,11 +20672,11 @@
       <c r="B175" s="81"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>6580</v>
+        <v>1590</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>10798494.280000001</v>
+        <v>2005061.24</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20988,7 +20952,9 @@
       <c r="B181" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="C181" s="47"/>
+      <c r="C181" s="47">
+        <v>1000000</v>
+      </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
@@ -21010,7 +20976,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H86" sqref="H86"/>
+      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44644</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2212,19 +2212,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B6" s="28">
         <v>7056.76</v>
       </c>
-      <c r="C6" s="17">
-        <v>40</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>282270.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>248</v>
@@ -3159,19 +3157,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B20" s="28">
         <v>922.2</v>
       </c>
-      <c r="C20" s="17">
-        <v>300</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>276660</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>248</v>
@@ -3232,19 +3228,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>300</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>248</v>
@@ -3761,19 +3755,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>252</v>
       </c>
       <c r="B26" s="28">
         <v>1001.5</v>
       </c>
-      <c r="C26" s="17">
-        <v>250</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>250375</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>248</v>
@@ -4033,11 +4025,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>103045</v>
+        <v>72131.5</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>248</v>
@@ -5195,19 +5187,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="28">
         <v>1169.7860000000001</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116978.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>248</v>
@@ -5717,19 +5707,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>194</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>286</v>
@@ -10450,19 +10438,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.0094999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126700.94999999998</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -10520,19 +10506,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>130610.24000000001</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>248</v>
@@ -11568,19 +11552,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B97" s="28">
         <v>1364.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>100</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>136424.05000000002</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>248</v>
@@ -12277,19 +12259,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1188.82</v>
       </c>
-      <c r="C103" s="17">
-        <v>100</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>118882</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -14358,17 +14338,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>248</v>
@@ -18578,7 +18560,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18640,7 +18622,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -19095,17 +19077,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>10</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>248</v>
@@ -19879,17 +19863,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>15</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>124802.25</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>248</v>
@@ -20672,11 +20658,11 @@
       <c r="B175" s="81"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>1590</v>
+        <v>115</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>2005061.24</v>
+        <v>299621.05</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20953,7 +20939,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20976,7 +20962,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2083,7 +2083,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E183" sqref="E183"/>
+      <selection pane="bottomRight" activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44647</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2825,17 +2825,19 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="28">
-        <v>972.42499999999995</v>
-      </c>
-      <c r="C13" s="17"/>
+        <v>922.23</v>
+      </c>
+      <c r="C13" s="17">
+        <v>263</v>
+      </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>242546.49</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>248</v>
@@ -4017,7 +4019,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="36" t="s">
         <v>280</v>
       </c>
@@ -4025,11 +4027,11 @@
         <v>1030.45</v>
       </c>
       <c r="C28" s="17">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>72131.5</v>
+        <v>110258.15000000001</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>248</v>
@@ -9345,7 +9347,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>227</v>
       </c>
@@ -9409,7 +9411,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="36" t="s">
         <v>161</v>
       </c>
@@ -9473,7 +9475,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
@@ -9535,7 +9537,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>145</v>
       </c>
@@ -9597,7 +9599,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>189</v>
       </c>
@@ -11424,7 +11426,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>224</v>
       </c>
@@ -11488,7 +11490,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>159</v>
       </c>
@@ -14338,19 +14340,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>248</v>
@@ -18560,7 +18560,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18622,7 +18622,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -19077,19 +19077,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>10</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>248</v>
@@ -19863,19 +19861,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>15</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>124802.25</v>
+        <v>0</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>248</v>
@@ -20658,11 +20654,11 @@
       <c r="B175" s="81"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>115</v>
+        <v>370</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>299621.05</v>
+        <v>352804.64</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20939,7 +20935,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20962,7 +20958,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1300000</v>
+        <v>650000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -937,7 +937,7 @@
     <t>Z42</t>
   </si>
   <si>
-    <t>i82</t>
+    <t>i80</t>
   </si>
 </sst>
 </file>
@@ -2080,10 +2080,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D188" sqref="D188"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44649</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2212,17 +2212,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B6" s="28">
-        <v>7056.76</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>7057.09</v>
+      </c>
+      <c r="C6" s="17">
+        <v>100</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>705709</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>248</v>
@@ -2830,14 +2832,14 @@
         <v>230</v>
       </c>
       <c r="B13" s="28">
-        <v>922.23</v>
+        <v>932.26</v>
       </c>
       <c r="C13" s="17">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>242546.49</v>
+        <v>283407.03999999998</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>248</v>
@@ -3159,17 +3161,19 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B20" s="28">
-        <v>922.2</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>922.23</v>
+      </c>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92223</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>248</v>
@@ -3230,17 +3234,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>100</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106958.99999999999</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>248</v>
@@ -3757,17 +3763,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>252</v>
       </c>
       <c r="B26" s="28">
-        <v>1001.5</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1001.424</v>
+      </c>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100142.39999999999</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>248</v>
@@ -4019,19 +4027,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>280</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
       </c>
-      <c r="C28" s="17">
-        <v>107</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>110258.15000000001</v>
+        <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>248</v>
@@ -5189,17 +5195,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="28">
-        <v>1169.7860000000001</v>
-      </c>
-      <c r="C38" s="17"/>
+        <v>1169.83</v>
+      </c>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>116983</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>248</v>
@@ -5709,17 +5717,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>194</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>100</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>142238</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>286</v>
@@ -6549,17 +6559,19 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B49" s="28">
-        <v>1156.75</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>1117.7059999999999</v>
+      </c>
+      <c r="C49" s="17">
+        <v>100</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>0</v>
+        <v>111770.59999999999</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>248</v>
@@ -6680,17 +6692,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B50" s="28">
-        <v>1166.77</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>1117.7059999999999</v>
+      </c>
+      <c r="C50" s="17">
+        <v>100</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111770.59999999999</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>248</v>
@@ -9347,7 +9361,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>227</v>
       </c>
@@ -9411,7 +9425,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>161</v>
       </c>
@@ -9475,19 +9489,23 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="28">
-        <v>7000</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>6951.83</v>
+      </c>
+      <c r="C76" s="17">
+        <v>125</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="65"/>
+        <v>868978.75</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>248</v>
+      </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
@@ -9537,7 +9555,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>145</v>
       </c>
@@ -9599,7 +9617,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>189</v>
       </c>
@@ -10440,17 +10458,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
-        <v>1267.0094999999999</v>
-      </c>
-      <c r="C86" s="17"/>
+        <v>1267.06</v>
+      </c>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76023.599999999991</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -10508,17 +10528,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>248</v>
@@ -11426,7 +11448,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>224</v>
       </c>
@@ -11490,7 +11512,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>159</v>
       </c>
@@ -11554,17 +11576,19 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B97" s="28">
-        <v>1364.2405000000001</v>
-      </c>
-      <c r="C97" s="17"/>
+        <v>1334.2405000000001</v>
+      </c>
+      <c r="C97" s="17">
+        <v>100</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>133424.05000000002</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>248</v>
@@ -11816,17 +11840,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B99" s="28">
-        <v>1225.06</v>
-      </c>
-      <c r="C99" s="17"/>
+        <v>1224.06</v>
+      </c>
+      <c r="C99" s="17">
+        <v>100</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>122406</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>302</v>
@@ -12197,17 +12223,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>150</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>182233.50000000003</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>248</v>
@@ -12261,17 +12289,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
-        <v>1188.82</v>
-      </c>
-      <c r="C103" s="17"/>
+        <v>1217.9490000000001</v>
+      </c>
+      <c r="C103" s="17">
+        <v>60</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>73076.94</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -14340,17 +14370,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>248</v>
@@ -18560,7 +18592,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18622,7 +18654,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -19077,17 +19109,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>74</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>554121.62</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>248</v>
@@ -19861,17 +19895,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>70</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>582410.5</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>248</v>
@@ -20654,11 +20690,11 @@
       <c r="B175" s="81"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>370</v>
+        <v>1943</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>352804.64</v>
+        <v>4497855.7439999999</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20935,7 +20971,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>650000</v>
+        <v>2000000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20958,7 +20994,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>650000</v>
+        <v>2000000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -938,6 +938,9 @@
   </si>
   <si>
     <t>i80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black </t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1514,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1710,6 +1713,7 @@
     <xf numFmtId="43" fontId="12" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2080,10 +2084,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomRight" activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2093,34 +2097,35 @@
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="108" width="9.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="108" width="9.140625" style="25" customWidth="1"/>
     <col min="109" max="120" width="9.140625" style="14" customWidth="1"/>
     <col min="121" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="76" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="77"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44651</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2212,19 +2217,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
       </c>
-      <c r="C6" s="17">
-        <v>100</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>705709</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>248</v>
@@ -2827,19 +2830,17 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
       </c>
-      <c r="C13" s="17">
-        <v>304</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>283407.03999999998</v>
+        <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>248</v>
@@ -2916,20 +2917,22 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>200</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>248</v>
+        <v>186452</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>305</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3161,19 +3164,17 @@
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B20" s="28">
         <v>922.23</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92223</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>248</v>
@@ -3234,19 +3235,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>106958.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>248</v>
@@ -3763,19 +3762,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>252</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>100142.39999999999</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>248</v>
@@ -5195,19 +5192,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>239</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116983</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>248</v>
@@ -5717,19 +5712,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>194</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>142238</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>286</v>
@@ -6559,19 +6552,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C49" s="17">
-        <v>100</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>111770.59999999999</v>
+        <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>248</v>
@@ -6692,19 +6683,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C50" s="17">
-        <v>100</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>111770.59999999999</v>
+        <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>248</v>
@@ -7478,17 +7467,19 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>10</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47061.8</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>293</v>
@@ -9489,19 +9480,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
       </c>
-      <c r="C76" s="17">
-        <v>125</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>868978.75</v>
+        <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>248</v>
@@ -10458,19 +10447,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17">
-        <v>60</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76023.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -10528,19 +10515,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>60</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>248</v>
@@ -11576,19 +11561,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>257</v>
       </c>
       <c r="B97" s="28">
         <v>1334.2405000000001</v>
       </c>
-      <c r="C97" s="17">
-        <v>100</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>133424.05000000002</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>248</v>
@@ -11840,19 +11823,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>100</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>122406</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>302</v>
@@ -12223,19 +12204,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>279</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>150</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>182233.50000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>248</v>
@@ -12289,19 +12268,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17">
-        <v>60</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>73076.94</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -14370,19 +14347,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>289</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>248</v>
@@ -16261,17 +16236,19 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A136" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>15</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>88936.2</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>248</v>
@@ -18592,7 +18569,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18654,7 +18631,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -19109,19 +19086,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>297</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>74</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>554121.62</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>248</v>
@@ -19895,19 +19870,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>70</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>582410.5</v>
+        <v>0</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>248</v>
@@ -20684,17 +20657,17 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="80" t="s">
+      <c r="A175" s="81" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="81"/>
+      <c r="B175" s="82"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>1943</v>
+        <v>225</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>4497855.7439999999</v>
+        <v>322450</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20936,18 +20909,18 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="72"/>
-      <c r="C177" s="72"/>
-      <c r="D177" s="72"/>
-      <c r="E177" s="72"/>
+      <c r="B177" s="73"/>
+      <c r="C177" s="73"/>
+      <c r="D177" s="73"/>
+      <c r="E177" s="73"/>
       <c r="I177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="78"/>
-      <c r="D178" s="79"/>
+      <c r="C178" s="79"/>
+      <c r="D178" s="80"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
         <v>133</v>
@@ -20971,7 +20944,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>2000000</v>
+        <v>600000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20994,12 +20967,14 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>2000000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
     </row>
-    <row r="184" spans="2:10" ht="15" customHeight="1"/>
+    <row r="184" spans="2:10" ht="15" customHeight="1">
+      <c r="F184" s="72"/>
+    </row>
     <row r="185" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E174">
@@ -21049,33 +21024,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="e">
+      <c r="B3" s="86"/>
+      <c r="C3" s="87" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="86"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23016,10 +22991,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="82" t="s">
+      <c r="A101" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="82"/>
+      <c r="B101" s="83"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2087,7 +2087,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G184" sqref="G184"/>
+      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44664</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2917,19 +2917,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>200</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>186452</v>
+        <v>0</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>305</v>
@@ -7467,19 +7465,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>10</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>47061.8</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>293</v>
@@ -9480,17 +9476,19 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17">
+        <v>5</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>34759.15</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>248</v>
@@ -10447,17 +10445,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>20</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25341.199999999997</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -12268,17 +12268,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>24358.980000000003</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -16244,11 +16246,11 @@
         <v>5929.08</v>
       </c>
       <c r="C136" s="17">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>88936.2</v>
+        <v>112652.52</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>248</v>
@@ -20663,11 +20665,11 @@
       <c r="B175" s="82"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>225</v>
+        <v>64</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>322450</v>
+        <v>197111.85</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20944,7 +20946,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20967,7 +20969,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>600000</v>
+        <v>200000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2087,7 +2087,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L178" sqref="L178"/>
+      <selection pane="bottomRight" activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44668</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -9476,19 +9476,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
       </c>
-      <c r="C76" s="17">
-        <v>5</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>34759.15</v>
+        <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>248</v>
@@ -10445,19 +10443,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17">
-        <v>20</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25341.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -12268,19 +12264,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>24358.980000000003</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -16238,19 +16232,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>19</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>112652.52</v>
+        <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>248</v>
@@ -18571,7 +18563,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18633,7 +18625,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>229</v>
       </c>
@@ -20396,17 +20388,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>303</v>
       </c>
       <c r="B173" s="69">
-        <v>9000</v>
-      </c>
-      <c r="C173" s="70"/>
+        <v>8806.32</v>
+      </c>
+      <c r="C173" s="70">
+        <v>100</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>880632</v>
       </c>
       <c r="E173" s="65" t="s">
         <v>248</v>
@@ -20665,11 +20659,11 @@
       <c r="B175" s="82"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>197111.85</v>
+        <v>880632</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20946,7 +20940,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20969,7 +20963,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2087,7 +2087,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J185" sqref="J185"/>
+      <selection pane="bottomRight" activeCell="L190" sqref="L190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5059,17 +5059,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>140</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>163636.19999999998</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>248</v>
@@ -20388,19 +20390,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
         <v>303</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
       </c>
-      <c r="C173" s="70">
-        <v>100</v>
-      </c>
+      <c r="C173" s="70"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>880632</v>
+        <v>0</v>
       </c>
       <c r="E173" s="65" t="s">
         <v>248</v>
@@ -20521,17 +20521,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A174" s="68" t="s">
         <v>301</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C174" s="70"/>
+      <c r="C174" s="70">
+        <v>90</v>
+      </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>838580.39999999991</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>248</v>
@@ -20659,11 +20661,11 @@
       <c r="B175" s="82"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>880632</v>
+        <v>1002216.5999999999</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20940,7 +20942,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20963,7 +20965,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="307">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Green Only</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1758,6 +1761,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2087,7 +2093,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L190" sqref="L190"/>
+      <selection pane="bottomRight" activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2125,7 +2131,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44675</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5059,19 +5065,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>140</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>163636.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>248</v>
@@ -10445,17 +10449,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76023.599999999991</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>248</v>
@@ -10513,17 +10519,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>248</v>
@@ -11690,17 +11698,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>261</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>84199.799999999988</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>248</v>
@@ -12266,17 +12276,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>60</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>73076.94</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>248</v>
@@ -20390,20 +20402,22 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
         <v>303</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
       </c>
-      <c r="C173" s="70"/>
+      <c r="C173" s="70">
+        <v>50</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="65" t="s">
-        <v>248</v>
+        <v>440316</v>
+      </c>
+      <c r="E173" s="88" t="s">
+        <v>306</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20521,19 +20535,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="68" t="s">
         <v>301</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C174" s="70">
-        <v>90</v>
-      </c>
+      <c r="C174" s="70"/>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>838580.39999999991</v>
+        <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>248</v>
@@ -20660,12 +20672,12 @@
       </c>
       <c r="B175" s="82"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C6:C174)</f>
-        <v>230</v>
+        <f>SUBTOTAL(9,C86:C174)</f>
+        <v>290</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D6:D174)</f>
-        <v>1002216.5999999999</v>
+        <f>SUBTOTAL(9,D86:D174)</f>
+        <v>751982.48399999994</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20942,7 +20954,7 @@
         <v>266</v>
       </c>
       <c r="C181" s="47">
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20965,7 +20977,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>700000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -535,9 +535,6 @@
     <t>V150</t>
   </si>
   <si>
-    <t>Helio S60</t>
-  </si>
-  <si>
     <t>L62</t>
   </si>
   <si>
@@ -883,9 +880,6 @@
     <t>Z33</t>
   </si>
   <si>
-    <t>Black &amp; White</t>
-  </si>
-  <si>
     <t>Deposit =</t>
   </si>
   <si>
@@ -931,9 +925,6 @@
     <t>Z45</t>
   </si>
   <si>
-    <t>White</t>
-  </si>
-  <si>
     <t>Z42</t>
   </si>
   <si>
@@ -944,6 +935,12 @@
   </si>
   <si>
     <t>Green Only</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>Without Gold</t>
   </si>
 </sst>
 </file>
@@ -1717,6 +1714,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1761,9 +1761,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2093,7 +2090,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K183" sqref="K183"/>
+      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2110,28 +2107,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="77"/>
+      <c r="B2" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="78"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44676</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2152,20 +2149,22 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="57"/>
+      <c r="C5" s="57">
+        <v>13</v>
+      </c>
       <c r="D5" s="58">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>0</v>
+        <v>94174.73</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2223,20 +2222,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35285.449999999997</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2292,7 +2293,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2303,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2363,7 +2364,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2374,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2505,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2636,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2707,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2778,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2838,7 +2839,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2849,12 +2850,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2865,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2923,20 +2924,22 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>400</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>372904</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2996,7 +2999,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3067,7 +3070,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3078,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3138,7 +3141,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3149,12 +3152,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3165,23 +3168,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B20" s="28">
         <v>922.23</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>200</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184446</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3239,20 +3244,22 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>200</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>213917.99999999997</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3319,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3637,7 +3644,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3648,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3766,20 +3773,22 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>300</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300427.2</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3899,7 +3908,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3910,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4030,7 +4039,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -4041,7 +4050,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4172,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4303,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4423,7 +4432,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4434,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4683,7 +4692,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4807,7 +4816,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4936,7 +4945,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4947,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5065,20 +5074,22 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>200</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>233766</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5196,20 +5207,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>200</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>233966</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5327,20 +5340,22 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>104</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>126660.56000000001</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5718,7 +5733,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5729,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6107,7 +6122,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6365,7 +6380,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6427,7 +6442,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6438,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6558,7 +6573,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6569,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6689,7 +6704,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6700,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6820,7 +6835,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6831,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6951,7 +6966,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6962,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7082,7 +7097,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7211,7 +7226,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7222,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7342,7 +7357,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7353,7 +7368,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7473,7 +7488,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
@@ -7484,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7602,19 +7617,23 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:120" ht="15" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="B57" s="28">
-        <v>20340.84</v>
-      </c>
-      <c r="C57" s="17"/>
+        <v>5498.31</v>
+      </c>
+      <c r="C57" s="17">
+        <v>40</v>
+      </c>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="65"/>
+        <v>219932.40000000002</v>
+      </c>
+      <c r="E57" s="65" t="s">
+        <v>247</v>
+      </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -7873,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7993,7 +8012,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8380,7 +8399,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8391,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8769,7 +8788,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8898,7 +8917,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8909,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8969,7 +8988,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8980,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9040,7 +9059,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9102,7 +9121,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9164,7 +9183,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9175,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9228,7 +9247,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9239,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9292,7 +9311,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9303,7 +9322,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9356,7 +9375,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9367,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9431,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9482,20 +9501,22 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17">
+        <v>56</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>389302.48</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9610,7 +9631,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9672,7 +9693,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9683,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9803,7 +9824,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9814,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9934,7 +9955,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9945,7 +9966,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10076,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10387,7 +10408,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10398,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10451,20 +10472,20 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76023.599999999991</v>
+        <v>253412</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10521,20 +10542,20 @@
     </row>
     <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>261220.48000000001</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10803,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10934,7 +10955,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11312,7 +11333,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11441,7 +11462,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11452,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11516,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11569,7 +11590,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="28">
         <v>1334.2405000000001</v>
@@ -11580,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11700,20 +11721,20 @@
     </row>
     <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
       <c r="C98" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>84199.799999999988</v>
+        <v>280666</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11831,20 +11852,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>200</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>244812</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11964,7 +11987,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11975,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12095,7 +12118,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12106,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12212,20 +12235,22 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>20</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24297.800000000003</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12278,20 +12303,20 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>73076.94</v>
+        <v>243589.80000000002</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12399,7 +12424,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12410,7 +12435,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12474,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12594,7 +12619,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12605,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12854,7 +12879,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12983,7 +13008,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12994,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13243,7 +13268,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13254,7 +13279,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13710,7 +13735,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13721,7 +13746,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13981,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14357,20 +14382,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>90</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>125127</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14490,7 +14517,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -15075,7 +15102,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15086,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15206,7 +15233,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15217,7 +15244,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15337,7 +15364,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15724,7 +15751,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15735,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15855,7 +15882,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15866,7 +15893,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15986,7 +16013,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15997,7 +16024,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16117,7 +16144,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16128,7 +16155,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16248,7 +16275,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16259,7 +16286,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16637,7 +16664,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16648,7 +16675,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16701,7 +16728,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16763,7 +16790,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16887,7 +16914,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16960,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17075,7 +17102,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17086,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17206,7 +17233,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17217,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17477,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17726,7 +17753,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17737,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17868,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18117,7 +18144,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18246,7 +18273,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18257,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18377,7 +18404,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18388,7 +18415,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18508,7 +18535,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18519,7 +18546,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18641,7 +18668,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18652,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18705,7 +18732,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18834,7 +18861,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18845,7 +18872,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18965,7 +18992,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18976,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19094,20 +19121,22 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="36" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>70</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>524169.10000000003</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19227,7 +19256,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19356,7 +19385,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19367,7 +19396,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19487,7 +19516,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19498,7 +19527,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19618,7 +19647,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19629,7 +19658,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19747,20 +19776,22 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
       </c>
-      <c r="C168" s="17"/>
+      <c r="C168" s="17">
+        <v>92</v>
+      </c>
       <c r="D168" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>715620.15999999992</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19878,20 +19909,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>10</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>83201.5</v>
       </c>
       <c r="E169" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20011,7 +20044,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20022,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20142,7 +20175,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20153,7 +20186,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20273,7 +20306,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20284,7 +20317,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20402,22 +20435,20 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
       </c>
-      <c r="C173" s="70">
-        <v>50</v>
-      </c>
+      <c r="C173" s="70"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>440316</v>
-      </c>
-      <c r="E173" s="88" t="s">
-        <v>306</v>
+        <v>0</v>
+      </c>
+      <c r="E173" s="73" t="s">
+        <v>303</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20537,7 +20568,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="68" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
@@ -20548,7 +20579,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20667,17 +20698,17 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="81" t="s">
+      <c r="A175" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="82"/>
+      <c r="B175" s="83"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C86:C174)</f>
-        <v>290</v>
+        <f>SUBTOTAL(9,C5:C174)</f>
+        <v>3000</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D86:D174)</f>
-        <v>751982.48399999994</v>
+        <f>SUBTOTAL(9,D5:D174)</f>
+        <v>5160898.6599999992</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20919,18 +20950,18 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="73"/>
-      <c r="C177" s="73"/>
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="74"/>
+      <c r="E177" s="74"/>
       <c r="I177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="78" t="s">
+      <c r="B178" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="79"/>
-      <c r="D178" s="80"/>
+      <c r="C178" s="80"/>
+      <c r="D178" s="81"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
         <v>133</v>
@@ -20951,10 +20982,10 @@
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="47">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20965,7 +20996,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20973,11 +21004,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -21034,33 +21065,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="87" t="e">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="87"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23001,10 +23032,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="83" t="s">
+      <c r="A101" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="83"/>
+      <c r="B101" s="84"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>
